--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.353207501146861</v>
+        <v>-2.353693770420279</v>
       </c>
       <c r="G19">
         <v>-0.01547607605790446</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.382732714691295</v>
+        <v>-2.383218983964714</v>
       </c>
       <c r="G21">
         <v>-0.02366234118036248</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.397272968296414</v>
+        <v>-2.39824550684325</v>
       </c>
       <c r="G22">
         <v>-0.02753312057449309</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.425061435586718</v>
+        <v>-2.425596278963135</v>
       </c>
       <c r="G24">
         <v>-0.03398263944282087</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.465240692067227</v>
+        <v>-2.4668988417541</v>
       </c>
       <c r="G27">
         <v>-0.04215347329036523</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.490833373741478</v>
+        <v>-2.492440696423493</v>
       </c>
       <c r="G29">
         <v>-0.04640720654263886</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.504010002023183</v>
+        <v>-2.505875046172442</v>
       </c>
       <c r="G30">
         <v>-0.04891436061335597</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.517300031780716</v>
+        <v>-2.51792836814369</v>
       </c>
       <c r="G31">
         <v>-0.05153491615990125</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.531519094502454</v>
+        <v>-2.531767154068421</v>
       </c>
       <c r="G32">
         <v>-0.05508450467065074</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.542597671166983</v>
+        <v>-2.545630542674616</v>
       </c>
       <c r="G33">
         <v>-0.05549360712419182</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.553209946248677</v>
+        <v>-2.555881000951224</v>
       </c>
       <c r="G34">
         <v>-0.05543640799489746</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.571013722365287</v>
+        <v>-2.571777113547878</v>
       </c>
       <c r="G35">
         <v>-0.06257070990051949</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.580912678063352</v>
+        <v>-2.58245648586218</v>
       </c>
       <c r="G36">
         <v>-0.06180019138759674</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.592357321065971</v>
+        <v>-2.592577419293012</v>
       </c>
       <c r="G37">
         <v>-0.0625753601792276</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.601416746868997</v>
+        <v>-2.604332024068656</v>
       </c>
       <c r="G38">
         <v>-0.06096531177126518</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.612251347266141</v>
+        <v>-2.61938085125975</v>
       </c>
       <c r="G39">
         <v>-0.06113043795742135</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.627776369484904</v>
+        <v>-2.629949850788401</v>
       </c>
       <c r="G40">
         <v>-0.06598598596519567</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.637181646910133</v>
+        <v>-2.639190904813274</v>
       </c>
       <c r="G41">
         <v>-0.06472178917943605</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.651561825257148</v>
+        <v>-2.654935915725514</v>
       </c>
       <c r="G42">
         <v>-0.06843249331546297</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.682851088549461</v>
+        <v>-2.687773375382053</v>
       </c>
       <c r="G45">
         <v>-0.06771333397481127</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.69592412989002</v>
+        <v>-2.700805350080552</v>
       </c>
       <c r="G46">
         <v>-0.07011690110438251</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.704531617764563</v>
+        <v>-2.708113764470079</v>
       </c>
       <c r="G47">
         <v>-0.0680549147679379</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.727263847120061</v>
+        <v>-2.729769037787418</v>
       </c>
       <c r="G49">
         <v>-0.06944819570145966</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.738390746792661</v>
+        <v>-2.745064311868351</v>
       </c>
       <c r="G50">
         <v>-0.06990562116307153</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.746977713365797</v>
+        <v>-2.754696055279098</v>
       </c>
       <c r="G51">
         <v>-0.06782311352521919</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.761155615615605</v>
+        <v>-2.761498274252739</v>
       </c>
       <c r="G52">
         <v>-0.07133154156403843</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.770846485673145</v>
+        <v>-2.77320030005048</v>
       </c>
       <c r="G53">
         <v>-0.0703529374105909</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.801988032625542</v>
+        <v>-2.802800417374138</v>
       </c>
       <c r="G56">
         <v>-0.06948606173002303</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.809729120064212</v>
+        <v>-2.811161549221686</v>
       </c>
       <c r="G57">
         <v>-0.06655767495770515</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.816596346769245</v>
+        <v>-2.820000732869102</v>
       </c>
       <c r="G58">
         <v>-0.06275542745175011</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.826819748466304</v>
+        <v>-2.831707889992677</v>
       </c>
       <c r="G59">
         <v>-0.06230935493782119</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.837694914594143</v>
+        <v>-2.840633843320011</v>
       </c>
       <c r="G60">
         <v>-0.06251504685467091</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.85335311383876</v>
+        <v>-2.85655283041309</v>
       </c>
       <c r="G62">
         <v>-0.05683429767731252</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.862357252975187</v>
+        <v>-2.864125847201537</v>
       </c>
       <c r="G63">
         <v>-0.05516896260275117</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.870320373685632</v>
+        <v>-2.872693850777946</v>
       </c>
       <c r="G64">
         <v>-0.05246260910220812</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.878556004010102</v>
+        <v>-2.880402784045543</v>
       </c>
       <c r="G65">
         <v>-0.050028765215689</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.887124007586511</v>
+        <v>-2.887832630027028</v>
       </c>
       <c r="G66">
         <v>-0.04792729458110984</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.902692321989999</v>
+        <v>-2.902971409276109</v>
       </c>
       <c r="G68">
         <v>-0.04215666056262185</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.924201652090457</v>
+        <v>-2.924702772648343</v>
       </c>
       <c r="G71">
         <v>-0.0316575680301151</v>
@@ -2048,7 +2048,7 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.930851290227945</v>
+        <v>-2.931352410785832</v>
       </c>
       <c r="G72">
         <v>-0.02763773195661523</v>
@@ -2071,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.937500928365434</v>
+        <v>-2.938002048923321</v>
       </c>
       <c r="G73">
         <v>-0.023617895883116</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.601538744847872</v>
+        <v>-2.602071086979321</v>
       </c>
       <c r="G81">
         <v>-0.0271238420753801</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.692225659393657</v>
+        <v>-2.693267700516523</v>
       </c>
       <c r="G82">
         <v>-0.04530040950317771</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.775501740571912</v>
+        <v>-2.776422603574851</v>
       </c>
       <c r="G83">
         <v>-0.05606614356344508</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.066124627080013</v>
+        <v>-3.067870803236695</v>
       </c>
       <c r="G87">
         <v>-0.05664764159959279</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.694014122378773</v>
+        <v>-2.694528272723706</v>
       </c>
       <c r="G92">
         <v>-0.0274251304967521</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.875039774491127</v>
+        <v>-2.876150229276483</v>
       </c>
       <c r="G94">
         <v>-0.05732056178384681</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.957976221307062</v>
+        <v>-2.958397451875545</v>
       </c>
       <c r="G95">
         <v>-0.06365675968834839</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.034364146440381</v>
+        <v>-3.034700059346741</v>
       </c>
       <c r="G96">
         <v>-0.06551471290784128</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.107582466246023</v>
+        <v>-3.10841469508629</v>
       </c>
       <c r="G97">
         <v>-0.06213278380205089</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.174827318713949</v>
+        <v>-3.176181343264492</v>
       </c>
       <c r="G98">
         <v>-0.05484766435614929</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.239769857953192</v>
+        <v>-3.240946765613902</v>
       </c>
       <c r="G99">
         <v>-0.04318995468395948</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.297341432236162</v>
+        <v>-3.297586502199296</v>
       </c>
       <c r="G100">
         <v>-0.0262315570531032</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861362693455736</v>
+        <v>-2.861477703545735</v>
       </c>
       <c r="G104">
         <v>-0.04598059086004769</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.949629959974812</v>
+        <v>-2.949697298100681</v>
       </c>
       <c r="G105">
         <v>-0.0572772013299756</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.109238277716249</v>
+        <v>-3.110817241947931</v>
       </c>
       <c r="G107">
         <v>-0.061777984911765</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.321816525602171</v>
+        <v>-3.322295063063772</v>
       </c>
       <c r="G110">
         <v>-0.04111182052753937</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.382233129067347</v>
+        <v>-3.382396852293221</v>
       </c>
       <c r="G111">
         <v>-0.02455776794356712</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.994323876105067</v>
+        <v>-2.99480823433857</v>
       </c>
       <c r="G116">
         <v>-0.05663740195753153</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.078340011404825</v>
+        <v>-3.078537741007889</v>
       </c>
       <c r="G117">
         <v>-0.06181497588424678</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.233339967396196</v>
+        <v>-3.233449318341689</v>
       </c>
       <c r="G119">
         <v>-0.05913780912953115</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.304466532625841</v>
+        <v>-3.305220135186663</v>
       </c>
       <c r="G120">
         <v>-0.05142581298613214</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.371519604421335</v>
+        <v>-3.372211794307729</v>
       </c>
       <c r="G121">
         <v>-0.03964032340858326</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.840828879028813</v>
+        <v>-2.840847225032321</v>
       </c>
       <c r="G125">
         <v>-0.0251915002879719</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939053831647338</v>
+        <v>-2.939693843984885</v>
       </c>
       <c r="G126">
         <v>-0.04350738271569021</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.030730265967393</v>
+        <v>-3.031064836471515</v>
       </c>
       <c r="G127">
         <v>-0.05527474684493816</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.115582620397098</v>
+        <v>-3.116473470151794</v>
       </c>
       <c r="G128">
         <v>-0.06069086581869265</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.272996445819865</v>
+        <v>-3.273390657853623</v>
       </c>
       <c r="G130">
         <v>-0.05828655085984602</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.865029872699439</v>
+        <v>-2.865241100350405</v>
       </c>
       <c r="G136">
         <v>-0.02473148524526625</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.963985547221281</v>
+        <v>-2.964355675289635</v>
       </c>
       <c r="G137">
         <v>-0.04312601068246824</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.056912775960882</v>
+        <v>-3.056970208673973</v>
       </c>
       <c r="G138">
         <v>-0.05549209033742941</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.142847142753715</v>
+        <v>-3.143210981599943</v>
       </c>
       <c r="G139">
         <v>-0.06119279239149455</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.373313322110435</v>
+        <v>-3.373764450745896</v>
       </c>
       <c r="G142">
         <v>-0.05030300884016803</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.88602222106176</v>
+        <v>-2.886277346846371</v>
       </c>
       <c r="G147">
         <v>-0.02450904786994013</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.98483684502041</v>
+        <v>-2.985182889454356</v>
       </c>
       <c r="G148">
         <v>-0.0422366483371488</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.078222272298962</v>
+        <v>-3.078564334793958</v>
       </c>
       <c r="G149">
         <v>-0.05453505212425891</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.324308719292248</v>
+        <v>-3.324334163899056</v>
       </c>
       <c r="G152">
         <v>-0.05736042864322144</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.398228281299799</v>
+        <v>-3.3982752033668</v>
       </c>
       <c r="G153">
         <v>-0.05019296715933086</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.467495772517932</v>
+        <v>-3.468062109312019</v>
       </c>
       <c r="G154">
         <v>-0.03837343488602185</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.532355942817898</v>
+        <v>-3.532371014474112</v>
       </c>
       <c r="G155">
         <v>-0.02214658169454659</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.000999370564859</v>
+        <v>-3.001658065386977</v>
       </c>
       <c r="G159">
         <v>-0.04189026454514089</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.094476305065399</v>
+        <v>-3.095169986667171</v>
       </c>
       <c r="G160">
         <v>-0.05387089609007667</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.2640376771388</v>
+        <v>-3.264870276982923</v>
       </c>
       <c r="G162">
         <v>-0.06043966225226982</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.416636938693216</v>
+        <v>-3.41680523287686</v>
       </c>
       <c r="G164">
         <v>-0.05004631789547742</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.551365952082381</v>
+        <v>-3.551492956456796</v>
       </c>
       <c r="G166">
         <v>-0.02178272537343323</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.91562809012318</v>
+        <v>-2.915715175057834</v>
       </c>
       <c r="G169">
         <v>-0.02391660896251446</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.015368974829371</v>
+        <v>-3.015644031584662</v>
       </c>
       <c r="G170">
         <v>-0.04178397162408398</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.108990850536402</v>
+        <v>-3.109553057557964</v>
       </c>
       <c r="G171">
         <v>-0.05353232528649365</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.197577945071724</v>
+        <v>-3.197871123768836</v>
       </c>
       <c r="G172">
         <v>-0.06011123737909507</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.280078241318015</v>
+        <v>-3.280261057606323</v>
       </c>
       <c r="G173">
         <v>-0.06073801158076497</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.358146938768631</v>
+        <v>-3.358329123130639</v>
       </c>
       <c r="G174">
         <v>-0.05693318698675953</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.433095255641706</v>
+        <v>-3.433157188249203</v>
       </c>
       <c r="G175">
         <v>-0.04987332141711354</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.503224784435532</v>
+        <v>-3.503298429944536</v>
       </c>
       <c r="G176">
         <v>-0.0381293281663182</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.568529298076184</v>
+        <v>-3.568710201009377</v>
       </c>
       <c r="G177">
         <v>-0.0215603197623494</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.026607095060204</v>
+        <v>-3.026812346295589</v>
       </c>
       <c r="G181">
         <v>-0.04155585863131739</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.209375430528573</v>
+        <v>-3.209761212219877</v>
       </c>
       <c r="G183">
         <v>-0.05982351944381126</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.292698155590562</v>
+        <v>-3.293059730906927</v>
       </c>
       <c r="G184">
         <v>-0.06094853055427274</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.370876174918792</v>
+        <v>-3.371010390950054</v>
       </c>
       <c r="G185">
         <v>-0.05692883593097497</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.446105716996188</v>
+        <v>-3.446198812549951</v>
       </c>
       <c r="G186">
         <v>-0.04985541730402343</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.516533904439697</v>
+        <v>-3.51658569195889</v>
       </c>
       <c r="G187">
         <v>-0.03808589079600488</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.582165421793492</v>
+        <v>-3.582290062975798</v>
       </c>
       <c r="G188">
         <v>-0.02151969419827232</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936490472422765</v>
+        <v>-2.936519370181288</v>
       </c>
       <c r="G191">
         <v>-0.02353717146087142</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.036678578341838</v>
+        <v>-3.036786058641314</v>
       </c>
       <c r="G192">
         <v>-0.04121893721188785</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.131399216519042</v>
+        <v>-3.13160046009555</v>
       </c>
       <c r="G193">
         <v>-0.05343323522103627</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.220207497699707</v>
+        <v>-3.220630444897207</v>
       </c>
       <c r="G194">
         <v>-0.05973517623364599</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.303737371744656</v>
+        <v>-3.303755150116241</v>
       </c>
       <c r="G195">
         <v>-0.06075871011053935</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.382314571298805</v>
+        <v>-3.382369779090812</v>
       </c>
       <c r="G196">
         <v>-0.05682956949663187</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.59458121863378</v>
+        <v>-3.594699535432957</v>
       </c>
       <c r="G199">
         <v>-0.02157719632743971</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.944520730257695</v>
+        <v>-2.944580003052887</v>
       </c>
       <c r="G202">
         <v>-0.02336622416951029</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.045013700693212</v>
+        <v>-3.045096169581721</v>
       </c>
       <c r="G203">
         <v>-0.04107750574705404</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.13993642451408</v>
+        <v>-3.139999798431259</v>
       </c>
       <c r="G204">
         <v>-0.053286394553274</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.229368222355883</v>
+        <v>-3.229468792502834</v>
       </c>
       <c r="G205">
         <v>-0.05993650353710445</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.467339269820014</v>
+        <v>-3.467492438680791</v>
       </c>
       <c r="G208">
         <v>-0.04969819211396842</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.604588831453002</v>
+        <v>-3.604634740223863</v>
       </c>
       <c r="G210">
         <v>-0.02145222987433648</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.368456377192497</v>
+        <v>-2.368942646465915</v>
       </c>
       <c r="G20">
         <v>-0.02005547789255191</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.411326952628114</v>
+        <v>-2.411813221901534</v>
       </c>
       <c r="G23">
         <v>-0.03091763069520503</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.425596278963135</v>
+        <v>-2.426791170677071</v>
       </c>
       <c r="G24">
         <v>-0.03398263944282087</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.555881000951224</v>
+        <v>-2.557535206187754</v>
       </c>
       <c r="G34">
         <v>-0.05543640799489746</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.592577419293012</v>
+        <v>-2.596740167184509</v>
       </c>
       <c r="G37">
         <v>-0.0625753601792276</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.604332024068656</v>
+        <v>-2.606972956177235</v>
       </c>
       <c r="G38">
         <v>-0.06096531177126518</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.639190904813274</v>
+        <v>-2.643748512189268</v>
       </c>
       <c r="G41">
         <v>-0.06472178917943605</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.665405765241237</v>
+        <v>-2.665783583077272</v>
       </c>
       <c r="G43">
         <v>-0.07160695908856418</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.673804312156571</v>
+        <v>-2.676082615456879</v>
       </c>
       <c r="G44">
         <v>-0.06933603179290992</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.708113764470079</v>
+        <v>-2.710875771516297</v>
       </c>
       <c r="G47">
         <v>-0.0680549147679379</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.720625399127145</v>
+        <v>-2.722741856419504</v>
       </c>
       <c r="G48">
         <v>-0.07347922191953127</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.761498274252739</v>
+        <v>-2.763617563902203</v>
       </c>
       <c r="G52">
         <v>-0.07133154156403843</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.77320030005048</v>
+        <v>-2.778546505086266</v>
       </c>
       <c r="G53">
         <v>-0.0703529374105909</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.781696718223408</v>
+        <v>-2.785496339571095</v>
       </c>
       <c r="G54">
         <v>-0.07053369574986501</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.802800417374138</v>
+        <v>-2.803243807261966</v>
       </c>
       <c r="G56">
         <v>-0.06948606173002303</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.811161549221686</v>
+        <v>-2.812538732716544</v>
       </c>
       <c r="G57">
         <v>-0.06655767495770515</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.693267700516523</v>
+        <v>-2.693523169704959</v>
       </c>
       <c r="G82">
         <v>-0.04530040950317771</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.931343440554799</v>
+        <v>-2.932526893703173</v>
       </c>
       <c r="G85">
         <v>-0.06688714931035511</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.067870803236695</v>
+        <v>-3.068320344118559</v>
       </c>
       <c r="G87">
         <v>-0.05664764159959279</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.183363245221947</v>
+        <v>-3.184878772452446</v>
       </c>
       <c r="G89">
         <v>-0.02886556550554975</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.958397451875545</v>
+        <v>-2.958527534362525</v>
       </c>
       <c r="G95">
         <v>-0.06365675968834839</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.297586502199296</v>
+        <v>-3.297728290269394</v>
       </c>
       <c r="G100">
         <v>-0.0262315570531032</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.032203233999275</v>
+        <v>-3.032704862597514</v>
       </c>
       <c r="G106">
         <v>-0.0617135972439391</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.186108731358488</v>
+        <v>-3.186408404836948</v>
       </c>
       <c r="G108">
         <v>-0.06051156044350514</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.255677200219881</v>
+        <v>-3.256127820415902</v>
       </c>
       <c r="G109">
         <v>-0.05310937325574883</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.382396852293221</v>
+        <v>-3.382436859107279</v>
       </c>
       <c r="G111">
         <v>-0.02455776794356712</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.434333299005675</v>
+        <v>-3.434545253111084</v>
       </c>
       <c r="G122">
         <v>-0.02361545661987924</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.840847225032321</v>
+        <v>-2.841107783750047</v>
       </c>
       <c r="G125">
         <v>-0.0251915002879719</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.031064836471515</v>
+        <v>-3.031216712617106</v>
       </c>
       <c r="G127">
         <v>-0.05527474684493816</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.116473470151794</v>
+        <v>-3.116497052165662</v>
       </c>
       <c r="G128">
         <v>-0.06069086581869265</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.273390657853623</v>
+        <v>-3.273578077851144</v>
       </c>
       <c r="G130">
         <v>-0.05828655085984602</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.413356110641776</v>
+        <v>-3.413969111337239</v>
       </c>
       <c r="G132">
         <v>-0.03930091003499936</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.865241100350405</v>
+        <v>-2.86536673107977</v>
       </c>
       <c r="G136">
         <v>-0.02473148524526625</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.223074011248003</v>
+        <v>-3.223666576231747</v>
       </c>
       <c r="G140">
         <v>-0.06085851180114266</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.442596476996518</v>
+        <v>-3.442769482096274</v>
       </c>
       <c r="G143">
         <v>-0.03902501464161112</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.985182889454356</v>
+        <v>-2.985531829177266</v>
       </c>
       <c r="G148">
         <v>-0.0422366483371488</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.3982752033668</v>
+        <v>-3.398432335541071</v>
       </c>
       <c r="G153">
         <v>-0.05019296715933086</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.182755918040828</v>
+        <v>-3.182845561584018</v>
       </c>
       <c r="G161">
         <v>-0.06065420610990224</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.197871123768836</v>
+        <v>-3.198025301521046</v>
       </c>
       <c r="G172">
         <v>-0.06011123737909507</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.433157188249203</v>
+        <v>-3.433211104260087</v>
       </c>
       <c r="G175">
         <v>-0.04987332141711354</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.503298429944536</v>
+        <v>-3.503325048591639</v>
       </c>
       <c r="G176">
         <v>-0.0381293281663182</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.446198812549951</v>
+        <v>-3.446330841447991</v>
       </c>
       <c r="G186">
         <v>-0.04985541730402343</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936519370181288</v>
+        <v>-2.936635106425835</v>
       </c>
       <c r="G191">
         <v>-0.02353717146087142</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.036786058641314</v>
+        <v>-3.036866351777255</v>
       </c>
       <c r="G192">
         <v>-0.04121893721188785</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.13160046009555</v>
+        <v>-3.131786100618213</v>
       </c>
       <c r="G193">
         <v>-0.05343323522103627</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.303755150116241</v>
+        <v>-3.303863025383118</v>
       </c>
       <c r="G195">
         <v>-0.06075871011053935</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.382369779090812</v>
+        <v>-3.382735035819339</v>
       </c>
       <c r="G196">
         <v>-0.05682956949663187</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.229468792502834</v>
+        <v>-3.229515658739466</v>
       </c>
       <c r="G205">
         <v>-0.05993650353710445</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.604634740223863</v>
+        <v>-3.604651329482953</v>
       </c>
       <c r="G210">
         <v>-0.02145222987433648</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.383218983964714</v>
+        <v>-2.384191522511551</v>
       </c>
       <c r="G21">
         <v>-0.02366234118036248</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.411813221901534</v>
+        <v>-2.413008113615469</v>
       </c>
       <c r="G23">
         <v>-0.03091763069520503</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.51792836814369</v>
+        <v>-2.519870794499867</v>
       </c>
       <c r="G31">
         <v>-0.05153491615990125</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.557535206187754</v>
+        <v>-2.557763962766169</v>
       </c>
       <c r="G34">
         <v>-0.05543640799489746</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.629949850788401</v>
+        <v>-2.630058535650075</v>
       </c>
       <c r="G40">
         <v>-0.06598598596519567</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.654935915725514</v>
+        <v>-2.656063414868115</v>
       </c>
       <c r="G42">
         <v>-0.06843249331546297</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.676082615456879</v>
+        <v>-2.677756870065907</v>
       </c>
       <c r="G44">
         <v>-0.06933603179290992</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.687773375382053</v>
+        <v>-2.69038142359811</v>
       </c>
       <c r="G45">
         <v>-0.06771333397481127</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.710875771516297</v>
+        <v>-2.711563132591179</v>
       </c>
       <c r="G47">
         <v>-0.0680549147679379</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.722741856419504</v>
+        <v>-2.723203835637109</v>
       </c>
       <c r="G48">
         <v>-0.07347922191953127</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.729769037787418</v>
+        <v>-2.730708859103827</v>
       </c>
       <c r="G49">
         <v>-0.06944819570145966</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.754696055279098</v>
+        <v>-2.755017406154723</v>
       </c>
       <c r="G51">
         <v>-0.06782311352521919</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.763617563902203</v>
+        <v>-2.763702736880504</v>
       </c>
       <c r="G52">
         <v>-0.07133154156403843</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.803243807261966</v>
+        <v>-2.803620056450543</v>
       </c>
       <c r="G56">
         <v>-0.06948606173002303</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.812538732716544</v>
+        <v>-2.81351258770975</v>
       </c>
       <c r="G57">
         <v>-0.06655767495770515</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.820000732869102</v>
+        <v>-2.822789213726676</v>
       </c>
       <c r="G58">
         <v>-0.06275542745175011</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.864125847201537</v>
+        <v>-2.864834469642054</v>
       </c>
       <c r="G63">
         <v>-0.05516896260275117</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.894983388722403</v>
+        <v>-2.895541563294624</v>
       </c>
       <c r="G67">
         <v>-0.04511720150601367</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.602071086979321</v>
+        <v>-2.602399813560761</v>
       </c>
       <c r="G81">
         <v>-0.0271238420753801</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.776422603574851</v>
+        <v>-2.778450879950124</v>
       </c>
       <c r="G83">
         <v>-0.05606614356344508</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.932526893703173</v>
+        <v>-2.932797250063943</v>
       </c>
       <c r="G85">
         <v>-0.06688714931035511</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.002080779211358</v>
+        <v>-3.00448362308738</v>
       </c>
       <c r="G86">
         <v>-0.06511414084892553</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.129269376487215</v>
+        <v>-3.129444805202509</v>
       </c>
       <c r="G88">
         <v>-0.04728204388880586</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.184878772452446</v>
+        <v>-3.185141612639268</v>
       </c>
       <c r="G89">
         <v>-0.02886556550554975</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.790069669590768</v>
+        <v>-2.790219653567465</v>
       </c>
       <c r="G93">
         <v>-0.0468804287973148</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.876150229276483</v>
+        <v>-2.876510028067753</v>
       </c>
       <c r="G94">
         <v>-0.05732056178384681</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.10841469508629</v>
+        <v>-3.109251607363931</v>
       </c>
       <c r="G97">
         <v>-0.06213278380205089</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.297728290269394</v>
+        <v>-3.297977047314697</v>
       </c>
       <c r="G100">
         <v>-0.0262315570531032</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.763895239754051</v>
+        <v>-2.764007443179478</v>
       </c>
       <c r="G103">
         <v>-0.02665001526886268</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.032704862597514</v>
+        <v>-3.033273136451566</v>
       </c>
       <c r="G106">
         <v>-0.0617135972439391</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.186408404836948</v>
+        <v>-3.186647642380811</v>
       </c>
       <c r="G108">
         <v>-0.06051156044350514</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.256127820415902</v>
+        <v>-3.256540527222933</v>
       </c>
       <c r="G109">
         <v>-0.05310937325574883</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.322295063063772</v>
+        <v>-3.322489521442541</v>
       </c>
       <c r="G110">
         <v>-0.04111182052753937</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.382436859107279</v>
+        <v>-3.382807889657526</v>
       </c>
       <c r="G111">
         <v>-0.02455776794356712</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.903611307965973</v>
+        <v>-2.904137700079156</v>
       </c>
       <c r="G115">
         <v>-0.04476339519148143</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.078537741007889</v>
+        <v>-3.078975187106722</v>
       </c>
       <c r="G117">
         <v>-0.06181497588424678</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.233449318341689</v>
+        <v>-3.233624650256537</v>
       </c>
       <c r="G119">
         <v>-0.05913780912953115</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.372211794307729</v>
+        <v>-3.372252946602287</v>
       </c>
       <c r="G121">
         <v>-0.03964032340858326</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.434545253111084</v>
+        <v>-3.434738898291919</v>
       </c>
       <c r="G122">
         <v>-0.02361545661987924</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.841107783750047</v>
+        <v>-2.841322691949499</v>
       </c>
       <c r="G125">
         <v>-0.0251915002879719</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939693843984885</v>
+        <v>-2.939837679311814</v>
       </c>
       <c r="G126">
         <v>-0.04350738271569021</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.031216712617106</v>
+        <v>-3.031284856529313</v>
       </c>
       <c r="G127">
         <v>-0.05527474684493816</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.116497052165662</v>
+        <v>-3.11665143104472</v>
       </c>
       <c r="G128">
         <v>-0.06069086581869265</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.413969111337239</v>
+        <v>-3.413984898074196</v>
       </c>
       <c r="G132">
         <v>-0.03930091003499936</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.476684672359531</v>
+        <v>-3.476823808604174</v>
       </c>
       <c r="G133">
         <v>-0.0227204015619476</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.86536673107977</v>
+        <v>-2.865410925777927</v>
       </c>
       <c r="G136">
         <v>-0.02473148524526625</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.143210981599943</v>
+        <v>-3.143524845588054</v>
       </c>
       <c r="G139">
         <v>-0.06119279239149455</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.300709398779696</v>
+        <v>-3.30110615211755</v>
       </c>
       <c r="G141">
         <v>-0.05793275024819611</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.373764450745896</v>
+        <v>-3.374069493330541</v>
       </c>
       <c r="G142">
         <v>-0.05030300884016803</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.442769482096274</v>
+        <v>-3.442949171809099</v>
       </c>
       <c r="G143">
         <v>-0.03902501464161112</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.165752139671205</v>
+        <v>-3.165800260228864</v>
       </c>
       <c r="G150">
         <v>-0.06097789600506109</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.324334163899056</v>
+        <v>-3.324367319451772</v>
       </c>
       <c r="G152">
         <v>-0.05736042864322144</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.001658065386977</v>
+        <v>-3.001739692411167</v>
       </c>
       <c r="G159">
         <v>-0.04189026454514089</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.342279832389834</v>
+        <v>-3.342662379851824</v>
       </c>
       <c r="G163">
         <v>-0.05718551454770004</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.41680523287686</v>
+        <v>-3.417239278833953</v>
       </c>
       <c r="G164">
         <v>-0.05004631789547742</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.551492956456796</v>
+        <v>-3.5515913553266</v>
       </c>
       <c r="G166">
         <v>-0.02178272537343323</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.015644031584662</v>
+        <v>-3.015702668038736</v>
       </c>
       <c r="G170">
         <v>-0.04178397162408398</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.280261057606323</v>
+        <v>-3.280461091289299</v>
       </c>
       <c r="G173">
         <v>-0.06073801158076497</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.433211104260087</v>
+        <v>-3.433449142731877</v>
       </c>
       <c r="G175">
         <v>-0.04987332141711354</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.503325048591639</v>
+        <v>-3.503465015525578</v>
       </c>
       <c r="G176">
         <v>-0.0381293281663182</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.568710201009377</v>
+        <v>-3.568857183724853</v>
       </c>
       <c r="G177">
         <v>-0.0215603197623494</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926611560763042</v>
+        <v>-2.926623927779211</v>
       </c>
       <c r="G180">
         <v>-0.02375803828568301</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.209761212219877</v>
+        <v>-3.209954810577135</v>
       </c>
       <c r="G183">
         <v>-0.05982351944381126</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.446330841447991</v>
+        <v>-3.446354202755679</v>
       </c>
       <c r="G186">
         <v>-0.04985541730402343</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.51658569195889</v>
+        <v>-3.516624140031518</v>
       </c>
       <c r="G187">
         <v>-0.03808589079600488</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.582290062975798</v>
+        <v>-3.582311969706945</v>
       </c>
       <c r="G188">
         <v>-0.02151969419827232</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.036866351777255</v>
+        <v>-3.036941117985335</v>
       </c>
       <c r="G192">
         <v>-0.04121893721188785</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.131786100618213</v>
+        <v>-3.131982644978842</v>
       </c>
       <c r="G193">
         <v>-0.05343323522103627</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.220630444897207</v>
+        <v>-3.220852943769009</v>
       </c>
       <c r="G194">
         <v>-0.05973517623364599</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.303863025383118</v>
+        <v>-3.30431783435154</v>
       </c>
       <c r="G195">
         <v>-0.06075871011053935</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.944580003052887</v>
+        <v>-2.944673874178096</v>
       </c>
       <c r="G202">
         <v>-0.02336622416951029</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.045096169581721</v>
+        <v>-3.045210454587111</v>
       </c>
       <c r="G203">
         <v>-0.04107750574705404</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.139999798431259</v>
+        <v>-3.140206536442185</v>
       </c>
       <c r="G204">
         <v>-0.053286394553274</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.313291297043981</v>
+        <v>-3.313624244958437</v>
       </c>
       <c r="G206">
         <v>-0.06114574321055488</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.538464425528185</v>
+        <v>-3.538523945239552</v>
       </c>
       <c r="G209">
         <v>-0.03804165896416634</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.604651329482953</v>
+        <v>-3.604680026804611</v>
       </c>
       <c r="G210">
         <v>-0.02145222987433648</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.4668988417541</v>
+        <v>-2.467535878791137</v>
       </c>
       <c r="G27">
         <v>-0.04215347329036523</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.557763962766169</v>
+        <v>-2.55847373439114</v>
       </c>
       <c r="G34">
         <v>-0.05543640799489746</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.677756870065907</v>
+        <v>-2.678995327458033</v>
       </c>
       <c r="G44">
         <v>-0.06933603179290992</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.723203835637109</v>
+        <v>-2.724567794552314</v>
       </c>
       <c r="G48">
         <v>-0.07347922191953127</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.730708859103827</v>
+        <v>-2.735794962912759</v>
       </c>
       <c r="G49">
         <v>-0.06944819570145966</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.763702736880504</v>
+        <v>-2.768296024076133</v>
       </c>
       <c r="G52">
         <v>-0.07133154156403843</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.790219653567465</v>
+        <v>-2.790637489733623</v>
       </c>
       <c r="G93">
         <v>-0.0468804287973148</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939837679311814</v>
+        <v>-2.939848078348163</v>
       </c>
       <c r="G126">
         <v>-0.04350738271569021</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.476823808604174</v>
+        <v>-3.476862417447789</v>
       </c>
       <c r="G133">
         <v>-0.0227204015619476</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.182845561584018</v>
+        <v>-3.182877662522043</v>
       </c>
       <c r="G161">
         <v>-0.06065420610990224</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.280461091289299</v>
+        <v>-3.280521653033609</v>
       </c>
       <c r="G173">
         <v>-0.06073801158076497</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.026812346295589</v>
+        <v>-3.026891329298286</v>
       </c>
       <c r="G181">
         <v>-0.04155585863131739</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.371010390950054</v>
+        <v>-3.371082842361333</v>
       </c>
       <c r="G185">
         <v>-0.05692883593097497</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.457967129982555</v>
+        <v>-3.45804667342506</v>
       </c>
       <c r="G197">
         <v>-0.04997578801232572</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.98466167250952</v>
+        <v>-1.984661672509521</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-1.77635683940025e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.042228299641554</v>
+        <v>-2.042228299641555</v>
       </c>
       <c r="G3">
-        <v>-0.01306052443690486</v>
+        <v>-0.01306052443690664</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.099794926773587</v>
+        <v>-2.099794926773589</v>
       </c>
       <c r="G4">
-        <v>-0.02612104887380973</v>
+        <v>-0.02612104887381195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.15736155390562</v>
+        <v>-2.157361553905622</v>
       </c>
       <c r="G5">
-        <v>-0.03918157331071437</v>
+        <v>-0.03918157331071614</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.214928181037653</v>
+        <v>-2.214928181037654</v>
       </c>
       <c r="G6">
-        <v>-0.05224209774761834</v>
+        <v>-0.05224209774761879</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.262929532377207</v>
+        <v>-2.262929532377208</v>
       </c>
       <c r="G7">
-        <v>-0.05573734639204364</v>
+        <v>-0.05573734639204408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.310930883716761</v>
+        <v>-2.310930883716762</v>
       </c>
       <c r="G8">
-        <v>-0.05923259503646916</v>
+        <v>-0.0592325950364696</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.358932235056315</v>
       </c>
       <c r="G9">
-        <v>-0.06272784368089379</v>
+        <v>-0.06272784368089335</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.406933586395869</v>
+        <v>-2.406933586395867</v>
       </c>
       <c r="G10">
-        <v>-0.06622309232531876</v>
+        <v>-0.06622309232531742</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.445369661942943</v>
+        <v>-2.445369661942942</v>
       </c>
       <c r="G11">
-        <v>-0.06015306517726438</v>
+        <v>-0.06015306517726304</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.483805737490017</v>
+        <v>-2.483805737490016</v>
       </c>
       <c r="G12">
-        <v>-0.05408303802920922</v>
+        <v>-0.05408303802920789</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.522241813037091</v>
+        <v>-2.522241813037089</v>
       </c>
       <c r="G13">
-        <v>-0.04801301088115484</v>
+        <v>-0.04801301088115306</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.560677888584165</v>
+        <v>-2.560677888584162</v>
       </c>
       <c r="G14">
-        <v>-0.0419429837331004</v>
+        <v>-0.04194298373309729</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.563241007546194</v>
+        <v>-2.563241007546191</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.305723002455992</v>
+        <v>-2.305723002455989</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.323196018329008</v>
+        <v>-2.323196018329007</v>
       </c>
       <c r="G17">
-        <v>-0.006803541662027346</v>
+        <v>-0.006803541662026014</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.338444894374644</v>
+        <v>-2.338444894374645</v>
       </c>
       <c r="G18">
-        <v>-0.01138294349667568</v>
+        <v>-0.01138294349667612</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.353693770420279</v>
+        <v>-2.353693770420282</v>
       </c>
       <c r="G19">
-        <v>-0.01547607605790446</v>
+        <v>-0.01596234533132534</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.368942646465915</v>
+        <v>-2.368942646465914</v>
       </c>
       <c r="G20">
-        <v>-0.02005547789255191</v>
+        <v>-0.02054174716596924</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.384191522511551</v>
+        <v>-2.383705253238135</v>
       </c>
       <c r="G21">
-        <v>-0.02366234118036248</v>
+        <v>-0.02463487972720202</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.39824550684325</v>
+        <v>-2.39663593125938</v>
       </c>
       <c r="G22">
-        <v>-0.02753312057449309</v>
+        <v>-0.02689608353745898</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.413008113615469</v>
+        <v>-2.411326952628116</v>
       </c>
       <c r="G23">
-        <v>-0.03091763069520503</v>
+        <v>-0.03091763069520637</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.426791170677071</v>
+        <v>-2.42511000968972</v>
       </c>
       <c r="G24">
-        <v>-0.03398263944282087</v>
+        <v>-0.0340312135458225</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.439061800360798</v>
+        <v>-2.438647116490864</v>
       </c>
       <c r="G25">
-        <v>-0.03731353000591198</v>
+        <v>-0.03689884613597827</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.453481894459437</v>
+        <v>-2.452898476980023</v>
       </c>
       <c r="G26">
-        <v>-0.04106414989356266</v>
+        <v>-0.04048073241414873</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.467535878791137</v>
+        <v>-2.466243838871206</v>
       </c>
       <c r="G27">
-        <v>-0.04215347329036523</v>
+        <v>-0.04315662009434384</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.480195629542285</v>
+        <v>-2.478331943349722</v>
       </c>
       <c r="G28">
-        <v>-0.04643893655443443</v>
+        <v>-0.04457525036187193</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.492440696423493</v>
+        <v>-2.494615723640927</v>
       </c>
       <c r="G29">
-        <v>-0.04640720654263886</v>
+        <v>-0.050189556442088</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.505875046172442</v>
+        <v>-2.504933822870671</v>
       </c>
       <c r="G30">
-        <v>-0.04891436061335597</v>
+        <v>-0.0498381814608444</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.519870794499867</v>
+        <v>-2.51986249055529</v>
       </c>
       <c r="G31">
-        <v>-0.05153491615990125</v>
+        <v>-0.05409737493447575</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.531767154068421</v>
+        <v>-2.529322745494833</v>
       </c>
       <c r="G32">
-        <v>-0.05508450467065074</v>
+        <v>-0.05288815566302962</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.545630542674616</v>
+        <v>-2.544363832132915</v>
       </c>
       <c r="G33">
-        <v>-0.05549360712419182</v>
+        <v>-0.05725976809012345</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.55847373439114</v>
+        <v>-2.554517375627822</v>
       </c>
       <c r="G34">
-        <v>-0.05543640799489746</v>
+        <v>-0.05674383737404276</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.571777113547878</v>
+        <v>-2.569962001458321</v>
       </c>
       <c r="G35">
-        <v>-0.06257070990051949</v>
+        <v>-0.06151898899355346</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.58245648586218</v>
+        <v>-2.580019465473016</v>
       </c>
       <c r="G36">
-        <v>-0.06180019138759674</v>
+        <v>-0.06090697879726026</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.596740167184509</v>
+        <v>-2.591688760011637</v>
       </c>
       <c r="G37">
-        <v>-0.0625753601792276</v>
+        <v>-0.06190679912489294</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.606972956177235</v>
+        <v>-2.602031416455794</v>
       </c>
       <c r="G38">
-        <v>-0.06096531177126518</v>
+        <v>-0.06157998135806242</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.61938085125975</v>
+        <v>-2.619106376268801</v>
       </c>
       <c r="G39">
-        <v>-0.06113043795742135</v>
+        <v>-0.06798546696008101</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.630058535650075</v>
+        <v>-2.625257501369588</v>
       </c>
       <c r="G40">
-        <v>-0.06598598596519567</v>
+        <v>-0.06346711784987935</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.643748512189268</v>
+        <v>-2.639887552026107</v>
       </c>
       <c r="G41">
-        <v>-0.06472178917943605</v>
+        <v>-0.06742769429541084</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.656063414868115</v>
+        <v>-2.651688475964692</v>
       </c>
       <c r="G42">
-        <v>-0.06843249331546297</v>
+        <v>-0.06855914402300756</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.665783583077272</v>
+        <v>-2.663393090623283</v>
       </c>
       <c r="G43">
-        <v>-0.07160695908856418</v>
+        <v>-0.06959428447061056</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.678995327458033</v>
+        <v>-2.678303124949452</v>
       </c>
       <c r="G44">
-        <v>-0.06933603179290992</v>
+        <v>-0.07383484458579082</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.69038142359811</v>
+        <v>-2.689026188090499</v>
       </c>
       <c r="G45">
-        <v>-0.06771333397481127</v>
+        <v>-0.07388843351585006</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.700805350080552</v>
+        <v>-2.697841521511429</v>
       </c>
       <c r="G46">
-        <v>-0.07011690110438251</v>
+        <v>-0.07203429272579176</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.711563132591179</v>
+        <v>-2.708463120384303</v>
       </c>
       <c r="G47">
-        <v>-0.0680549147679379</v>
+        <v>-0.07198641738767808</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.724567794552314</v>
+        <v>-2.718314818754743</v>
       </c>
       <c r="G48">
-        <v>-0.07347922191953127</v>
+        <v>-0.07116864154712954</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.735794962912759</v>
+        <v>-2.729810281763364</v>
       </c>
       <c r="G49">
-        <v>-0.06944819570145966</v>
+        <v>-0.07199463034476206</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.745064311868351</v>
+        <v>-2.737489526819714</v>
       </c>
       <c r="G50">
-        <v>-0.06990562116307153</v>
+        <v>-0.06900440119012385</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.755017406154723</v>
+        <v>-2.750059159305442</v>
       </c>
       <c r="G51">
-        <v>-0.06782311352521919</v>
+        <v>-0.0709045594648634</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.768296024076133</v>
+        <v>-2.761410245254987</v>
       </c>
       <c r="G52">
-        <v>-0.07133154156403843</v>
+        <v>-0.07158617120342081</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.778546505086266</v>
+        <v>-2.77395348504925</v>
       </c>
       <c r="G53">
-        <v>-0.0703529374105909</v>
+        <v>-0.07345993678669527</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.785496339571095</v>
+        <v>-2.78368171370673</v>
       </c>
       <c r="G54">
-        <v>-0.07053369574986501</v>
+        <v>-0.07251869123318722</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.795675235177749</v>
+        <v>-2.79363480799311</v>
       </c>
       <c r="G55">
-        <v>-0.07384273849321843</v>
+        <v>-0.07180231130857873</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.803620056450543</v>
+        <v>-2.796368234624652</v>
       </c>
       <c r="G56">
-        <v>-0.06948606173002303</v>
+        <v>-0.06386626372913295</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.81351258770975</v>
+        <v>-2.804884269010605</v>
       </c>
       <c r="G57">
-        <v>-0.06655767495770515</v>
+        <v>-0.06171282390409771</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.822789213726676</v>
+        <v>-2.815824046140357</v>
       </c>
       <c r="G58">
-        <v>-0.06275542745175011</v>
+        <v>-0.06198312682286167</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.831707889992677</v>
+        <v>-2.830980968114514</v>
       </c>
       <c r="G59">
-        <v>-0.06230935493782119</v>
+        <v>-0.06647057458603045</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.840633843320011</v>
+        <v>-2.837338691115715</v>
       </c>
       <c r="G60">
-        <v>-0.06251504685467091</v>
+        <v>-0.06215882337624357</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.848414361991088</v>
+        <v>-2.848485947394572</v>
       </c>
       <c r="G61">
-        <v>-0.06256502004062792</v>
+        <v>-0.06263660544411198</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.85655283041309</v>
+        <v>-2.855915793376058</v>
       </c>
       <c r="G62">
-        <v>-0.05683429767731252</v>
+        <v>-0.05939697721460979</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.864834469642054</v>
+        <v>-2.864834469642053</v>
       </c>
       <c r="G63">
-        <v>-0.05516896260275117</v>
+        <v>-0.05764617926961679</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.872693850777946</v>
+        <v>-2.872543402909646</v>
       </c>
       <c r="G64">
-        <v>-0.05246260910220812</v>
+        <v>-0.05468563832622231</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.880402784045543</v>
+        <v>-2.880402784045539</v>
       </c>
       <c r="G65">
-        <v>-0.050028765215689</v>
+        <v>-0.05187554525112614</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.887832630027028</v>
+        <v>-2.887832630027027</v>
       </c>
       <c r="G66">
-        <v>-0.04792729458110984</v>
+        <v>-0.04863591702162667</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.895541563294624</v>
+        <v>-2.895262476008516</v>
       </c>
       <c r="G67">
-        <v>-0.04511720150601367</v>
+        <v>-0.04539628879212704</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.902971409276109</v>
+        <v>-2.902692321989999</v>
       </c>
       <c r="G68">
         <v>-0.04215666056262185</v>
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.910122167971484</v>
+        <v>-2.909843080685369</v>
       </c>
       <c r="G69">
-        <v>-0.03891703233311911</v>
+        <v>-0.03863794504700352</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.91755201395297</v>
+        <v>-2.917552013952958</v>
       </c>
       <c r="G70">
-        <v>-0.03567740410361608</v>
+        <v>-0.03567740410360498</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.924702772648343</v>
+        <v>-2.923922564804343</v>
       </c>
       <c r="G71">
-        <v>-0.0316575680301151</v>
+        <v>-0.03137848074400129</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.931352410785832</v>
+        <v>-2.931352410785825</v>
       </c>
       <c r="G72">
-        <v>-0.02763773195661523</v>
+        <v>-0.02813885251449566</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.938002048923321</v>
+        <v>-2.938002048923317</v>
       </c>
       <c r="G73">
-        <v>-0.023617895883116</v>
+        <v>-0.02411901644099909</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.944651687060808</v>
+        <v>-2.944651687060805</v>
       </c>
       <c r="G74">
-        <v>-0.02009918036750186</v>
+        <v>-0.02009918036749875</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>59</v>
       </c>
       <c r="F75">
-        <v>-2.951301325198296</v>
+        <v>-2.951301325198292</v>
       </c>
       <c r="G75">
-        <v>-0.01607934429400221</v>
+        <v>-0.01607934429399821</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>60</v>
       </c>
       <c r="F76">
-        <v>-2.957950963335784</v>
+        <v>-2.957950963335777</v>
       </c>
       <c r="G76">
-        <v>-0.01205950822050142</v>
+        <v>-0.01205950822049431</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>61</v>
       </c>
       <c r="F77">
-        <v>-2.964600601473272</v>
+        <v>-2.964600601473261</v>
       </c>
       <c r="G77">
-        <v>-0.008039672147000881</v>
+        <v>-0.008039672146990223</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>62</v>
       </c>
       <c r="F78">
-        <v>-2.971250239610759</v>
+        <v>-2.971250239610745</v>
       </c>
       <c r="G78">
-        <v>-0.004019836073500538</v>
+        <v>-0.004019836073486771</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>63</v>
       </c>
       <c r="F79">
-        <v>-2.977899877748247</v>
+        <v>-2.97789987774823</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1.731947918415244e-14</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-2.501904555654503</v>
+        <v>-2.501904555654492</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1.110223024625157e-14</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.602399813560761</v>
+        <v>-2.603047613787763</v>
       </c>
       <c r="G81">
-        <v>-0.0271238420753801</v>
+        <v>-0.02863271101527154</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.693523169704959</v>
+        <v>-2.6904267250617</v>
       </c>
       <c r="G82">
-        <v>-0.04530040950317771</v>
+        <v>-0.04350147517122016</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.778450879950124</v>
+        <v>-2.777660703328514</v>
       </c>
       <c r="G83">
-        <v>-0.05606614356344508</v>
+        <v>-0.05822510632004674</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.857408629429731</v>
+        <v>-2.856889633812793</v>
       </c>
       <c r="G84">
-        <v>-0.06546268530327559</v>
+        <v>-0.06494368968633735</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.932797250063943</v>
+        <v>-2.934123485847843</v>
       </c>
       <c r="G85">
-        <v>-0.06688714931035511</v>
+        <v>-0.06966719460339865</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.00448362308738</v>
+        <v>-3.005755235730697</v>
       </c>
       <c r="G86">
-        <v>-0.06511414084892553</v>
+        <v>-0.06878859736826537</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.068320344118559</v>
+        <v>-3.06914212056641</v>
       </c>
       <c r="G87">
-        <v>-0.05664764159959279</v>
+        <v>-0.05966513508599014</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.129444805202509</v>
+        <v>-3.131096951415484</v>
       </c>
       <c r="G88">
-        <v>-0.04728204388880586</v>
+        <v>-0.04910961881707576</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.185141612639268</v>
+        <v>-3.184868093274204</v>
       </c>
       <c r="G89">
-        <v>-0.02886556550554975</v>
+        <v>-0.03037041355780679</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>171</v>
       </c>
       <c r="F90">
-        <v>-3.231273341370737</v>
+        <v>-3.231273341370725</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1.199040866595169e-14</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-2.592059019968194</v>
+        <v>-2.592059019968109</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>8.482103908136196e-14</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.694528272723706</v>
+        <v>-2.692967263375461</v>
       </c>
       <c r="G92">
-        <v>-0.0274251304967521</v>
+        <v>-0.02637827149344085</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.790637489733623</v>
+        <v>-2.789825015258626</v>
       </c>
       <c r="G93">
-        <v>-0.0468804287973148</v>
+        <v>-0.04663577446517264</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.876510028067753</v>
+        <v>-2.877684286525578</v>
       </c>
       <c r="G94">
-        <v>-0.05732056178384681</v>
+        <v>-0.05996507381829774</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.958527534362525</v>
+        <v>-2.961279677064895</v>
       </c>
       <c r="G95">
-        <v>-0.06365675968834839</v>
+        <v>-0.06696021544618236</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.034700059346741</v>
+        <v>-3.036482470798604</v>
       </c>
       <c r="G96">
-        <v>-0.06551471290784128</v>
+        <v>-0.06763303726606362</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.109251607363931</v>
+        <v>-3.11149127012213</v>
       </c>
       <c r="G97">
-        <v>-0.06213278380205089</v>
+        <v>-0.06604158767815793</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.176181343264492</v>
+        <v>-3.180368425492402</v>
       </c>
       <c r="G98">
-        <v>-0.05484766435614929</v>
+        <v>-0.06038877113460295</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.240946765613902</v>
+        <v>-3.243852359314403</v>
       </c>
       <c r="G99">
-        <v>-0.04318995468395948</v>
+        <v>-0.04727245604517061</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.297977047314697</v>
+        <v>-3.299191888560374</v>
       </c>
       <c r="G100">
-        <v>-0.0262315570531032</v>
+        <v>-0.02808201337731508</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>365</v>
       </c>
       <c r="F101">
-        <v>-3.347710124094492</v>
+        <v>-3.347710124094561</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>-6.927791673660977e-14</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-2.66027456843604</v>
+        <v>-2.660274568436135</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>-9.50350909079134e-14</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.764007443179478</v>
+        <v>-2.763324201002034</v>
       </c>
       <c r="G103">
-        <v>-0.02665001526886268</v>
+        <v>-0.02607897651684521</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861477703545735</v>
+        <v>-2.861815840580151</v>
       </c>
       <c r="G104">
-        <v>-0.04598059086004769</v>
+        <v>-0.04643373798446326</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.949697298100681</v>
+        <v>-2.951812613036027</v>
       </c>
       <c r="G105">
-        <v>-0.0572772013299756</v>
+        <v>-0.05945985439119039</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.033273136451566</v>
+        <v>-3.037377290736157</v>
       </c>
       <c r="G106">
-        <v>-0.0617135972439391</v>
+        <v>-0.06688765398082119</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.110817241947931</v>
+        <v>-3.116614651941198</v>
       </c>
       <c r="G107">
-        <v>-0.061777984911765</v>
+        <v>-0.06915435913671364</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.186647642380811</v>
+        <v>-3.192325753655817</v>
       </c>
       <c r="G108">
-        <v>-0.06051156044350514</v>
+        <v>-0.06672858274083393</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.256540527222933</v>
+        <v>-3.262683532538916</v>
       </c>
       <c r="G109">
-        <v>-0.05310937325574883</v>
+        <v>-0.06011570557478385</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.322489521442541</v>
+        <v>-3.326282466715737</v>
       </c>
       <c r="G110">
-        <v>-0.04111182052753937</v>
+        <v>-0.04557776164110527</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.382807889657526</v>
+        <v>-3.385134391565693</v>
       </c>
       <c r="G111">
-        <v>-0.02455776794356712</v>
+        <v>-0.02745903044191289</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>665</v>
       </c>
       <c r="F112">
-        <v>-3.435812239234279</v>
+        <v>-3.43581223923481</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>-5.31574784190525e-13</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>-2.701887504222705</v>
+        <v>-2.701887504222825</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>-1.194599974496668e-13</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.806399742592149</v>
+        <v>-2.806372738969189</v>
       </c>
       <c r="G114">
-        <v>-0.0263903911907013</v>
+        <v>-0.02636338756774181</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.904137700079156</v>
+        <v>-2.905888616911123</v>
       </c>
       <c r="G115">
-        <v>-0.04476339519148143</v>
+        <v>-0.0470407041366312</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.99480823433857</v>
+        <v>-2.997728479158384</v>
       </c>
       <c r="G116">
-        <v>-0.05663740195753153</v>
+        <v>-0.06004200501084833</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.078975187106722</v>
+        <v>-3.084246050247969</v>
       </c>
       <c r="G117">
-        <v>-0.06181497588424678</v>
+        <v>-0.06772101472739012</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.157869508249483</v>
+        <v>-3.164501154738394</v>
       </c>
       <c r="G118">
-        <v>-0.06250591135586125</v>
+        <v>-0.06913755784477216</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.233624650256537</v>
+        <v>-3.241191178816702</v>
       </c>
       <c r="G119">
-        <v>-0.05913780912953115</v>
+        <v>-0.0669890205500363</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.305220135186663</v>
+        <v>-3.311695018325658</v>
       </c>
       <c r="G120">
-        <v>-0.05142581298613214</v>
+        <v>-0.0586542986859494</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.372252946602287</v>
+        <v>-3.377347121921618</v>
       </c>
       <c r="G121">
-        <v>-0.03964032340858326</v>
+        <v>-0.04546784090886591</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.434738898291919</v>
+        <v>-3.437011100390473</v>
       </c>
       <c r="G122">
-        <v>-0.02361545661987924</v>
+        <v>-0.02629325800467758</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>1099</v>
       </c>
       <c r="F123">
-        <v>-3.489556403758839</v>
+        <v>-3.489556403759594</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>-7.545075675352564e-13</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>-2.736201143284891</v>
+        <v>-2.736201143285282</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>-3.907985046680551e-13</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.841322691949499</v>
+        <v>-2.841480548206388</v>
       </c>
       <c r="G125">
-        <v>-0.0251915002879719</v>
+        <v>-0.02584316946554699</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939848078348163</v>
+        <v>-2.941340974281287</v>
       </c>
       <c r="G126">
-        <v>-0.04350738271569021</v>
+        <v>-0.04579452534963924</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.031284856529313</v>
+        <v>-3.035212183005873</v>
       </c>
       <c r="G127">
-        <v>-0.05527474684493816</v>
+        <v>-0.05975666388341772</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.11665143104472</v>
+        <v>-3.121897991784409</v>
       </c>
       <c r="G128">
-        <v>-0.06069086581869265</v>
+        <v>-0.06700623720600407</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.195957297224022</v>
+        <v>-3.203065254961273</v>
       </c>
       <c r="G129">
-        <v>-0.06115647245480993</v>
+        <v>-0.06826443019206074</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.273578077851144</v>
+        <v>-3.280599530250027</v>
       </c>
       <c r="G130">
-        <v>-0.05828655085984602</v>
+        <v>-0.06588963529000758</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.345705807587158</v>
+        <v>-3.351353104048786</v>
       </c>
       <c r="G131">
-        <v>-0.05155967717118826</v>
+        <v>-0.05720697363281657</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.413984898074196</v>
+        <v>-3.418180562429366</v>
       </c>
       <c r="G132">
-        <v>-0.03930091003499936</v>
+        <v>-0.04412536182258908</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.476862417447789</v>
+        <v>-3.480318254688719</v>
       </c>
       <c r="G133">
-        <v>-0.0227204015619476</v>
+        <v>-0.02635398389113536</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>1687</v>
       </c>
       <c r="F134">
-        <v>-3.533873340988391</v>
+        <v>-3.533873340988846</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>-4.556355293061642e-13</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>-2.760064722715406</v>
+        <v>-2.760064722716048</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>-6.425970866530406e-13</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.865410925777927</v>
+        <v>-2.866150911025697</v>
       </c>
       <c r="G136">
-        <v>-0.02473148524526625</v>
+        <v>-0.02585252357152434</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.964355675289635</v>
+        <v>-2.9666439770451</v>
       </c>
       <c r="G137">
-        <v>-0.04312601068246824</v>
+        <v>-0.04578444050628683</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.056970208673973</v>
+        <v>-3.06052465504133</v>
       </c>
       <c r="G138">
-        <v>-0.05549209033742941</v>
+        <v>-0.05910396941787677</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.143524845588054</v>
+        <v>-3.147786003587146</v>
       </c>
       <c r="G139">
-        <v>-0.06119279239149455</v>
+        <v>-0.06613165322492542</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.223666576231747</v>
+        <v>-3.229697931173228</v>
       </c>
       <c r="G140">
-        <v>-0.06085851180114266</v>
+        <v>-0.06748243172636825</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.30110615211755</v>
+        <v>-3.307113096009538</v>
       </c>
       <c r="G141">
-        <v>-0.05793275024819611</v>
+        <v>-0.06433644747803813</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.374069493330541</v>
+        <v>-3.378979972129474</v>
       </c>
       <c r="G142">
-        <v>-0.05030300884016803</v>
+        <v>-0.05596965885920635</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.442949171809099</v>
+        <v>-3.447123509664605</v>
       </c>
       <c r="G143">
-        <v>-0.03902501464161112</v>
+        <v>-0.04355204730969797</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.506837685300323</v>
+        <v>-3.509661584096716</v>
       </c>
       <c r="G144">
-        <v>-0.02270507386077614</v>
+        <v>-0.0255289726571688</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>2457</v>
       </c>
       <c r="F145">
-        <v>-3.564693760524187</v>
+        <v>-3.564693760524769</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>-5.81756864903582e-13</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>-2.78066255501668</v>
+        <v>-2.780662555016065</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>6.155076448521868e-13</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.886277346846371</v>
+        <v>-2.887127169589831</v>
       </c>
       <c r="G147">
-        <v>-0.02450904786994013</v>
+        <v>-0.02561399639801065</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.985531829177266</v>
+        <v>-2.987772226586096</v>
       </c>
       <c r="G148">
-        <v>-0.0422366483371488</v>
+        <v>-0.04517202990283442</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.078564334793958</v>
+        <v>-3.081936758925424</v>
       </c>
       <c r="G149">
-        <v>-0.05453505212425891</v>
+        <v>-0.05824953875072114</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.165800260228864</v>
+        <v>-3.170298637144545</v>
       </c>
       <c r="G150">
-        <v>-0.06097789600506109</v>
+        <v>-0.06552439347840089</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.247153815461803</v>
+        <v>-3.251480227654063</v>
       </c>
       <c r="G151">
-        <v>-0.06129254830421749</v>
+        <v>-0.0656189604964772</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.324367319451772</v>
+        <v>-3.330319864202056</v>
       </c>
       <c r="G152">
-        <v>-0.05736042864322144</v>
+        <v>-0.06337157355302869</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.398432335541071</v>
+        <v>-3.403581391682232</v>
       </c>
       <c r="G153">
-        <v>-0.05019296715933086</v>
+        <v>-0.05554607754176377</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.468062109312019</v>
+        <v>-3.47213126904888</v>
       </c>
       <c r="G154">
-        <v>-0.03837343488602185</v>
+        <v>-0.04300893141696971</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.532371014474112</v>
+        <v>-3.5350875975705</v>
       </c>
       <c r="G155">
-        <v>-0.02214658169454659</v>
+        <v>-0.02487823644714832</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>3429</v>
       </c>
       <c r="F156">
-        <v>-3.591296384614793</v>
+        <v>-3.591296384613464</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1.329159005081237e-12</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>-2.796116500108509</v>
+        <v>-2.796116500105523</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>2.986499936241671e-12</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.901919256050385</v>
+        <v>-2.902932679177753</v>
       </c>
       <c r="G158">
-        <v>-0.02430645298627176</v>
+        <v>-0.02531987611363995</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.001739692411167</v>
+        <v>-3.003822028556898</v>
       </c>
       <c r="G159">
-        <v>-0.04189026454514089</v>
+        <v>-0.04471292253718007</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.095169986667171</v>
+        <v>-3.098512004310122</v>
       </c>
       <c r="G160">
-        <v>-0.05387089609007667</v>
+        <v>-0.05790659533480014</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.182877662522043</v>
+        <v>-3.186980732749721</v>
       </c>
       <c r="G161">
-        <v>-0.06065420610990224</v>
+        <v>-0.06487902081879482</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.264870276982923</v>
+        <v>-3.269475189476535</v>
       </c>
       <c r="G162">
-        <v>-0.06043966225226982</v>
+        <v>-0.06587717459000486</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.342662379851824</v>
+        <v>-3.347580698733496</v>
       </c>
       <c r="G163">
-        <v>-0.05718551454770004</v>
+        <v>-0.06248638089136183</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.417239278833953</v>
+        <v>-3.421615866650843</v>
       </c>
       <c r="G164">
-        <v>-0.05004631789547742</v>
+        <v>-0.05502524585310409</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.486526448999587</v>
+        <v>-3.490222857638749</v>
       </c>
       <c r="G165">
-        <v>-0.03843952524624394</v>
+        <v>-0.04213593388540526</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.5515913553266</v>
+        <v>-3.55364787259743</v>
       </c>
       <c r="G166">
-        <v>-0.02178272537343323</v>
+        <v>-0.02406464588848273</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>4631</v>
       </c>
       <c r="F167">
-        <v>-3.611255547597501</v>
+        <v>-3.611255547594426</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>3.074873689001834e-12</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>-2.809837959116044</v>
+        <v>-2.809837959111862</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>4.18198808915804e-12</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915715175057834</v>
+        <v>-2.916833607915481</v>
       </c>
       <c r="G169">
-        <v>-0.02391660896251446</v>
+        <v>-0.02512212675481518</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.015702668038736</v>
+        <v>-3.017867824114012</v>
       </c>
       <c r="G170">
-        <v>-0.04178397162408398</v>
+        <v>-0.04428282090872493</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.109553057557964</v>
+        <v>-3.112804741211065</v>
       </c>
       <c r="G171">
-        <v>-0.05353232528649365</v>
+        <v>-0.05734621596115663</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.198025301521046</v>
+        <v>-3.201954855619391</v>
       </c>
       <c r="G172">
-        <v>-0.06011123737909507</v>
+        <v>-0.06448814792676227</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.280521653033609</v>
+        <v>-3.284443584153808</v>
       </c>
       <c r="G173">
-        <v>-0.06073801158076497</v>
+        <v>-0.06510335441655801</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.358329123130639</v>
+        <v>-3.362897450812094</v>
       </c>
       <c r="G174">
-        <v>-0.05693318698675953</v>
+        <v>-0.06168369903022275</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.433449142731877</v>
+        <v>-3.436961234344695</v>
       </c>
       <c r="G175">
-        <v>-0.04987332141711354</v>
+        <v>-0.05373930012010308</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.503465015525578</v>
+        <v>-3.507054660749199</v>
       </c>
       <c r="G176">
-        <v>-0.0381293281663182</v>
+        <v>-0.04195920447998613</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.568857183724853</v>
+        <v>-3.570943575690219</v>
       </c>
       <c r="G177">
-        <v>-0.0215603197623494</v>
+        <v>-0.02397459737638463</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>6083</v>
       </c>
       <c r="F178">
-        <v>-3.628977160756556</v>
+        <v>-3.628977160755452</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>1.104005775687256e-12</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>-2.820655808525831</v>
+        <v>-2.820655808524256</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>1.575184427338172e-12</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926623927779211</v>
+        <v>-2.927829333162637</v>
       </c>
       <c r="G180">
-        <v>-0.02375803828568301</v>
+        <v>-0.02497581068527799</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.026891329298286</v>
+        <v>-3.028826549196823</v>
       </c>
       <c r="G181">
-        <v>-0.04155585863131739</v>
+        <v>-0.04377531276793656</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.121271087424946</v>
+        <v>-3.124239365344609</v>
       </c>
       <c r="G182">
-        <v>-0.05402213704453129</v>
+        <v>-0.05699041496419377</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.209954810577135</v>
+        <v>-3.213285976602632</v>
       </c>
       <c r="G183">
-        <v>-0.05982351944381126</v>
+        <v>-0.06373406551786998</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.293059730906927</v>
+        <v>-3.296561302253642</v>
       </c>
       <c r="G184">
-        <v>-0.06094853055427274</v>
+        <v>-0.06481167721735304</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.371082842361333</v>
+        <v>-3.374606552411407</v>
       </c>
       <c r="G185">
-        <v>-0.05692883593097497</v>
+        <v>-0.06065921342358993</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.446354202755679</v>
+        <v>-3.44975983713312</v>
       </c>
       <c r="G186">
-        <v>-0.04985541730402343</v>
+        <v>-0.05350953744095632</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.516624140031518</v>
+        <v>-3.519343976201734</v>
       </c>
       <c r="G187">
-        <v>-0.03808589079600488</v>
+        <v>-0.04089596255804229</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.582311969706945</v>
+        <v>-3.584190505279163</v>
       </c>
       <c r="G188">
-        <v>-0.02151969419827232</v>
+        <v>-0.02354477768394331</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>7813</v>
       </c>
       <c r="F189">
-        <v>-3.642948688299567</v>
+        <v>-3.642948688300346</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>-7.789324740770098e-13</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>-2.830446960793839</v>
+        <v>-2.830446960794371</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936635106425835</v>
+        <v>-2.93758997260563</v>
       </c>
       <c r="G191">
-        <v>-0.02353717146087142</v>
+        <v>-0.02463667164373629</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.036941117985335</v>
+        <v>-3.038809957705471</v>
       </c>
       <c r="G192">
-        <v>-0.04121893721188785</v>
+        <v>-0.04335031657552113</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.131982644978842</v>
+        <v>-3.13410233125481</v>
       </c>
       <c r="G193">
-        <v>-0.05343323522103627</v>
+        <v>-0.05613634995680417</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.220852943769009</v>
+        <v>-3.223055102057395</v>
       </c>
       <c r="G194">
-        <v>-0.05973517623364599</v>
+        <v>-0.06258278059133393</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.30431783435154</v>
+        <v>-3.307188212321762</v>
       </c>
       <c r="G195">
-        <v>-0.06075871011053935</v>
+        <v>-0.06420955068764544</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.382735035819339</v>
+        <v>-3.385721384233367</v>
       </c>
       <c r="G196">
-        <v>-0.05682956949663187</v>
+        <v>-0.06023638243119378</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.45804667342506</v>
+        <v>-3.460726534910144</v>
       </c>
       <c r="G197">
-        <v>-0.04997578801232572</v>
+        <v>-0.05273519293991558</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.528644197999745</v>
+        <v>-3.531302978398863</v>
       </c>
       <c r="G198">
-        <v>-0.03814651586146112</v>
+        <v>-0.04080529626057827</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.594699535432957</v>
+        <v>-3.596249945221664</v>
       </c>
       <c r="G199">
-        <v>-0.02157719632743971</v>
+        <v>-0.02324592291532424</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>9841</v>
       </c>
       <c r="F200">
-        <v>-3.655594210381071</v>
+        <v>-3.655594210382496</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>-1.425526363618701e-12</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>-2.838440671073538</v>
+        <v>-2.838440671075613</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>-2.074340699209642e-12</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.944673874178096</v>
+        <v>-2.945693737015421</v>
       </c>
       <c r="G202">
-        <v>-0.02336622416951029</v>
+        <v>-0.02453923092723587</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.045210454587111</v>
+        <v>-3.046846899026445</v>
       </c>
       <c r="G203">
-        <v>-0.04107750574705404</v>
+        <v>-0.04291070408028697</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.140206536442185</v>
+        <v>-3.14220335382567</v>
       </c>
       <c r="G204">
-        <v>-0.053286394553274</v>
+        <v>-0.05555332386486489</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.229515658739466</v>
+        <v>-3.232123987180128</v>
       </c>
       <c r="G205">
-        <v>-0.05993650353710445</v>
+        <v>-0.06269226836134933</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.313624244958437</v>
+        <v>-3.315722385589991</v>
       </c>
       <c r="G206">
-        <v>-0.06114574321055488</v>
+        <v>-0.06357683175656503</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.391902285178129</v>
+        <v>-3.394562989418908</v>
       </c>
       <c r="G207">
-        <v>-0.0569750424867308</v>
+        <v>-0.05963574672750949</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.467492438680791</v>
+        <v>-3.470090799004501</v>
       </c>
       <c r="G208">
-        <v>-0.04969819211396842</v>
+        <v>-0.05244972129845571</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.538523945239552</v>
+        <v>-3.540693316776192</v>
       </c>
       <c r="G209">
-        <v>-0.03804165896416634</v>
+        <v>-0.04027055021217341</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.604680026804611</v>
+        <v>-3.606141933390875</v>
       </c>
       <c r="G210">
-        <v>-0.02145222987433648</v>
+        <v>-0.02300533181220965</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>12195</v>
       </c>
       <c r="F211">
-        <v>-3.665918290436639</v>
+        <v>-3.665918290433674</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2.964739564959018e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.438647116490864</v>
+        <v>-2.439601689191839</v>
       </c>
       <c r="G25">
         <v>-0.03689884613597827</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.466243838871206</v>
+        <v>-2.466363998377684</v>
       </c>
       <c r="G27">
         <v>-0.04315662009434384</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.478331943349722</v>
+        <v>-2.478495378409248</v>
       </c>
       <c r="G28">
         <v>-0.04457525036187193</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.504933822870671</v>
+        <v>-2.506717619715175</v>
       </c>
       <c r="G30">
         <v>-0.0498381814608444</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.529322745494833</v>
+        <v>-2.530718128259839</v>
       </c>
       <c r="G32">
         <v>-0.05288815566302962</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.554517375627822</v>
+        <v>-2.556621380833342</v>
       </c>
       <c r="G34">
         <v>-0.05674383737404276</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.580019465473016</v>
+        <v>-2.580127461794556</v>
       </c>
       <c r="G36">
         <v>-0.06090697879726026</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.591688760011637</v>
+        <v>-2.592294039607081</v>
       </c>
       <c r="G37">
         <v>-0.06190679912489294</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.602031416455794</v>
+        <v>-2.605106956658259</v>
       </c>
       <c r="G38">
         <v>-0.06157998135806242</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.625257501369588</v>
+        <v>-2.629408040609106</v>
       </c>
       <c r="G40">
         <v>-0.06346711784987935</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.663393090623283</v>
+        <v>-2.663943204747167</v>
       </c>
       <c r="G43">
         <v>-0.06959428447061056</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.697841521511429</v>
+        <v>-2.701361658843527</v>
       </c>
       <c r="G46">
         <v>-0.07203429272579176</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.708463120384303</v>
+        <v>-2.713290172583155</v>
       </c>
       <c r="G47">
         <v>-0.07198641738767808</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.718314818754743</v>
+        <v>-2.719464365123263</v>
       </c>
       <c r="G48">
         <v>-0.07116864154712954</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.729810281763364</v>
+        <v>-2.731888017178449</v>
       </c>
       <c r="G49">
         <v>-0.07199463034476206</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.737489526819714</v>
+        <v>-2.741349444035968</v>
       </c>
       <c r="G50">
         <v>-0.06900440119012385</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.761410245254987</v>
+        <v>-2.766008663776449</v>
       </c>
       <c r="G52">
         <v>-0.07158617120342081</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.796368234624652</v>
+        <v>-2.802685632689751</v>
       </c>
       <c r="G56">
         <v>-0.06386626372913295</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.804884269010605</v>
+        <v>-2.812109197562145</v>
       </c>
       <c r="G57">
         <v>-0.06171282390409771</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.815824046140357</v>
+        <v>-2.818239392970567</v>
       </c>
       <c r="G58">
         <v>-0.06198312682286167</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.837338691115715</v>
+        <v>-2.840275893569086</v>
       </c>
       <c r="G60">
         <v>-0.06215882337624357</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.855915793376058</v>
+        <v>-2.856696001220051</v>
       </c>
       <c r="G62">
         <v>-0.05939697721460979</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.923922564804343</v>
+        <v>-2.924702772648341</v>
       </c>
       <c r="G71">
         <v>-0.03137848074400129</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.6904267250617</v>
+        <v>-2.692843467313811</v>
       </c>
       <c r="G82">
         <v>-0.04350147517122016</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.856889633812793</v>
+        <v>-2.858856701749782</v>
       </c>
       <c r="G84">
         <v>-0.06494368968633735</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.06914212056641</v>
+        <v>-3.06968670287069</v>
       </c>
       <c r="G87">
         <v>-0.05966513508599014</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.131096951415484</v>
+        <v>-3.131199150272196</v>
       </c>
       <c r="G88">
         <v>-0.04910961881707576</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.692967263375461</v>
+        <v>-2.69410518552029</v>
       </c>
       <c r="G92">
         <v>-0.02637827149344085</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.789825015258626</v>
+        <v>-2.79073810712516</v>
       </c>
       <c r="G93">
         <v>-0.04663577446517264</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.877684286525578</v>
+        <v>-2.878026356184609</v>
       </c>
       <c r="G94">
         <v>-0.05996507381829774</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.036482470798604</v>
+        <v>-3.038882232265161</v>
       </c>
       <c r="G96">
         <v>-0.06763303726606362</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.11149127012213</v>
+        <v>-3.112343568626195</v>
       </c>
       <c r="G97">
         <v>-0.06604158767815793</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.180368425492402</v>
+        <v>-3.180827622158384</v>
       </c>
       <c r="G98">
         <v>-0.06038877113460295</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.763324201002034</v>
+        <v>-2.763789620610765</v>
       </c>
       <c r="G103">
         <v>-0.02607897651684521</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861815840580151</v>
+        <v>-2.862783574657285</v>
       </c>
       <c r="G104">
         <v>-0.04643373798446326</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.951812613036027</v>
+        <v>-2.952616984371413</v>
       </c>
       <c r="G105">
         <v>-0.05945985439119039</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.326282466715737</v>
+        <v>-3.327835135823242</v>
       </c>
       <c r="G110">
         <v>-0.04557776164110527</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.385134391565693</v>
+        <v>-3.385781395718552</v>
       </c>
       <c r="G111">
         <v>-0.02745903044191289</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.997728479158384</v>
+        <v>-2.997748828494618</v>
       </c>
       <c r="G116">
         <v>-0.06004200501084833</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.164501154738394</v>
+        <v>-3.164890309084022</v>
       </c>
       <c r="G118">
         <v>-0.06913755784477216</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.311695018325658</v>
+        <v>-3.311754805895214</v>
       </c>
       <c r="G120">
         <v>-0.0586542986859494</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.377347121921618</v>
+        <v>-3.37740435704589</v>
       </c>
       <c r="G121">
         <v>-0.04546784090886591</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.437011100390473</v>
+        <v>-3.437713108505431</v>
       </c>
       <c r="G122">
         <v>-0.02629325800467758</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.841480548206388</v>
+        <v>-2.842203243223532</v>
       </c>
       <c r="G125">
         <v>-0.02584316946554699</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.035212183005873</v>
+        <v>-3.035248609873956</v>
       </c>
       <c r="G127">
         <v>-0.05975666388341772</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.203065254961273</v>
+        <v>-3.203180581632866</v>
       </c>
       <c r="G129">
         <v>-0.06826443019206074</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.351353104048786</v>
+        <v>-3.351500011235527</v>
       </c>
       <c r="G131">
         <v>-0.05720697363281657</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.418180562429366</v>
+        <v>-3.418298895212482</v>
       </c>
       <c r="G132">
         <v>-0.04412536182258908</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.480318254688719</v>
+        <v>-3.480399954421969</v>
       </c>
       <c r="G133">
         <v>-0.02635398389113536</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.06052465504133</v>
+        <v>-3.06075458904381</v>
       </c>
       <c r="G138">
         <v>-0.05910396941787677</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.307113096009538</v>
+        <v>-3.307408726928958</v>
       </c>
       <c r="G141">
         <v>-0.06433644747803813</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.378979972129474</v>
+        <v>-3.379489479924805</v>
       </c>
       <c r="G142">
         <v>-0.05596965885920635</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.447123509664605</v>
+        <v>-3.447493407719747</v>
       </c>
       <c r="G143">
         <v>-0.04355204730969797</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.987772226586096</v>
+        <v>-2.988000372498723</v>
       </c>
       <c r="G148">
         <v>-0.04517202990283442</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.081936758925424</v>
+        <v>-3.082436261638889</v>
       </c>
       <c r="G149">
         <v>-0.05824953875072114</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.251480227654063</v>
+        <v>-3.252444301765506</v>
       </c>
       <c r="G151">
         <v>-0.0656189604964772</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.330319864202056</v>
+        <v>-3.330383285748034</v>
       </c>
       <c r="G152">
         <v>-0.06337157355302869</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.902932679177753</v>
+        <v>-2.90301651997708</v>
       </c>
       <c r="G158">
         <v>-0.02531987611363995</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.003822028556898</v>
+        <v>-3.003943411155122</v>
       </c>
       <c r="G159">
         <v>-0.04471292253718007</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.098512004310122</v>
+        <v>-3.098587396952386</v>
       </c>
       <c r="G160">
         <v>-0.05790659533480014</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.490222857638749</v>
+        <v>-3.490437286330004</v>
       </c>
       <c r="G165">
         <v>-0.04213593388540526</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.55364787259743</v>
+        <v>-3.553966378750872</v>
       </c>
       <c r="G166">
         <v>-0.02406464588848273</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.017867824114012</v>
+        <v>-3.018193581822818</v>
       </c>
       <c r="G170">
         <v>-0.04428282090872493</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.436961234344695</v>
+        <v>-3.437340543840026</v>
       </c>
       <c r="G175">
         <v>-0.05373930012010308</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.570943575690219</v>
+        <v>-3.570967674436558</v>
       </c>
       <c r="G177">
         <v>-0.02397459737638463</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.028826549196823</v>
+        <v>-3.028993435307213</v>
       </c>
       <c r="G181">
         <v>-0.04377531276793656</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.213285976602632</v>
+        <v>-3.213323798362701</v>
       </c>
       <c r="G183">
         <v>-0.06373406551786998</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.374606552411407</v>
+        <v>-3.374847959958388</v>
       </c>
       <c r="G185">
         <v>-0.06065921342358993</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.44975983713312</v>
+        <v>-3.449962504855292</v>
       </c>
       <c r="G186">
         <v>-0.05350953744095632</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.519343976201734</v>
+        <v>-3.519410863756852</v>
       </c>
       <c r="G187">
         <v>-0.04089596255804229</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.93758997260563</v>
+        <v>-2.937829390030299</v>
       </c>
       <c r="G191">
         <v>-0.02463667164373629</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.038809957705471</v>
+        <v>-3.038898574208023</v>
       </c>
       <c r="G192">
         <v>-0.04335031657552113</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.223055102057395</v>
+        <v>-3.223065164851489</v>
       </c>
       <c r="G194">
         <v>-0.06258278059133393</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.460726534910144</v>
+        <v>-3.460907959812848</v>
       </c>
       <c r="G197">
         <v>-0.05273519293991558</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.046846899026445</v>
+        <v>-3.046960543375605</v>
       </c>
       <c r="G203">
         <v>-0.04291070408028697</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.14220335382567</v>
+        <v>-3.142310316576824</v>
       </c>
       <c r="G204">
         <v>-0.05555332386486489</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.315722385589991</v>
+        <v>-3.315870720153266</v>
       </c>
       <c r="G206">
         <v>-0.06357683175656503</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.394562989418908</v>
+        <v>-3.394886940823064</v>
       </c>
       <c r="G207">
         <v>-0.05963574672750949</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.470090799004501</v>
+        <v>-3.470117033754182</v>
       </c>
       <c r="G208">
         <v>-0.05244972129845571</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.606141933390875</v>
+        <v>-3.606241074145328</v>
       </c>
       <c r="G210">
         <v>-0.02300533181220965</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.383705253238135</v>
+        <v>-2.384191522511554</v>
       </c>
       <c r="G21">
         <v>-0.02463487972720202</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.39663593125938</v>
+        <v>-2.399440398557188</v>
       </c>
       <c r="G22">
         <v>-0.02689608353745898</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.411326952628116</v>
+        <v>-2.413494382888889</v>
       </c>
       <c r="G23">
         <v>-0.03091763069520637</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.42511000968972</v>
+        <v>-2.42803463649401</v>
       </c>
       <c r="G24">
         <v>-0.0340312135458225</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.439601689191839</v>
+        <v>-2.441331424282196</v>
       </c>
       <c r="G25">
         <v>-0.03689884613597827</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.452898476980023</v>
+        <v>-2.454676786173378</v>
       </c>
       <c r="G26">
         <v>-0.04048073241414873</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.466363998377684</v>
+        <v>-2.468022148064559</v>
       </c>
       <c r="G27">
         <v>-0.04315662009434384</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.478495378409248</v>
+        <v>-2.481367509955741</v>
       </c>
       <c r="G28">
         <v>-0.04457525036187193</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.506717619715175</v>
+        <v>-2.507275474392076</v>
       </c>
       <c r="G30">
         <v>-0.0498381814608444</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.51986249055529</v>
+        <v>-2.520620836283263</v>
       </c>
       <c r="G31">
         <v>-0.05409737493447575</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.530718128259839</v>
+        <v>-2.53163228720605</v>
       </c>
       <c r="G32">
         <v>-0.05288815566302962</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.544363832132915</v>
+        <v>-2.545652404790653</v>
       </c>
       <c r="G33">
         <v>-0.05725976809012345</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.556621380833342</v>
+        <v>-2.559699234362222</v>
       </c>
       <c r="G34">
         <v>-0.05674383737404276</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.569962001458321</v>
+        <v>-2.571769372994877</v>
       </c>
       <c r="G35">
         <v>-0.06151898899355346</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.580127461794556</v>
+        <v>-2.583013424778925</v>
       </c>
       <c r="G36">
         <v>-0.06090697879726026</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.592294039607081</v>
+        <v>-2.595464943925994</v>
       </c>
       <c r="G37">
         <v>-0.06190679912489294</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.605106956658259</v>
+        <v>-2.607466192253552</v>
       </c>
       <c r="G38">
         <v>-0.06157998135806242</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.619106376268801</v>
+        <v>-2.619332277156759</v>
       </c>
       <c r="G39">
         <v>-0.06798546696008101</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.629408040609106</v>
+        <v>-2.632398971224832</v>
       </c>
       <c r="G40">
         <v>-0.06346711784987935</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.639887552026107</v>
+        <v>-2.644506857917247</v>
       </c>
       <c r="G41">
         <v>-0.06742769429541084</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.651688475964692</v>
+        <v>-2.65573146107919</v>
       </c>
       <c r="G42">
         <v>-0.06855914402300756</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.663943204747167</v>
+        <v>-2.667022937781774</v>
       </c>
       <c r="G43">
         <v>-0.06959428447061056</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.678303124949452</v>
+        <v>-2.678943724664868</v>
       </c>
       <c r="G44">
         <v>-0.07383484458579082</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.701361658843527</v>
+        <v>-2.702012550613988</v>
       </c>
       <c r="G46">
         <v>-0.07203429272579176</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.719464365123263</v>
+        <v>-2.723859172111808</v>
       </c>
       <c r="G48">
         <v>-0.07116864154712954</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.741349444035968</v>
+        <v>-2.742278373475763</v>
       </c>
       <c r="G50">
         <v>-0.06900440119012385</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.750059159305442</v>
+        <v>-2.755014573797627</v>
       </c>
       <c r="G51">
         <v>-0.0709045594648634</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.77395348504925</v>
+        <v>-2.776577663305106</v>
       </c>
       <c r="G53">
         <v>-0.07345993678669527</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.78368171370673</v>
+        <v>-2.783787599016789</v>
       </c>
       <c r="G54">
         <v>-0.07251869123318722</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.79363480799311</v>
+        <v>-2.795410002625066</v>
       </c>
       <c r="G55">
         <v>-0.07180231130857873</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.802685632689751</v>
+        <v>-2.807793628018086</v>
       </c>
       <c r="G56">
         <v>-0.06386626372913295</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.812109197562145</v>
+        <v>-2.814937109652125</v>
       </c>
       <c r="G57">
         <v>-0.06171282390409771</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.818239392970567</v>
+        <v>-2.823497836167203</v>
       </c>
       <c r="G58">
         <v>-0.06198312682286167</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.830980968114514</v>
+        <v>-2.832065839743605</v>
       </c>
       <c r="G59">
         <v>-0.06647057458603045</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.840275893569086</v>
+        <v>-2.840633843320014</v>
       </c>
       <c r="G60">
         <v>-0.06215882337624357</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.856696001220051</v>
+        <v>-2.85705395097098</v>
       </c>
       <c r="G62">
         <v>-0.05939697721460979</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.887832630027027</v>
+        <v>-2.888111717313136</v>
       </c>
       <c r="G66">
         <v>-0.04863591702162667</v>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.909843080685369</v>
+        <v>-2.910401255257597</v>
       </c>
       <c r="G69">
         <v>-0.03863794504700352</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.777660703328514</v>
+        <v>-2.778265787394142</v>
       </c>
       <c r="G83">
         <v>-0.05822510632004674</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.934123485847843</v>
+        <v>-2.935549684678217</v>
       </c>
       <c r="G85">
         <v>-0.06966719460339865</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.005755235730697</v>
+        <v>-3.006419044755405</v>
       </c>
       <c r="G86">
         <v>-0.06878859736826537</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.06968670287069</v>
+        <v>-3.07199708353464</v>
       </c>
       <c r="G87">
         <v>-0.05966513508599014</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.184868093274204</v>
+        <v>-3.187228119188832</v>
       </c>
       <c r="G89">
         <v>-0.03037041355780679</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.961279677064895</v>
+        <v>-2.961932335834035</v>
       </c>
       <c r="G95">
         <v>-0.06696021544618236</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.038882232265161</v>
+        <v>-3.04019703337446</v>
       </c>
       <c r="G96">
         <v>-0.06763303726606362</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.112343568626195</v>
+        <v>-3.115294692174126</v>
       </c>
       <c r="G97">
         <v>-0.06604158767815793</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.180827622158384</v>
+        <v>-3.182300070595302</v>
       </c>
       <c r="G98">
         <v>-0.06038877113460295</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.243852359314403</v>
+        <v>-3.244721371051151</v>
       </c>
       <c r="G99">
         <v>-0.04727245604517061</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.299191888560374</v>
+        <v>-3.300061635570122</v>
       </c>
       <c r="G100">
         <v>-0.02808201337731508</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037377290736157</v>
+        <v>-3.037563693010956</v>
       </c>
       <c r="G106">
         <v>-0.06688765398082119</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.116614651941198</v>
+        <v>-3.117450310750995</v>
       </c>
       <c r="G107">
         <v>-0.06915435913671364</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.192325753655817</v>
+        <v>-3.193078571759526</v>
       </c>
       <c r="G108">
         <v>-0.06672858274083393</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.262683532538916</v>
+        <v>-3.262746122150014</v>
       </c>
       <c r="G109">
         <v>-0.06011570557478385</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.385781395718552</v>
+        <v>-3.385878640778757</v>
       </c>
       <c r="G111">
         <v>-0.02745903044191289</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.164890309084022</v>
+        <v>-3.165695359353931</v>
       </c>
       <c r="G118">
         <v>-0.06913755784477216</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.241191178816702</v>
+        <v>-3.241554291572051</v>
       </c>
       <c r="G119">
         <v>-0.0669890205500363</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.311754805895214</v>
+        <v>-3.311804201887968</v>
       </c>
       <c r="G120">
         <v>-0.0586542986859494</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.37740435704589</v>
+        <v>-3.378034146730768</v>
       </c>
       <c r="G121">
         <v>-0.04546784090886591</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.437713108505431</v>
+        <v>-3.437876979902028</v>
       </c>
       <c r="G122">
         <v>-0.02629325800467758</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.351500011235527</v>
+        <v>-3.351924153145716</v>
       </c>
       <c r="G131">
         <v>-0.05720697363281657</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.418298895212482</v>
+        <v>-3.419085574399548</v>
       </c>
       <c r="G132">
         <v>-0.04412536182258908</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.480399954421969</v>
+        <v>-3.480624115288505</v>
       </c>
       <c r="G133">
         <v>-0.02635398389113536</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.229697931173228</v>
+        <v>-3.229721802919172</v>
       </c>
       <c r="G140">
         <v>-0.06748243172636825</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.307408726928958</v>
+        <v>-3.307500191788367</v>
       </c>
       <c r="G141">
         <v>-0.06433644747803813</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.379489479924805</v>
+        <v>-3.380099161282678</v>
       </c>
       <c r="G142">
         <v>-0.05596965885920635</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.447493407719747</v>
+        <v>-3.447801701736671</v>
       </c>
       <c r="G143">
         <v>-0.04355204730969797</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.509661584096716</v>
+        <v>-3.509990273650227</v>
       </c>
       <c r="G144">
         <v>-0.0255289726571688</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.330383285748034</v>
+        <v>-3.330646136575032</v>
       </c>
       <c r="G152">
         <v>-0.06337157355302869</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.403581391682232</v>
+        <v>-3.403886008373969</v>
       </c>
       <c r="G153">
         <v>-0.05554607754176377</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.47213126904888</v>
+        <v>-3.472233217226766</v>
       </c>
       <c r="G154">
         <v>-0.04300893141696971</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.5350875975705</v>
+        <v>-3.535201320106572</v>
       </c>
       <c r="G155">
         <v>-0.02487823644714832</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.347580698733496</v>
+        <v>-3.347760899461597</v>
       </c>
       <c r="G163">
         <v>-0.06248638089136183</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.421615866650843</v>
+        <v>-3.421868308982994</v>
       </c>
       <c r="G164">
         <v>-0.05502524585310409</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.490437286330004</v>
+        <v>-3.490801254193159</v>
       </c>
       <c r="G165">
         <v>-0.04213593388540526</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.553966378750872</v>
+        <v>-3.553999264914875</v>
       </c>
       <c r="G166">
         <v>-0.02406464588848273</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.362897450812094</v>
+        <v>-3.362967648915145</v>
       </c>
       <c r="G174">
         <v>-0.06168369903022275</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.437340543840026</v>
+        <v>-3.437499191449009</v>
       </c>
       <c r="G175">
         <v>-0.05373930012010308</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.374847959958388</v>
+        <v>-3.375222133990702</v>
       </c>
       <c r="G185">
         <v>-0.06065921342358993</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.449962504855292</v>
+        <v>-3.450051726529299</v>
       </c>
       <c r="G186">
         <v>-0.05350953744095632</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.519410863756852</v>
+        <v>-3.519625179601973</v>
       </c>
       <c r="G187">
         <v>-0.04089596255804229</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.584190505279163</v>
+        <v>-3.584461516833076</v>
       </c>
       <c r="G188">
         <v>-0.02354477768394331</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.385721384233367</v>
+        <v>-3.385869087178297</v>
       </c>
       <c r="G196">
         <v>-0.06023638243119378</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.460907959812848</v>
+        <v>-3.461166347574864</v>
       </c>
       <c r="G197">
         <v>-0.05273519293991558</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.596249945221664</v>
+        <v>-3.596397874578546</v>
       </c>
       <c r="G199">
         <v>-0.02324592291532424</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.470117033754182</v>
+        <v>-3.470329441086681</v>
       </c>
       <c r="G208">
         <v>-0.05244972129845571</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.540693316776192</v>
+        <v>-3.540835242135946</v>
       </c>
       <c r="G209">
         <v>-0.04027055021217341</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.606241074145328</v>
+        <v>-3.606276041518305</v>
       </c>
       <c r="G210">
         <v>-0.02300533181220965</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.595464943925994</v>
+        <v>-2.595815197152579</v>
       </c>
       <c r="G37">
         <v>-0.06190679912489294</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.619332277156759</v>
+        <v>-2.619824451838349</v>
       </c>
       <c r="G39">
         <v>-0.06798546696008101</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.689026188090499</v>
+        <v>-2.689047449456141</v>
       </c>
       <c r="G45">
         <v>-0.07388843351585006</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.731888017178449</v>
+        <v>-2.732158624553219</v>
       </c>
       <c r="G49">
         <v>-0.07199463034476206</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.742278373475763</v>
+        <v>-2.745096466039436</v>
       </c>
       <c r="G50">
         <v>-0.06900440119012385</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.783787599016789</v>
+        <v>-2.783963633349952</v>
       </c>
       <c r="G54">
         <v>-0.07251869123318722</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.327835135823242</v>
+        <v>-3.327933105327154</v>
       </c>
       <c r="G110">
         <v>-0.04557776164110527</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.311804201887968</v>
+        <v>-3.312708885878886</v>
       </c>
       <c r="G120">
         <v>-0.0586542986859494</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.203180581632866</v>
+        <v>-3.203286103629783</v>
       </c>
       <c r="G129">
         <v>-0.06826443019206074</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.480624115288505</v>
+        <v>-3.480700260985089</v>
       </c>
       <c r="G133">
         <v>-0.02635398389113536</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.535201320106572</v>
+        <v>-3.535521227335621</v>
       </c>
       <c r="G155">
         <v>-0.02487823644714832</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-1.984661672509521</v>
       </c>
       <c r="G2">
-        <v>-1.77635683940025e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.042228299641555</v>
       </c>
       <c r="G3">
-        <v>-0.01306052443690664</v>
+        <v>-0.01306052443690531</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.099794926773589</v>
       </c>
       <c r="G4">
-        <v>-0.02612104887381195</v>
+        <v>-0.02612104887381084</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.157361553905622</v>
       </c>
       <c r="G5">
-        <v>-0.03918157331071614</v>
+        <v>-0.0391815733107157</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.214928181037654</v>
       </c>
       <c r="G6">
-        <v>-0.05224209774761879</v>
+        <v>-0.05224209774761857</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.262929532377208</v>
       </c>
       <c r="G7">
-        <v>-0.05573734639204408</v>
+        <v>-0.05573734639204431</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.310930883716762</v>
       </c>
       <c r="G8">
-        <v>-0.0592325950364696</v>
+        <v>-0.05923259503647005</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.358932235056315</v>
       </c>
       <c r="G9">
-        <v>-0.06272784368089335</v>
+        <v>-0.06272784368089435</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.406933586395867</v>
       </c>
       <c r="G10">
-        <v>-0.06622309232531742</v>
+        <v>-0.06622309232531853</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.445369661942942</v>
       </c>
       <c r="G11">
-        <v>-0.06015306517726304</v>
+        <v>-0.06015306517726449</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.483805737490016</v>
       </c>
       <c r="G12">
-        <v>-0.05408303802920789</v>
+        <v>-0.05408303802920994</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.522241813037089</v>
       </c>
       <c r="G13">
-        <v>-0.04801301088115306</v>
+        <v>-0.04801301088115545</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.560677888584162</v>
       </c>
       <c r="G14">
-        <v>-0.04194298373309729</v>
+        <v>-0.04194298373309982</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.563241007546191</v>
       </c>
       <c r="G15">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.305723002455989</v>
       </c>
       <c r="G16">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.323196018329007</v>
       </c>
       <c r="G17">
-        <v>-0.006803541662026014</v>
+        <v>-0.00680354166203001</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.338444894374645</v>
       </c>
       <c r="G18">
-        <v>-0.01138294349667612</v>
+        <v>-0.01138294349668012</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-2.353693770420282</v>
       </c>
       <c r="G19">
-        <v>-0.01596234533132534</v>
+        <v>-0.01596234533132979</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.368942646465914</v>
+        <v>-2.368942646465919</v>
       </c>
       <c r="G20">
-        <v>-0.02054174716596924</v>
+        <v>-0.02054174716597856</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.384191522511554</v>
+        <v>-2.382732714691296</v>
       </c>
       <c r="G21">
-        <v>-0.02463487972720202</v>
+        <v>-0.02366234118036781</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.399440398557188</v>
+        <v>-2.398954129283773</v>
       </c>
       <c r="G22">
-        <v>-0.02689608353745898</v>
+        <v>-0.02921428156185701</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.413494382888889</v>
+        <v>-2.411542294631439</v>
       </c>
       <c r="G23">
-        <v>-0.03091763069520637</v>
+        <v>-0.03113297269853454</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.42803463649401</v>
+        <v>-2.424792617622134</v>
       </c>
       <c r="G24">
-        <v>-0.0340312135458225</v>
+        <v>-0.03371382147824198</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.441331424282196</v>
+        <v>-2.440893729111777</v>
       </c>
       <c r="G25">
-        <v>-0.03689884613597827</v>
+        <v>-0.03914545875689601</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.454676786173378</v>
+        <v>-2.453315270155469</v>
       </c>
       <c r="G26">
-        <v>-0.04048073241414873</v>
+        <v>-0.04089752558960047</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.468022148064559</v>
+        <v>-2.465066913003126</v>
       </c>
       <c r="G27">
-        <v>-0.04315662009434384</v>
+        <v>-0.04197969422627001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.481367509955741</v>
+        <v>-2.479540626659396</v>
       </c>
       <c r="G28">
-        <v>-0.04457525036187193</v>
+        <v>-0.04578393367155131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.494615723640927</v>
+        <v>-2.491271511108432</v>
       </c>
       <c r="G29">
-        <v>-0.050189556442088</v>
+        <v>-0.04684534390959993</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.507275474392076</v>
+        <v>-2.507275474392078</v>
       </c>
       <c r="G30">
-        <v>-0.0498381814608444</v>
+        <v>-0.05217983298225737</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.520620836283263</v>
+        <v>-2.516980386811277</v>
       </c>
       <c r="G31">
-        <v>-0.05409737493447575</v>
+        <v>-0.05121527119046965</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.53163228720605</v>
+        <v>-2.533869049968445</v>
       </c>
       <c r="G32">
-        <v>-0.05288815566302962</v>
+        <v>-0.05743446013664921</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.545652404790653</v>
+        <v>-2.540269272734372</v>
       </c>
       <c r="G33">
-        <v>-0.05725976809012345</v>
+        <v>-0.05316520869158836</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.559699234362222</v>
+        <v>-2.553377879185216</v>
       </c>
       <c r="G34">
-        <v>-0.05674383737404276</v>
+        <v>-0.05560434093144373</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.571769372994877</v>
+        <v>-2.567471128087231</v>
       </c>
       <c r="G35">
-        <v>-0.06151898899355346</v>
+        <v>-0.05902811562247168</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.583013424778925</v>
+        <v>-2.581113060509696</v>
       </c>
       <c r="G36">
-        <v>-0.06090697879726026</v>
+        <v>-0.06200057383394841</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.595815197152579</v>
+        <v>-2.596206869722038</v>
       </c>
       <c r="G37">
-        <v>-0.06190679912489294</v>
+        <v>-0.06642490883530239</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.607466192253552</v>
+        <v>-2.604385643626286</v>
       </c>
       <c r="G38">
-        <v>-0.06157998135806242</v>
+        <v>-0.06393420852856213</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.619824451838349</v>
+        <v>-2.61628173636524</v>
       </c>
       <c r="G39">
-        <v>-0.06798546696008101</v>
+        <v>-0.0651608270565287</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.632398971224832</v>
+        <v>-2.630038189715611</v>
       </c>
       <c r="G40">
-        <v>-0.06346711784987935</v>
+        <v>-0.06824780619591109</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.644506857917247</v>
+        <v>-2.641715788198817</v>
       </c>
       <c r="G41">
-        <v>-0.06742769429541084</v>
+        <v>-0.06925593046812972</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.65573146107919</v>
+        <v>-2.649547504557758</v>
       </c>
       <c r="G42">
-        <v>-0.06855914402300756</v>
+        <v>-0.06641817261608307</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.667022937781774</v>
+        <v>-2.663386599422227</v>
       </c>
       <c r="G43">
-        <v>-0.06959428447061056</v>
+        <v>-0.06958779326956344</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.678943724664868</v>
+        <v>-2.673975944885359</v>
       </c>
       <c r="G44">
-        <v>-0.07383484458579082</v>
+        <v>-0.06950766452170765</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.689047449456141</v>
+        <v>-2.684047152181387</v>
       </c>
       <c r="G45">
-        <v>-0.07388843351585006</v>
+        <v>-0.06890939760674786</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.702012550613988</v>
+        <v>-2.69751787166707</v>
       </c>
       <c r="G46">
-        <v>-0.07203429272579176</v>
+        <v>-0.07171064288144247</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.713290172583155</v>
+        <v>-2.704269591235935</v>
       </c>
       <c r="G47">
-        <v>-0.07198641738767808</v>
+        <v>-0.06779288823932017</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.723859172111808</v>
+        <v>-2.718756162145747</v>
       </c>
       <c r="G48">
-        <v>-0.07116864154712954</v>
+        <v>-0.07160998493814397</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.732158624553219</v>
+        <v>-2.732454885155056</v>
       </c>
       <c r="G49">
-        <v>-0.07199463034476206</v>
+        <v>-0.07463923373646497</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.745096466039436</v>
+        <v>-2.73590832300072</v>
       </c>
       <c r="G50">
-        <v>-0.06900440119012385</v>
+        <v>-0.06742319737114078</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.755014573797627</v>
+        <v>-2.751441417658293</v>
       </c>
       <c r="G51">
-        <v>-0.0709045594648634</v>
+        <v>-0.07228681781772606</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.766008663776449</v>
+        <v>-2.761298809156088</v>
       </c>
       <c r="G52">
-        <v>-0.07158617120342081</v>
+        <v>-0.0714747351045335</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.776577663305106</v>
+        <v>-2.772851926329627</v>
       </c>
       <c r="G53">
-        <v>-0.07345993678669527</v>
+        <v>-0.07235837806708456</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.783963633349952</v>
+        <v>-2.779316640725488</v>
       </c>
       <c r="G54">
-        <v>-0.07251869123318722</v>
+        <v>-0.06815361825195765</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.795410002625066</v>
+        <v>-2.788237396893622</v>
       </c>
       <c r="G55">
-        <v>-0.07180231130857873</v>
+        <v>-0.06640490020910339</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.807793628018086</v>
+        <v>-2.79917397526899</v>
       </c>
       <c r="G56">
-        <v>-0.06386626372913295</v>
+        <v>-0.06667200437348342</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.814937109652125</v>
+        <v>-2.81422848721161</v>
       </c>
       <c r="G57">
-        <v>-0.06171282390409771</v>
+        <v>-0.07105704210511554</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.823497836167203</v>
+        <v>-2.820619470468493</v>
       </c>
       <c r="G58">
-        <v>-0.06198312682286167</v>
+        <v>-0.06677855115101028</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.832065839743605</v>
+        <v>-2.830272345673994</v>
       </c>
       <c r="G59">
-        <v>-0.06647057458603045</v>
+        <v>-0.06576195214552361</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.840633843320014</v>
+        <v>-2.835914169173347</v>
       </c>
       <c r="G60">
-        <v>-0.06215882337624357</v>
+        <v>-0.06073430143388847</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.848485947394572</v>
+        <v>-2.848485947394571</v>
       </c>
       <c r="G61">
-        <v>-0.06263660544411198</v>
+        <v>-0.06263660544412453</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.85705395097098</v>
+        <v>-2.855181594436548</v>
       </c>
       <c r="G62">
-        <v>-0.05939697721460979</v>
+        <v>-0.05866277827511301</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.864834469642053</v>
+        <v>-2.863040975572443</v>
       </c>
       <c r="G63">
-        <v>-0.05764617926961679</v>
+        <v>-0.05585268520002074</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.872543402909646</v>
+        <v>-2.870900356708334</v>
       </c>
       <c r="G64">
-        <v>-0.05468563832622231</v>
+        <v>-0.05304259212492346</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.880402784045539</v>
+        <v>-2.879973248891135</v>
       </c>
       <c r="G65">
-        <v>-0.05187554525112614</v>
+        <v>-0.05144601009673722</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.888111717313136</v>
+        <v>-2.887553542740915</v>
       </c>
       <c r="G66">
-        <v>-0.04863591702162667</v>
+        <v>-0.04835682973552918</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.895262476008516</v>
+        <v>-2.894983388722403</v>
       </c>
       <c r="G67">
-        <v>-0.04539628879212704</v>
+        <v>-0.04511720150602905</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.902692321989999</v>
+        <v>-2.902413234703883</v>
       </c>
       <c r="G68">
-        <v>-0.04215666056262185</v>
+        <v>-0.04187757327652109</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.910401255257597</v>
+        <v>-2.910122167971483</v>
       </c>
       <c r="G69">
-        <v>-0.03863794504700352</v>
+        <v>-0.03891703233313298</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.917552013952958</v>
+        <v>-2.916771806108967</v>
       </c>
       <c r="G70">
-        <v>-0.03567740410360498</v>
+        <v>-0.03489719625962945</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.924702772648341</v>
+        <v>-2.924201652090452</v>
       </c>
       <c r="G71">
-        <v>-0.03137848074400129</v>
+        <v>-0.03165756803012576</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-2.931352410785825</v>
       </c>
       <c r="G72">
-        <v>-0.02813885251449566</v>
+        <v>-0.02813885251451115</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-2.938002048923317</v>
       </c>
       <c r="G73">
-        <v>-0.02411901644099909</v>
+        <v>-0.024119016441015</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.944651687060805</v>
+        <v>-2.944651687060801</v>
       </c>
       <c r="G74">
-        <v>-0.02009918036749875</v>
+        <v>-0.02009918036751146</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-2.951301325198292</v>
       </c>
       <c r="G75">
-        <v>-0.01607934429399821</v>
+        <v>-0.01607934429401442</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>-2.957950963335777</v>
       </c>
       <c r="G76">
-        <v>-0.01205950822049431</v>
+        <v>-0.01205950822051136</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>-2.964600601473261</v>
       </c>
       <c r="G77">
-        <v>-0.008039672146990223</v>
+        <v>-0.00803967214700721</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>-2.971250239610745</v>
       </c>
       <c r="G78">
-        <v>-0.004019836073486771</v>
+        <v>-0.004019836073503702</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>-2.97789987774823</v>
       </c>
       <c r="G79">
-        <v>1.731947918415244e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>-2.501904555654492</v>
       </c>
       <c r="G80">
-        <v>1.110223024625157e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.603047613787763</v>
+        <v>-2.600702844727916</v>
       </c>
       <c r="G81">
-        <v>-0.02863271101527154</v>
+        <v>-0.02628794195543582</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.692843467313811</v>
+        <v>-2.690928457350471</v>
       </c>
       <c r="G82">
-        <v>-0.04350147517122016</v>
+        <v>-0.04400320746000252</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.778265787394142</v>
+        <v>-2.777138960643358</v>
       </c>
       <c r="G83">
-        <v>-0.05822510632004674</v>
+        <v>-0.05770336363490158</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.858856701749782</v>
+        <v>-2.853902893735262</v>
       </c>
       <c r="G84">
-        <v>-0.06494368968633735</v>
+        <v>-0.06195694960881815</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.935549684678217</v>
+        <v>-2.931979808924036</v>
       </c>
       <c r="G85">
-        <v>-0.06966719460339865</v>
+        <v>-0.06752351767960385</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.006419044755405</v>
+        <v>-3.005183944452402</v>
       </c>
       <c r="G86">
-        <v>-0.06878859736826537</v>
+        <v>-0.06821730608998133</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.07199708353464</v>
+        <v>-3.070920329068246</v>
       </c>
       <c r="G87">
-        <v>-0.05966513508599014</v>
+        <v>-0.06144334358783676</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.131199150272196</v>
+        <v>-3.131067636619372</v>
       </c>
       <c r="G88">
-        <v>-0.04910961881707576</v>
+        <v>-0.04908030402097541</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.187228119188832</v>
+        <v>-3.182907072467546</v>
       </c>
       <c r="G89">
-        <v>-0.03037041355780679</v>
+        <v>-0.02840939275116078</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>-3.231273341370725</v>
       </c>
       <c r="G90">
-        <v>1.199040866595169e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>-2.592059019968109</v>
       </c>
       <c r="G91">
-        <v>8.482103908136196e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.69410518552029</v>
+        <v>-2.692894838088366</v>
       </c>
       <c r="G92">
-        <v>-0.02637827149344085</v>
+        <v>-0.02630584620641496</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.79073810712516</v>
+        <v>-2.786800827385095</v>
       </c>
       <c r="G93">
-        <v>-0.04663577446517264</v>
+        <v>-0.04361158659169595</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.878026356184609</v>
+        <v>-2.877062768108023</v>
       </c>
       <c r="G94">
-        <v>-0.05996507381829774</v>
+        <v>-0.05934355540078151</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.961932335834035</v>
+        <v>-2.960632842771028</v>
       </c>
       <c r="G95">
-        <v>-0.06696021544618236</v>
+        <v>-0.06631338115233842</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.04019703337446</v>
+        <v>-3.039148567149558</v>
       </c>
       <c r="G96">
-        <v>-0.06763303726606362</v>
+        <v>-0.07029913361702644</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.115294692174126</v>
+        <v>-3.114702458414196</v>
       </c>
       <c r="G97">
-        <v>-0.06604158767815793</v>
+        <v>-0.06925277597021595</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.182300070595302</v>
+        <v>-3.180944396753847</v>
       </c>
       <c r="G98">
-        <v>-0.06038877113460295</v>
+        <v>-0.06096474239602467</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.244721371051151</v>
+        <v>-3.243362997640583</v>
       </c>
       <c r="G99">
-        <v>-0.04727245604517061</v>
+        <v>-0.04678309437131234</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.300061635570122</v>
+        <v>-3.299873685560515</v>
       </c>
       <c r="G100">
-        <v>-0.02808201337731508</v>
+        <v>-0.02876381037740222</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>-3.347710124094561</v>
       </c>
       <c r="G101">
-        <v>-6.927791673660977e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>-2.660274568436135</v>
       </c>
       <c r="G102">
-        <v>-9.50350909079134e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.763789620610765</v>
+        <v>-2.762849608465752</v>
       </c>
       <c r="G103">
-        <v>-0.02607897651684521</v>
+        <v>-0.02560438398042475</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.862783574657285</v>
+        <v>-2.859350580006918</v>
       </c>
       <c r="G104">
-        <v>-0.04643373798446326</v>
+        <v>-0.04396847741104759</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.952616984371413</v>
+        <v>-2.95000490838711</v>
       </c>
       <c r="G105">
-        <v>-0.05945985439119039</v>
+        <v>-0.05765214974204769</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037563693010956</v>
+        <v>-3.035478589148978</v>
       </c>
       <c r="G106">
-        <v>-0.06688765398082119</v>
+        <v>-0.06498895239337266</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.117450310750995</v>
+        <v>-3.115371132006355</v>
       </c>
       <c r="G107">
-        <v>-0.06915435913671364</v>
+        <v>-0.06791083920155794</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.193078571759526</v>
+        <v>-3.192088978295152</v>
       </c>
       <c r="G108">
-        <v>-0.06672858274083393</v>
+        <v>-0.06649180737981175</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.262746122150014</v>
+        <v>-3.260751955351121</v>
       </c>
       <c r="G109">
-        <v>-0.06011570557478385</v>
+        <v>-0.05818412838658915</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.327933105327154</v>
+        <v>-3.326195425268273</v>
       </c>
       <c r="G110">
-        <v>-0.04557776164110527</v>
+        <v>-0.04549072019319744</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.385878640778757</v>
+        <v>-3.385361136155145</v>
       </c>
       <c r="G111">
-        <v>-0.02745903044191289</v>
+        <v>-0.02768577503087832</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>-3.43581223923481</v>
       </c>
       <c r="G112">
-        <v>-5.31574784190525e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2994,7 +2994,7 @@
         <v>-2.701887504222825</v>
       </c>
       <c r="G113">
-        <v>-1.194599974496668e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.806372738969189</v>
+        <v>-2.804379340232966</v>
       </c>
       <c r="G114">
-        <v>-0.02636338756774181</v>
+        <v>-0.02436998883133512</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.905888616911123</v>
+        <v>-2.902901091233249</v>
       </c>
       <c r="G115">
-        <v>-0.0470407041366312</v>
+        <v>-0.04405317845851142</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.997748828494618</v>
+        <v>-2.995261278359711</v>
       </c>
       <c r="G116">
-        <v>-0.06004200501084833</v>
+        <v>-0.05757480421186578</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.084246050247969</v>
+        <v>-3.082053187894868</v>
       </c>
       <c r="G117">
-        <v>-0.06772101472739012</v>
+        <v>-0.06552815237391618</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.165695359353931</v>
+        <v>-3.163920841833005</v>
       </c>
       <c r="G118">
-        <v>-0.06913755784477216</v>
+        <v>-0.06855724493894666</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.241554291572051</v>
+        <v>-3.241064840868662</v>
       </c>
       <c r="G119">
-        <v>-0.0669890205500363</v>
+        <v>-0.06686268260149597</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.312708885878886</v>
+        <v>-3.311705817360671</v>
       </c>
       <c r="G120">
-        <v>-0.0586542986859494</v>
+        <v>-0.05866509772039885</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.378034146730768</v>
+        <v>-3.377080945282616</v>
       </c>
       <c r="G121">
-        <v>-0.04546784090886591</v>
+        <v>-0.04520166426923644</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.437876979902028</v>
+        <v>-3.437798672355256</v>
       </c>
       <c r="G122">
-        <v>-0.02629325800467758</v>
+        <v>-0.02708082996876915</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3224,7 +3224,7 @@
         <v>-3.489556403759594</v>
       </c>
       <c r="G123">
-        <v>-7.545075675352564e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3247,7 +3247,7 @@
         <v>-2.736201143285282</v>
       </c>
       <c r="G124">
-        <v>-3.907985046680551e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.842203243223532</v>
+        <v>-2.839968032413841</v>
       </c>
       <c r="G125">
-        <v>-0.02584316946554699</v>
+        <v>-0.02433065367260223</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.941340974281287</v>
+        <v>-2.939069017604942</v>
       </c>
       <c r="G126">
-        <v>-0.04579452534963924</v>
+        <v>-0.04352256867289039</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.035248609873956</v>
+        <v>-3.03219279158137</v>
       </c>
       <c r="G127">
-        <v>-0.05975666388341772</v>
+        <v>-0.05673727245850468</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.121897991784409</v>
+        <v>-3.119302861143675</v>
       </c>
       <c r="G128">
-        <v>-0.06700623720600407</v>
+        <v>-0.06441110656485316</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.203286103629783</v>
+        <v>-3.202919716747566</v>
       </c>
       <c r="G129">
-        <v>-0.06826443019206074</v>
+        <v>-0.06811889197793008</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.280599530250027</v>
+        <v>-3.279571724258009</v>
       </c>
       <c r="G130">
-        <v>-0.06588963529000758</v>
+        <v>-0.06486182929756046</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.351924153145716</v>
+        <v>-3.351757320218449</v>
       </c>
       <c r="G131">
-        <v>-0.05720697363281657</v>
+        <v>-0.05761118980204338</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.419085574399548</v>
+        <v>-3.418507193637744</v>
       </c>
       <c r="G132">
-        <v>-0.04412536182258908</v>
+        <v>-0.04445199303052494</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.480700260985089</v>
+        <v>-3.480263919628054</v>
       </c>
       <c r="G133">
-        <v>-0.02635398389113536</v>
+        <v>-0.02629964883002178</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3477,7 +3477,7 @@
         <v>-3.533873340988846</v>
       </c>
       <c r="G134">
-        <v>-4.556355293061642e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3500,7 +3500,7 @@
         <v>-2.760064722716048</v>
       </c>
       <c r="G135">
-        <v>-6.425970866530406e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.866150911025697</v>
+        <v>-2.864090882501064</v>
       </c>
       <c r="G136">
-        <v>-0.02585252357152434</v>
+        <v>-0.02379249504625491</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.9666439770451</v>
+        <v>-2.96334889328396</v>
       </c>
       <c r="G137">
-        <v>-0.04578444050628683</v>
+        <v>-0.04248935674451593</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.06075458904381</v>
+        <v>-3.057639951009128</v>
       </c>
       <c r="G138">
-        <v>-0.05910396941787677</v>
+        <v>-0.05621926538505062</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.147786003587146</v>
+        <v>-3.145584093690172</v>
       </c>
       <c r="G139">
-        <v>-0.06613165322492542</v>
+        <v>-0.06392974332733403</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.229721802919172</v>
+        <v>-3.229020886624797</v>
       </c>
       <c r="G140">
-        <v>-0.06748243172636825</v>
+        <v>-0.06680538717732531</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.307500191788367</v>
+        <v>-3.30650432586264</v>
       </c>
       <c r="G141">
-        <v>-0.06433644747803813</v>
+        <v>-0.06372767733053397</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.380099161282678</v>
+        <v>-3.379596804444938</v>
       </c>
       <c r="G142">
-        <v>-0.05596965885920635</v>
+        <v>-0.05658649117407066</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.447801701736671</v>
+        <v>-3.447457508289702</v>
       </c>
       <c r="G143">
-        <v>-0.04355204730969797</v>
+        <v>-0.04388604593420109</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.509990273650227</v>
+        <v>-3.509192706659702</v>
       </c>
       <c r="G144">
-        <v>-0.0255289726571688</v>
+        <v>-0.02506009521956704</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3730,7 +3730,7 @@
         <v>-3.564693760524769</v>
       </c>
       <c r="G145">
-        <v>-5.81756864903582e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3753,7 +3753,7 @@
         <v>-2.780662555016065</v>
       </c>
       <c r="G146">
-        <v>6.155076448521868e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.887127169589831</v>
+        <v>-2.885275689714998</v>
       </c>
       <c r="G147">
-        <v>-0.02561399639801065</v>
+        <v>-0.02376251652386419</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.988000372498723</v>
+        <v>-2.985053227034074</v>
       </c>
       <c r="G148">
-        <v>-0.04517202990283442</v>
+        <v>-0.04245303035157111</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.082436261638889</v>
+        <v>-3.079149452134579</v>
       </c>
       <c r="G149">
-        <v>-0.05824953875072114</v>
+        <v>-0.05546223196070521</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.170298637144545</v>
+        <v>-3.167926509428659</v>
       </c>
       <c r="G150">
-        <v>-0.06552439347840089</v>
+        <v>-0.06315226576341582</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.252444301765506</v>
+        <v>-3.251789359734467</v>
       </c>
       <c r="G151">
-        <v>-0.0656189604964772</v>
+        <v>-0.06592809257785293</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.330646136575032</v>
+        <v>-3.330406191245595</v>
       </c>
       <c r="G152">
-        <v>-0.06337157355302869</v>
+        <v>-0.06345790059761147</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.403886008373969</v>
+        <v>-3.403690793834019</v>
       </c>
       <c r="G153">
-        <v>-0.05554607754176377</v>
+        <v>-0.05565547969466511</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.472233217226766</v>
+        <v>-3.472327857760442</v>
       </c>
       <c r="G154">
-        <v>-0.04300893141696971</v>
+        <v>-0.04320552012971801</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.535521227335621</v>
+        <v>-3.535308177519263</v>
       </c>
       <c r="G155">
-        <v>-0.02487823644714832</v>
+        <v>-0.02509881639717004</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3983,7 +3983,7 @@
         <v>-3.591296384613464</v>
       </c>
       <c r="G156">
-        <v>1.329159005081237e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>-2.796116500105523</v>
       </c>
       <c r="G157">
-        <v>2.986499936241671e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.90301651997708</v>
+        <v>-2.901228174087788</v>
       </c>
       <c r="G158">
-        <v>-0.02531987611363995</v>
+        <v>-0.02361537102667022</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.003943411155122</v>
+        <v>-3.000934567228783</v>
       </c>
       <c r="G159">
-        <v>-0.04471292253718007</v>
+        <v>-0.0418254612120692</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.098587396952386</v>
+        <v>-3.094986054723276</v>
       </c>
       <c r="G160">
-        <v>-0.05790659533480014</v>
+        <v>-0.05438064575096657</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.186980732749721</v>
+        <v>-3.184451899839505</v>
       </c>
       <c r="G161">
-        <v>-0.06487902081879482</v>
+        <v>-0.06235018791160041</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.269475189476535</v>
+        <v>-3.267968000893115</v>
       </c>
       <c r="G162">
-        <v>-0.06587717459000486</v>
+        <v>-0.06436998600961497</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.347760899461597</v>
+        <v>-3.347247574481327</v>
       </c>
       <c r="G163">
-        <v>-0.06248638089136183</v>
+        <v>-0.06215325664223159</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.421868308982994</v>
+        <v>-3.421339629594845</v>
       </c>
       <c r="G164">
-        <v>-0.05502524585310409</v>
+        <v>-0.05474900880015421</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.490801254193159</v>
+        <v>-3.490499166537307</v>
       </c>
       <c r="G165">
-        <v>-0.04213593388540526</v>
+        <v>-0.04241224278702116</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.553999264914875</v>
+        <v>-3.553852058264979</v>
       </c>
       <c r="G166">
-        <v>-0.02406464588848273</v>
+        <v>-0.02426883155909759</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>-3.611255547594426</v>
       </c>
       <c r="G167">
-        <v>3.074873689001834e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4259,7 +4259,7 @@
         <v>-2.809837959111862</v>
       </c>
       <c r="G168">
-        <v>4.18198808915804e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.916833607915481</v>
+        <v>-2.915164700197109</v>
       </c>
       <c r="G169">
-        <v>-0.02512212675481518</v>
+        <v>-0.02345321904031783</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.018193581822818</v>
+        <v>-3.015189978624361</v>
       </c>
       <c r="G170">
-        <v>-0.04428282090872493</v>
+        <v>-0.0416049754226413</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.112804741211065</v>
+        <v>-3.109675217304579</v>
       </c>
       <c r="G171">
-        <v>-0.05734621596115663</v>
+        <v>-0.05421669205793034</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.201954855619391</v>
+        <v>-3.198785460457843</v>
       </c>
       <c r="G172">
-        <v>-0.06448814792676227</v>
+        <v>-0.06131875276816512</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.284443584153808</v>
+        <v>-3.283467898827951</v>
       </c>
       <c r="G173">
-        <v>-0.06510335441655801</v>
+        <v>-0.06412766909334389</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.362967648915145</v>
+        <v>-3.363000524030958</v>
       </c>
       <c r="G174">
-        <v>-0.06168369903022275</v>
+        <v>-0.06178677225142182</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.437499191449009</v>
+        <v>-3.437077300426169</v>
       </c>
       <c r="G175">
-        <v>-0.05373930012010308</v>
+        <v>-0.05385536620360387</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.507054660749199</v>
+        <v>-3.50658859004442</v>
       </c>
       <c r="G176">
-        <v>-0.04195920447998613</v>
+        <v>-0.04149313377692687</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.570967674436558</v>
+        <v>-3.570935194457167</v>
       </c>
       <c r="G177">
-        <v>-0.02397459737638463</v>
+        <v>-0.0239662161447447</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4489,7 +4489,7 @@
         <v>-3.628977160755452</v>
       </c>
       <c r="G178">
-        <v>1.104005775687256e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4512,7 +4512,7 @@
         <v>-2.820655808524256</v>
       </c>
       <c r="G179">
-        <v>1.575184427338172e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.927829333162637</v>
+        <v>-2.926087578780262</v>
       </c>
       <c r="G180">
-        <v>-0.02497581068527799</v>
+        <v>-0.02323405630424302</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.028993435307213</v>
+        <v>-3.026098855605463</v>
       </c>
       <c r="G181">
-        <v>-0.04377531276793656</v>
+        <v>-0.04104761917768052</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.124239365344609</v>
+        <v>-3.120742643206766</v>
       </c>
       <c r="G182">
-        <v>-0.05699041496419377</v>
+        <v>-0.0534936928272205</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.213323798362701</v>
+        <v>-3.210209252690443</v>
       </c>
       <c r="G183">
-        <v>-0.06373406551786998</v>
+        <v>-0.06065734160631431</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.296561302253642</v>
+        <v>-3.295297383396436</v>
       </c>
       <c r="G184">
-        <v>-0.06481167721735304</v>
+        <v>-0.0635477583605446</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.375222133990702</v>
+        <v>-3.375009496342773</v>
       </c>
       <c r="G185">
-        <v>-0.06065921342358993</v>
+        <v>-0.06106215735511866</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.450051726529299</v>
+        <v>-3.44964138180576</v>
       </c>
       <c r="G186">
-        <v>-0.05350953744095632</v>
+        <v>-0.05339108211352273</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.519625179601973</v>
+        <v>-3.519397056578657</v>
       </c>
       <c r="G187">
-        <v>-0.04089596255804229</v>
+        <v>-0.04094904293465673</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.584461516833076</v>
+        <v>-3.584183898272555</v>
       </c>
       <c r="G188">
-        <v>-0.02354477768394331</v>
+        <v>-0.0235381706767922</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4742,7 +4742,7 @@
         <v>-3.642948688300346</v>
       </c>
       <c r="G189">
-        <v>-7.789324740770098e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4765,7 +4765,7 @@
         <v>-2.830446960794371</v>
       </c>
       <c r="G190">
-        <v>-5.329070518200751e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.937829390030299</v>
+        <v>-2.936148981515649</v>
       </c>
       <c r="G191">
-        <v>-0.02463667164373629</v>
+        <v>-0.02319568055313281</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.038898574208023</v>
+        <v>-3.036214058951777</v>
       </c>
       <c r="G192">
-        <v>-0.04335031657552113</v>
+        <v>-0.04075441782111566</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.13410233125481</v>
+        <v>-3.130775276603551</v>
       </c>
       <c r="G193">
-        <v>-0.05613634995680417</v>
+        <v>-0.05280929530474476</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.223065164851489</v>
+        <v>-3.220751969904085</v>
       </c>
       <c r="G194">
-        <v>-0.06258278059133393</v>
+        <v>-0.06027964843713352</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.307188212321762</v>
+        <v>-3.305708277752163</v>
       </c>
       <c r="G195">
-        <v>-0.06420955068764544</v>
+        <v>-0.06272961611706696</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.385869087178297</v>
+        <v>-3.385817476503042</v>
       </c>
       <c r="G196">
-        <v>-0.06023638243119378</v>
+        <v>-0.06033247469980041</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.461166347574864</v>
+        <v>-3.46105713080234</v>
       </c>
       <c r="G197">
-        <v>-0.05273519293991558</v>
+        <v>-0.05306578883095381</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.531302978398863</v>
+        <v>-3.531394907756562</v>
       </c>
       <c r="G198">
-        <v>-0.04080529626057827</v>
+        <v>-0.0408972256170308</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.596397874578546</v>
+        <v>-3.596337246931342</v>
       </c>
       <c r="G199">
-        <v>-0.02324592291532424</v>
+        <v>-0.02333322462366577</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4995,7 +4995,7 @@
         <v>-3.655594210382496</v>
       </c>
       <c r="G200">
-        <v>-1.425526363618701e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>-2.838440671075613</v>
       </c>
       <c r="G201">
-        <v>-2.074340699209642e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.945693737015421</v>
+        <v>-2.944169533078</v>
       </c>
       <c r="G202">
-        <v>-0.02453923092723587</v>
+        <v>-0.02301502698824409</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.046960543375605</v>
+        <v>-3.044099694365938</v>
       </c>
       <c r="G203">
-        <v>-0.04291070408028697</v>
+        <v>-0.04016349941871278</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.142310316576824</v>
+        <v>-3.13916936515046</v>
       </c>
       <c r="G204">
-        <v>-0.05555332386486489</v>
+        <v>-0.05251933518909135</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.232123987180128</v>
+        <v>-3.229001435588891</v>
       </c>
       <c r="G205">
-        <v>-0.06269226836134933</v>
+        <v>-0.05956971677005329</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.315870720153266</v>
+        <v>-3.314546489634589</v>
       </c>
       <c r="G206">
-        <v>-0.06357683175656503</v>
+        <v>-0.06240093580160844</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.394886940823064</v>
+        <v>-3.394706098811776</v>
       </c>
       <c r="G207">
-        <v>-0.05963574672750949</v>
+        <v>-0.05977885612132683</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.470329441086681</v>
+        <v>-3.470224552010157</v>
       </c>
       <c r="G208">
-        <v>-0.05244972129845571</v>
+        <v>-0.05258347430556454</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.540835242135946</v>
+        <v>-3.540555539614942</v>
       </c>
       <c r="G209">
-        <v>-0.04027055021217341</v>
+        <v>-0.04013277305288077</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.606276041518305</v>
+        <v>-3.606250246235977</v>
       </c>
       <c r="G210">
-        <v>-0.02300533181220965</v>
+        <v>-0.02311364465977161</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5248,7 +5248,7 @@
         <v>-3.665918290433674</v>
       </c>
       <c r="G211">
-        <v>2.964739564959018e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.382732714691296</v>
+        <v>-2.383705253238137</v>
       </c>
       <c r="G21">
         <v>-0.02366234118036781</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.411542294631439</v>
+        <v>-2.413494382888891</v>
       </c>
       <c r="G23">
         <v>-0.03113297269853454</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.424792617622134</v>
+        <v>-2.4257880238731</v>
       </c>
       <c r="G24">
         <v>-0.03371382147824198</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.453315270155469</v>
+        <v>-2.454676786173378</v>
       </c>
       <c r="G26">
         <v>-0.04089752558960047</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.465066913003126</v>
+        <v>-2.466389704776555</v>
       </c>
       <c r="G27">
         <v>-0.04197969422627001</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.479540626659396</v>
+        <v>-2.481270361749746</v>
       </c>
       <c r="G28">
         <v>-0.04578393367155131</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.491271511108432</v>
+        <v>-2.492816656048953</v>
       </c>
       <c r="G29">
         <v>-0.04684534390959993</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.516980386811277</v>
+        <v>-2.519395336312182</v>
       </c>
       <c r="G31">
         <v>-0.05121527119046965</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.540269272734372</v>
+        <v>-2.542238152768607</v>
       </c>
       <c r="G33">
         <v>-0.05316520869158836</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.553377879185216</v>
+        <v>-2.558492033828797</v>
       </c>
       <c r="G34">
         <v>-0.05560434093144373</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.567471128087231</v>
+        <v>-2.569836796497214</v>
       </c>
       <c r="G35">
         <v>-0.05902811562247168</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.581113060509696</v>
+        <v>-2.583021728723506</v>
       </c>
       <c r="G36">
         <v>-0.06200057383394841</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.604385643626286</v>
+        <v>-2.610055254410356</v>
       </c>
       <c r="G38">
         <v>-0.06393420852856213</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.61628173636524</v>
+        <v>-2.61950762486832</v>
       </c>
       <c r="G39">
         <v>-0.0651608270565287</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.630038189715611</v>
+        <v>-2.630263838731493</v>
       </c>
       <c r="G40">
         <v>-0.06824780619591109</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.641715788198817</v>
+        <v>-2.643578592365526</v>
       </c>
       <c r="G41">
         <v>-0.06925593046812972</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.649547504557758</v>
+        <v>-2.653195417729611</v>
       </c>
       <c r="G42">
         <v>-0.06641817261608307</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.663386599422227</v>
+        <v>-2.663879049638259</v>
       </c>
       <c r="G43">
         <v>-0.06958779326956344</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.673975944885359</v>
+        <v>-2.675424317054212</v>
       </c>
       <c r="G44">
         <v>-0.06950766452170765</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.684047152181387</v>
+        <v>-2.689543462350541</v>
       </c>
       <c r="G45">
         <v>-0.06890939760674786</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.69751787166707</v>
+        <v>-2.699064455355174</v>
       </c>
       <c r="G46">
         <v>-0.07171064288144247</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.704269591235935</v>
+        <v>-2.71259540487606</v>
       </c>
       <c r="G47">
         <v>-0.06779288823932017</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.718756162145747</v>
+        <v>-2.721373452800079</v>
       </c>
       <c r="G48">
         <v>-0.07160998493814397</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.73590832300072</v>
+        <v>-2.742333561680844</v>
       </c>
       <c r="G50">
         <v>-0.06742319737114078</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.751441417658293</v>
+        <v>-2.753322520333832</v>
       </c>
       <c r="G51">
         <v>-0.07228681781772606</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.761298809156088</v>
+        <v>-2.763663572806707</v>
       </c>
       <c r="G52">
         <v>-0.0714747351045335</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.779316640725488</v>
+        <v>-2.781720148986899</v>
       </c>
       <c r="G54">
         <v>-0.06815361825195765</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.788237396893622</v>
+        <v>-2.795410002625069</v>
       </c>
       <c r="G55">
         <v>-0.06640490020910339</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.79917397526899</v>
+        <v>-2.801781580359692</v>
       </c>
       <c r="G56">
         <v>-0.06667200437348342</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.820619470468493</v>
+        <v>-2.821815358733473</v>
       </c>
       <c r="G58">
         <v>-0.06677855115101028</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.835914169173347</v>
+        <v>-2.839846358414682</v>
       </c>
       <c r="G60">
         <v>-0.06073430143388847</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.855181594436548</v>
+        <v>-2.856552830413097</v>
       </c>
       <c r="G62">
         <v>-0.05866277827511301</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.863040975572443</v>
+        <v>-2.864054261798062</v>
       </c>
       <c r="G63">
         <v>-0.05585268520002074</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.870900356708334</v>
+        <v>-2.87297293806406</v>
       </c>
       <c r="G64">
         <v>-0.05304259212492346</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.879973248891135</v>
+        <v>-2.880402784045542</v>
       </c>
       <c r="G65">
         <v>-0.05144601009673722</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.887553542740915</v>
+        <v>-2.887832630027023</v>
       </c>
       <c r="G66">
         <v>-0.04835682973552918</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.894983388722403</v>
+        <v>-2.895541563294627</v>
       </c>
       <c r="G67">
         <v>-0.04511720150602905</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.902413234703883</v>
+        <v>-2.902692321989998</v>
       </c>
       <c r="G68">
         <v>-0.04187757327652109</v>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.916771806108967</v>
+        <v>-2.917552013952964</v>
       </c>
       <c r="G70">
         <v>-0.03489719625962945</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.924201652090452</v>
+        <v>-2.924702772648337</v>
       </c>
       <c r="G71">
         <v>-0.03165756803012576</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.600702844727916</v>
+        <v>-2.602220661723175</v>
       </c>
       <c r="G81">
         <v>-0.02628794195543582</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.690928457350471</v>
+        <v>-2.691077900367922</v>
       </c>
       <c r="G82">
         <v>-0.04400320746000252</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.853902893735262</v>
+        <v>-2.85727664451366</v>
       </c>
       <c r="G84">
         <v>-0.06195694960881815</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.931979808924036</v>
+        <v>-2.935311022994745</v>
       </c>
       <c r="G85">
         <v>-0.06752351767960385</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.070920329068246</v>
+        <v>-3.071679490784361</v>
       </c>
       <c r="G87">
         <v>-0.06144334358783676</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.182907072467546</v>
+        <v>-3.185851518263199</v>
       </c>
       <c r="G89">
         <v>-0.02840939275116078</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.692894838088366</v>
+        <v>-2.692905631565181</v>
       </c>
       <c r="G92">
         <v>-0.02630584620641496</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.786800827385095</v>
+        <v>-2.789088641164843</v>
       </c>
       <c r="G93">
         <v>-0.04361158659169595</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.877062768108023</v>
+        <v>-2.877443404378897</v>
       </c>
       <c r="G94">
         <v>-0.05934355540078151</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.960632842771028</v>
+        <v>-2.962731593338485</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.039148567149558</v>
+        <v>-3.040125987857826</v>
       </c>
       <c r="G96">
         <v>-0.07029913361702644</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.180944396753847</v>
+        <v>-3.18155089033052</v>
       </c>
       <c r="G98">
         <v>-0.06096474239602467</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.243362997640583</v>
+        <v>-3.24426772328035</v>
       </c>
       <c r="G99">
         <v>-0.04678309437131234</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.859350580006918</v>
+        <v>-2.860339328530328</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.95000490838711</v>
+        <v>-2.950090471048169</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.035478589148978</v>
+        <v>-3.037513442900778</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.115371132006355</v>
+        <v>-3.117042101089278</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.192088978295152</v>
+        <v>-3.1936485517305</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.260751955351121</v>
+        <v>-3.262424919749627</v>
       </c>
       <c r="G109">
         <v>-0.05818412838658915</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.326195425268273</v>
+        <v>-3.327914754133297</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.385361136155145</v>
+        <v>-3.385920251669543</v>
       </c>
       <c r="G111">
         <v>-0.02768577503087832</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.804379340232966</v>
+        <v>-2.804992687822441</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.082053187894868</v>
+        <v>-3.082712282759527</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.163920841833005</v>
+        <v>-3.164477518940297</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.311705817360671</v>
+        <v>-3.312452065962615</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.377080945282616</v>
+        <v>-3.377402493731027</v>
       </c>
       <c r="G121">
         <v>-0.04520166426923644</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.437798672355256</v>
+        <v>-3.43789644782195</v>
       </c>
       <c r="G122">
         <v>-0.02708082996876915</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.839968032413841</v>
+        <v>-2.840374583249542</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939069017604942</v>
+        <v>-2.939521478996789</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.03219279158137</v>
+        <v>-3.032699822261115</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.119302861143675</v>
+        <v>-3.120785194099541</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.279571724258009</v>
+        <v>-3.280335245683388</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.351757320218449</v>
+        <v>-3.352067499583176</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.864090882501064</v>
+        <v>-2.864375879368506</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.96334889328396</v>
+        <v>-2.964174448283532</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.057639951009128</v>
+        <v>-3.058137893286795</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.145584093690172</v>
+        <v>-3.145882107418698</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.229020886624797</v>
+        <v>-3.229353243222302</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.30650432586264</v>
+        <v>-3.307394010817964</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.509192706659702</v>
+        <v>-3.509832832297898</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.885275689714998</v>
+        <v>-2.885559942100644</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.985053227034074</v>
+        <v>-2.985235656081684</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.079149452134579</v>
+        <v>-3.079288209745498</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.167926509428659</v>
+        <v>-3.168077037929372</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.251789359734467</v>
+        <v>-3.251845469044783</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.403690793834019</v>
+        <v>-3.403854876012392</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.901228174087788</v>
+        <v>-2.901478688813738</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.000934567228783</v>
+        <v>-3.001164042026986</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.094986054723276</v>
+        <v>-3.095791294767064</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.267968000893115</v>
+        <v>-3.2682608708918</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.347247574481327</v>
+        <v>-3.347631034769917</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.421339629594845</v>
+        <v>-3.421649985539429</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.490499166537307</v>
+        <v>-3.490567443895373</v>
       </c>
       <c r="G165">
         <v>-0.04241224278702116</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.553852058264979</v>
+        <v>-3.554325735993819</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915164700197109</v>
+        <v>-2.915476617589897</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.198785460457843</v>
+        <v>-3.199005009273014</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.283467898827951</v>
+        <v>-3.283497811252262</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.437077300426169</v>
+        <v>-3.437286329685601</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.50658859004442</v>
+        <v>-3.506695677635644</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.570935194457167</v>
+        <v>-3.571072948838946</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926087578780262</v>
+        <v>-2.926223681667911</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.026098855605463</v>
+        <v>-3.02619566115178</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.120742643206766</v>
+        <v>-3.121027598705549</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.210209252690443</v>
+        <v>-3.210420576386859</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.44964138180576</v>
+        <v>-3.44987363556103</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.519397056578657</v>
+        <v>-3.519712025163706</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.584183898272555</v>
+        <v>-3.584370974081937</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936148981515649</v>
+        <v>-2.936174976937121</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.036214058951777</v>
+        <v>-3.036303120302008</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.130775276603551</v>
+        <v>-3.130936000237988</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.220751969904085</v>
+        <v>-3.220983752166691</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.305708277752163</v>
+        <v>-3.305874781055443</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.596337246931342</v>
+        <v>-3.596390664574529</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.044099694365938</v>
+        <v>-3.044393541635701</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.13916936515046</v>
+        <v>-3.139402512662717</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.229001435588891</v>
+        <v>-3.229390263452422</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.394706098811776</v>
+        <v>-3.394805587580733</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.540555539614942</v>
+        <v>-3.540751946525932</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.466389704776555</v>
+        <v>-2.467098327217072</v>
       </c>
       <c r="G27">
         <v>-0.04197969422627001</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.507275474392078</v>
+        <v>-2.507324048495076</v>
       </c>
       <c r="G30">
         <v>-0.05217983298225737</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.558492033828797</v>
+        <v>-2.560511199647814</v>
       </c>
       <c r="G34">
         <v>-0.05560434093144373</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.569836796497214</v>
+        <v>-2.570720347186288</v>
       </c>
       <c r="G35">
         <v>-0.05902811562247168</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.596206869722038</v>
+        <v>-2.596795332656076</v>
       </c>
       <c r="G37">
         <v>-0.06642490883530239</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.61950762486832</v>
+        <v>-2.622553931646373</v>
       </c>
       <c r="G39">
         <v>-0.0651608270565287</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.630263838731493</v>
+        <v>-2.631175350759489</v>
       </c>
       <c r="G40">
         <v>-0.06824780619591109</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.643578592365526</v>
+        <v>-2.645714058450671</v>
       </c>
       <c r="G41">
         <v>-0.06925593046812972</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.653195417729611</v>
+        <v>-2.653887223508724</v>
       </c>
       <c r="G42">
         <v>-0.06641817261608307</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.663879049638259</v>
+        <v>-2.664502231941872</v>
       </c>
       <c r="G43">
         <v>-0.06958779326956344</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.675424317054212</v>
+        <v>-2.67764522327626</v>
       </c>
       <c r="G44">
         <v>-0.06950766452170765</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.689543462350541</v>
+        <v>-2.690785382253541</v>
       </c>
       <c r="G45">
         <v>-0.06890939760674786</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.699064455355174</v>
+        <v>-2.700221331850753</v>
       </c>
       <c r="G46">
         <v>-0.07171064288144247</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.753322520333832</v>
+        <v>-2.75705783333938</v>
       </c>
       <c r="G51">
         <v>-0.07228681781772606</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.763663572806707</v>
+        <v>-2.765703999991357</v>
       </c>
       <c r="G52">
         <v>-0.0714747351045335</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.781720148986899</v>
+        <v>-2.782428771427416</v>
       </c>
       <c r="G54">
         <v>-0.06815361825195765</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.801781580359692</v>
+        <v>-2.803262106699624</v>
       </c>
       <c r="G56">
         <v>-0.06667200437348342</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.821815358733473</v>
+        <v>-2.822173308484399</v>
       </c>
       <c r="G58">
         <v>-0.06677855115101028</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.602220661723175</v>
+        <v>-2.602455359578926</v>
       </c>
       <c r="G81">
         <v>-0.02628794195543582</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.691077900367922</v>
+        <v>-2.691996966314423</v>
       </c>
       <c r="G82">
         <v>-0.04400320746000252</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.777138960643358</v>
+        <v>-2.778118422536482</v>
       </c>
       <c r="G83">
         <v>-0.05770336363490158</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.935311022994745</v>
+        <v>-2.935544766773462</v>
       </c>
       <c r="G85">
         <v>-0.06752351767960385</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.005183944452402</v>
+        <v>-3.006312679371181</v>
       </c>
       <c r="G86">
         <v>-0.06821730608998133</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.071679490784361</v>
+        <v>-3.07181058190743</v>
       </c>
       <c r="G87">
         <v>-0.06144334358783676</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.185851518263199</v>
+        <v>-3.186705976337926</v>
       </c>
       <c r="G89">
         <v>-0.02840939275116078</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.692905631565181</v>
+        <v>-2.693929621677565</v>
       </c>
       <c r="G92">
         <v>-0.02630584620641496</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.877443404378897</v>
+        <v>-2.878502648859578</v>
       </c>
       <c r="G94">
         <v>-0.05934355540078151</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.040125987857826</v>
+        <v>-3.040252399997531</v>
       </c>
       <c r="G96">
         <v>-0.07029913361702644</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.114702458414196</v>
+        <v>-3.115174311473011</v>
       </c>
       <c r="G97">
         <v>-0.06925277597021595</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.18155089033052</v>
+        <v>-3.182241701641028</v>
       </c>
       <c r="G98">
         <v>-0.06096474239602467</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.24426772328035</v>
+        <v>-3.244330565093539</v>
       </c>
       <c r="G99">
         <v>-0.04678309437131234</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.299873685560515</v>
+        <v>-3.300035057240799</v>
       </c>
       <c r="G100">
         <v>-0.02876381037740222</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.762849608465752</v>
+        <v>-2.764657709275403</v>
       </c>
       <c r="G103">
         <v>-0.02560438398042475</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.860339328530328</v>
+        <v>-2.861198605218573</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.950090471048169</v>
+        <v>-2.950219264967374</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037513442900778</v>
+        <v>-3.037534477934484</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.117042101089278</v>
+        <v>-3.117176389508077</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.1936485517305</v>
+        <v>-3.193968980215297</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.262424919749627</v>
+        <v>-3.263275561660649</v>
       </c>
       <c r="G109">
         <v>-0.05818412838658915</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.327914754133297</v>
+        <v>-3.32827416359773</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.385920251669543</v>
+        <v>-3.386076712033265</v>
       </c>
       <c r="G111">
         <v>-0.02768577503087832</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.804992687822441</v>
+        <v>-2.805207480416285</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.902901091233249</v>
+        <v>-2.903127880549067</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.995261278359711</v>
+        <v>-2.995934458656714</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.082712282759527</v>
+        <v>-3.083819712205104</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.164477518940297</v>
+        <v>-3.165652659545072</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.241064840868662</v>
+        <v>-3.242360402895268</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.312452065962615</v>
+        <v>-3.313974013823221</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.377402493731027</v>
+        <v>-3.378322243986201</v>
       </c>
       <c r="G121">
         <v>-0.04520166426923644</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.43789644782195</v>
+        <v>-3.438317247717399</v>
       </c>
       <c r="G122">
         <v>-0.02708082996876915</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.840374583249542</v>
+        <v>-2.840504188109541</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939521478996789</v>
+        <v>-2.939719017880959</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.032699822261115</v>
+        <v>-3.033335094953279</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.120785194099541</v>
+        <v>-3.122001490590399</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.202919716747566</v>
+        <v>-3.204449316505002</v>
       </c>
       <c r="G129">
         <v>-0.06811889197793008</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.280335245683388</v>
+        <v>-3.282481976532654</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.352067499583176</v>
+        <v>-3.354681450306451</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.418507193637744</v>
+        <v>-3.42022811029055</v>
       </c>
       <c r="G132">
         <v>-0.04445199303052494</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.480263919628054</v>
+        <v>-3.480943066104167</v>
       </c>
       <c r="G133">
         <v>-0.02629964883002178</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.864375879368506</v>
+        <v>-2.866474906327297</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.964174448283532</v>
+        <v>-2.96469839756398</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.058137893286795</v>
+        <v>-3.05930842439511</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.145882107418698</v>
+        <v>-3.148298123579054</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.229353243222302</v>
+        <v>-3.232060576305256</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.307394010817964</v>
+        <v>-3.310862983972657</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.379596804444938</v>
+        <v>-3.382558218351211</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.447457508289702</v>
+        <v>-3.449284731470146</v>
       </c>
       <c r="G143">
         <v>-0.04388604593420109</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.509832832297898</v>
+        <v>-3.511037512684152</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.885559942100644</v>
+        <v>-2.885815343302841</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.985235656081684</v>
+        <v>-2.986208933037134</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.079288209745498</v>
+        <v>-3.081492904450194</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.168077037929372</v>
+        <v>-3.171027529204007</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.251845469044783</v>
+        <v>-3.255589443401318</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.330406191245595</v>
+        <v>-3.334127727679717</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.403854876012392</v>
+        <v>-3.407265619745683</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.472327857760442</v>
+        <v>-3.474922952384219</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.535308177519263</v>
+        <v>-3.53659103589672</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.901478688813738</v>
+        <v>-2.901766297685273</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.001164042026986</v>
+        <v>-3.002460285083956</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.095791294767064</v>
+        <v>-3.098164115908872</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.184451899839505</v>
+        <v>-3.188141541034982</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.2682608708918</v>
+        <v>-3.272620028315838</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.347631034769917</v>
+        <v>-3.351869238312134</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.421649985539429</v>
+        <v>-3.425628876886776</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.490567443895373</v>
+        <v>-3.49324742557358</v>
       </c>
       <c r="G165">
         <v>-0.04241224278702116</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.554325735993819</v>
+        <v>-3.55556408635527</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915476617589897</v>
+        <v>-2.915690669790165</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.015189978624361</v>
+        <v>-3.016848712998246</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.109675217304579</v>
+        <v>-3.112522641398796</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.199005009273014</v>
+        <v>-3.20319739182137</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.283497811252262</v>
+        <v>-3.288085649571086</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.363000524030958</v>
+        <v>-3.367690800262283</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.437286329685601</v>
+        <v>-3.441173153111597</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.506695677635644</v>
+        <v>-3.509815837756693</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.571072948838946</v>
+        <v>-3.572610170122168</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926223681667911</v>
+        <v>-2.926558566883584</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.02619566115178</v>
+        <v>-3.02808983933252</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.121027598705549</v>
+        <v>-3.124506686776597</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.210420576386859</v>
+        <v>-3.214786569390341</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.295297383396436</v>
+        <v>-3.29990385762617</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.375009496342773</v>
+        <v>-3.379832675193223</v>
       </c>
       <c r="G185">
         <v>-0.06106215735511866</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.44987363556103</v>
+        <v>-3.454023623978513</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.519712025163706</v>
+        <v>-3.522875930127133</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.584370974081937</v>
+        <v>-3.585775058106249</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936174976937121</v>
+        <v>-2.936656880863203</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.036303120302008</v>
+        <v>-3.038332459194529</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.130936000237988</v>
+        <v>-3.13657752987085</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.220983752166691</v>
+        <v>-3.225576430629346</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.305874781055443</v>
+        <v>-3.310875966031492</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.385817476503042</v>
+        <v>-3.390607289008174</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.46105713080234</v>
+        <v>-3.465131445412871</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.531394907756562</v>
+        <v>-3.534337097027632</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.596390664574529</v>
+        <v>-3.598008580038769</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.944169533078</v>
+        <v>-2.946049514524313</v>
       </c>
       <c r="G202">
         <v>-0.02301502698824409</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.044393541635701</v>
+        <v>-3.048574960747966</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.139402512662717</v>
+        <v>-3.142824189401708</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.229390263452422</v>
+        <v>-3.233757586562004</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.314546489634589</v>
+        <v>-3.319277628599667</v>
       </c>
       <c r="G206">
         <v>-0.06240093580160844</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.394805587580733</v>
+        <v>-3.399466743686772</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.470224552010157</v>
+        <v>-3.47431587721606</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.540751946525932</v>
+        <v>-3.543779948088166</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.606250246235977</v>
+        <v>-3.607775632287131</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.383705253238137</v>
+        <v>-2.384191522511551</v>
       </c>
       <c r="G21">
         <v>-0.02366234118036781</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.398954129283773</v>
+        <v>-2.399440398557193</v>
       </c>
       <c r="G22">
         <v>-0.02921428156185701</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.4257880238731</v>
+        <v>-2.428034636494011</v>
       </c>
       <c r="G24">
         <v>-0.03371382147824198</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.467098327217072</v>
+        <v>-2.467924999858561</v>
       </c>
       <c r="G27">
         <v>-0.04197969422627001</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.492816656048953</v>
+        <v>-2.493803758355337</v>
       </c>
       <c r="G29">
         <v>-0.04684534390959993</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.542238152768607</v>
+        <v>-2.543481618585542</v>
       </c>
       <c r="G33">
         <v>-0.05316520869158836</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.570720347186288</v>
+        <v>-2.571532312471879</v>
       </c>
       <c r="G35">
         <v>-0.05902811562247168</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.622553931646373</v>
+        <v>-2.623177113949988</v>
       </c>
       <c r="G39">
         <v>-0.0651608270565287</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.631175350759489</v>
+        <v>-2.633194516578506</v>
       </c>
       <c r="G40">
         <v>-0.06824780619591109</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.653887223508724</v>
+        <v>-2.657575698649652</v>
       </c>
       <c r="G42">
         <v>-0.06641817261608307</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.664502231941872</v>
+        <v>-2.667646120085393</v>
       </c>
       <c r="G43">
         <v>-0.06958779326956344</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.67764522327626</v>
+        <v>-2.678268405579875</v>
       </c>
       <c r="G44">
         <v>-0.06950766452170765</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.700221331850753</v>
+        <v>-2.702065569421214</v>
       </c>
       <c r="G46">
         <v>-0.07171064288144247</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.732454885155056</v>
+        <v>-2.733131353424502</v>
       </c>
       <c r="G49">
         <v>-0.07463923373646497</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.765703999991357</v>
+        <v>-2.765743431223767</v>
       </c>
       <c r="G52">
         <v>-0.0714747351045335</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.772851926329627</v>
+        <v>-2.77620585882076</v>
       </c>
       <c r="G53">
         <v>-0.07235837806708456</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.782428771427416</v>
+        <v>-2.78519895284734</v>
       </c>
       <c r="G54">
         <v>-0.06815361825195765</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.81422848721161</v>
+        <v>-2.814937109652127</v>
       </c>
       <c r="G57">
         <v>-0.07105704210511554</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.822173308484399</v>
+        <v>-2.824213735669049</v>
       </c>
       <c r="G58">
         <v>-0.06677855115101028</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.839846358414682</v>
+        <v>-2.840275893569085</v>
       </c>
       <c r="G60">
         <v>-0.06073430143388847</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.856552830413097</v>
+        <v>-2.856624415816576</v>
       </c>
       <c r="G62">
         <v>-0.05866277827511301</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.902692321989998</v>
+        <v>-2.902971409276106</v>
       </c>
       <c r="G68">
         <v>-0.04187757327652109</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.602455359578926</v>
+        <v>-2.602582531633058</v>
       </c>
       <c r="G81">
         <v>-0.02628794195543582</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.691996966314423</v>
+        <v>-2.695082952538221</v>
       </c>
       <c r="G82">
         <v>-0.04400320746000252</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.778118422536482</v>
+        <v>-2.778400865842877</v>
       </c>
       <c r="G83">
         <v>-0.05770336363490158</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.85727664451366</v>
+        <v>-2.858734981677263</v>
       </c>
       <c r="G84">
         <v>-0.06195694960881815</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.935544766773462</v>
+        <v>-2.936233877803068</v>
       </c>
       <c r="G85">
         <v>-0.06752351767960385</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.006312679371181</v>
+        <v>-3.006767401623043</v>
       </c>
       <c r="G86">
         <v>-0.06821730608998133</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.07181058190743</v>
+        <v>-3.072049567221205</v>
       </c>
       <c r="G87">
         <v>-0.06144334358783676</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.131067636619372</v>
+        <v>-3.131443352467864</v>
       </c>
       <c r="G88">
         <v>-0.04908030402097541</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.693929621677565</v>
+        <v>-2.694425763117855</v>
       </c>
       <c r="G92">
         <v>-0.02630584620641496</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.789088641164843</v>
+        <v>-2.790309247323954</v>
       </c>
       <c r="G93">
         <v>-0.04361158659169595</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.878502648859578</v>
+        <v>-2.878628827022508</v>
       </c>
       <c r="G94">
         <v>-0.05934355540078151</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.962731593338485</v>
+        <v>-2.963070045310139</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.040252399997531</v>
+        <v>-3.041239489496094</v>
       </c>
       <c r="G96">
         <v>-0.07029913361702644</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.115174311473011</v>
+        <v>-3.1153870971073</v>
       </c>
       <c r="G97">
         <v>-0.06925277597021595</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.182241701641028</v>
+        <v>-3.182610993708173</v>
       </c>
       <c r="G98">
         <v>-0.06096474239602467</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.244330565093539</v>
+        <v>-3.244465231104969</v>
       </c>
       <c r="G99">
         <v>-0.04678309437131234</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.300035057240799</v>
+        <v>-3.30040060830841</v>
       </c>
       <c r="G100">
         <v>-0.02876381037740222</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.764657709275403</v>
+        <v>-2.764894060890672</v>
       </c>
       <c r="G103">
         <v>-0.02560438398042475</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861198605218573</v>
+        <v>-2.861317075071699</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.950219264967374</v>
+        <v>-2.950650708650203</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037534477934484</v>
+        <v>-3.037601610586743</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.117176389508077</v>
+        <v>-3.117922015327447</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.193968980215297</v>
+        <v>-3.194780701464648</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.263275561660649</v>
+        <v>-3.263308202189881</v>
       </c>
       <c r="G109">
         <v>-0.05818412838658915</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.32827416359773</v>
+        <v>-3.328745089482213</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.386076712033265</v>
+        <v>-3.386573591942024</v>
       </c>
       <c r="G111">
         <v>-0.02768577503087832</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.805207480416285</v>
+        <v>-2.805383286465954</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.903127880549067</v>
+        <v>-2.903144611133305</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.995934458656714</v>
+        <v>-2.996322855549417</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.083819712205104</v>
+        <v>-3.08413537804559</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.165652659545072</v>
+        <v>-3.165759495059298</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.242360402895268</v>
+        <v>-3.242388814057533</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.313974013823221</v>
+        <v>-3.314195258087676</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.378322243986201</v>
+        <v>-3.378553979228835</v>
       </c>
       <c r="G121">
         <v>-0.04520166426923644</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.840504188109541</v>
+        <v>-2.840646683557131</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939719017880959</v>
+        <v>-2.939847978057071</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.033335094953279</v>
+        <v>-3.033411810875532</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.122001490590399</v>
+        <v>-3.122388966950493</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.204449316505002</v>
+        <v>-3.204524006068631</v>
       </c>
       <c r="G129">
         <v>-0.06811889197793008</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.282481976532654</v>
+        <v>-3.282619167823599</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.354681450306451</v>
+        <v>-3.354788905308878</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.42022811029055</v>
+        <v>-3.420443735897146</v>
       </c>
       <c r="G132">
         <v>-0.04445199303052494</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.480943066104167</v>
+        <v>-3.481032675483546</v>
       </c>
       <c r="G133">
         <v>-0.02629964883002178</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.866474906327297</v>
+        <v>-2.8665239091763</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.96469839756398</v>
+        <v>-2.964967444408054</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.05930842439511</v>
+        <v>-3.059588298440437</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.148298123579054</v>
+        <v>-3.148347126428055</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.232060576305256</v>
+        <v>-3.232336199522107</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.310862983972657</v>
+        <v>-3.311057792952496</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.382558218351211</v>
+        <v>-3.382923930312583</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.449284731470146</v>
+        <v>-3.449541983935144</v>
       </c>
       <c r="G143">
         <v>-0.04388604593420109</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.511037512684152</v>
+        <v>-3.51118810629105</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.885815343302841</v>
+        <v>-2.885909911691835</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.986208933037134</v>
+        <v>-2.986416687122058</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.081492904450194</v>
+        <v>-3.081682565298149</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.171027529204007</v>
+        <v>-3.171403944894703</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.255589443401318</v>
+        <v>-3.255933305670048</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.334127727679717</v>
+        <v>-3.334658364459608</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.407265619745683</v>
+        <v>-3.408080486984522</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.474922952384219</v>
+        <v>-3.47528099419185</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.53659103589672</v>
+        <v>-3.536660664410185</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.901766297685273</v>
+        <v>-2.901989394301147</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.002460285083956</v>
+        <v>-3.002595073483308</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.098164115908872</v>
+        <v>-3.098277041001337</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.188141541034982</v>
+        <v>-3.188506102329625</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.272620028315838</v>
+        <v>-3.273277690933037</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.351869238312134</v>
+        <v>-3.352798220060764</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.425628876886776</v>
+        <v>-3.426531079899546</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.49324742557358</v>
+        <v>-3.493717080639736</v>
       </c>
       <c r="G165">
         <v>-0.04241224278702116</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.55556408635527</v>
+        <v>-3.555838779568802</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915690669790165</v>
+        <v>-2.915789771440121</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.016848712998246</v>
+        <v>-3.016898993408895</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.112522641398796</v>
+        <v>-3.112850475020133</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.20319739182137</v>
+        <v>-3.203759456139701</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.288085649571086</v>
+        <v>-3.289143028126846</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.367690800262283</v>
+        <v>-3.369139424879856</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.441173153111597</v>
+        <v>-3.442257626251731</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.509815837756693</v>
+        <v>-3.510834426783227</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.572610170122168</v>
+        <v>-3.573042351328395</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926558566883584</v>
+        <v>-2.926740358153822</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.02808983933252</v>
+        <v>-3.028396870712819</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.124506686776597</v>
+        <v>-3.12509157047875</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.214786569390341</v>
+        <v>-3.215801487571215</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.29990385762617</v>
+        <v>-3.301248687225476</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.379832675193223</v>
+        <v>-3.381676128970522</v>
       </c>
       <c r="G185">
         <v>-0.06106215735511866</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.454023623978513</v>
+        <v>-3.455683710698284</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.522875930127133</v>
+        <v>-3.524001996820311</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.585775058106249</v>
+        <v>-3.586127508511161</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936656880863203</v>
+        <v>-2.936831126248853</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.038332459194529</v>
+        <v>-3.03858754454999</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.13657752987085</v>
+        <v>-3.137376534658217</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.225576430629346</v>
+        <v>-3.227030370829237</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.310875966031492</v>
+        <v>-3.312808255719162</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.390607289008174</v>
+        <v>-3.392746488858196</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.465131445412871</v>
+        <v>-3.46732326708406</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.534337097027632</v>
+        <v>-3.535751870726462</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.598008580038769</v>
+        <v>-3.598553576773048</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.946049514524313</v>
+        <v>-2.946145669612224</v>
       </c>
       <c r="G202">
         <v>-0.02301502698824409</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.048574960747966</v>
+        <v>-3.049066781148558</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.142824189401708</v>
+        <v>-3.143750578703596</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.233757586562004</v>
+        <v>-3.235602026467418</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.319277628599667</v>
+        <v>-3.321799249127837</v>
       </c>
       <c r="G206">
         <v>-0.06240093580160844</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.399466743686772</v>
+        <v>-3.402281033337048</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.47431587721606</v>
+        <v>-3.476777901454544</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.543779948088166</v>
+        <v>-3.545454957762391</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.607775632287131</v>
+        <v>-3.608537965077613</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.454676786173378</v>
+        <v>-2.454725360276375</v>
       </c>
       <c r="G26">
         <v>-0.04089752558960047</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.519395336312182</v>
+        <v>-2.520620836283258</v>
       </c>
       <c r="G31">
         <v>-0.05121527119046965</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.657575698649652</v>
+        <v>-2.658180581515614</v>
       </c>
       <c r="G42">
         <v>-0.06641817261608307</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.667646120085393</v>
+        <v>-2.668853320618819</v>
       </c>
       <c r="G43">
         <v>-0.06958779326956344</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.830272345673994</v>
+        <v>-2.832065839743604</v>
       </c>
       <c r="G59">
         <v>-0.06576195214552361</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.602582531633058</v>
+        <v>-2.602888855524763</v>
       </c>
       <c r="G81">
         <v>-0.02628794195543582</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.695082952538221</v>
+        <v>-2.695433343953327</v>
       </c>
       <c r="G82">
         <v>-0.04400320746000252</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.858734981677263</v>
+        <v>-2.859295081528907</v>
       </c>
       <c r="G84">
         <v>-0.06195694960881815</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.006767401623043</v>
+        <v>-3.006822180285255</v>
       </c>
       <c r="G86">
         <v>-0.06821730608998133</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.694425763117855</v>
+        <v>-2.694504144904413</v>
       </c>
       <c r="G92">
         <v>-0.02630584620641496</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.790309247323954</v>
+        <v>-2.790546197181818</v>
       </c>
       <c r="G93">
         <v>-0.04361158659169595</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.963070045310139</v>
+        <v>-2.964291396946176</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.041239489496094</v>
+        <v>-3.042020080302231</v>
       </c>
       <c r="G96">
         <v>-0.07029913361702644</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.1153870971073</v>
+        <v>-3.11547138801715</v>
       </c>
       <c r="G97">
         <v>-0.06925277597021595</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.182610993708173</v>
+        <v>-3.182640006810995</v>
       </c>
       <c r="G98">
         <v>-0.06096474239602467</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.244465231104969</v>
+        <v>-3.245044464442081</v>
       </c>
       <c r="G99">
         <v>-0.04678309437131234</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.30040060830841</v>
+        <v>-3.300412964145175</v>
       </c>
       <c r="G100">
         <v>-0.02876381037740222</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861317075071699</v>
+        <v>-2.861437776826084</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.950650708650203</v>
+        <v>-2.950821243764929</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037601610586743</v>
+        <v>-3.037802486151943</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.194780701464648</v>
+        <v>-3.194891367510142</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.328745089482213</v>
+        <v>-3.328874226466712</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.386573591942024</v>
+        <v>-3.386894404905597</v>
       </c>
       <c r="G111">
         <v>-0.02768577503087832</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.805383286465954</v>
+        <v>-2.805885231968596</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.903144611133305</v>
+        <v>-2.903226948809995</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.996322855549417</v>
+        <v>-2.996363477217982</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.08413537804559</v>
+        <v>-3.084208414139007</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.165759495059298</v>
+        <v>-3.166081055958871</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.314195258087676</v>
+        <v>-3.314304496130989</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.438317247717399</v>
+        <v>-3.438405756779245</v>
       </c>
       <c r="G122">
         <v>-0.02708082996876915</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.840646683557131</v>
+        <v>-2.840694263086867</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.939847978057071</v>
+        <v>-2.94002119880571</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.122388966950493</v>
+        <v>-3.122575546593016</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.204524006068631</v>
+        <v>-3.204561747172413</v>
       </c>
       <c r="G129">
         <v>-0.06811889197793008</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.282619167823599</v>
+        <v>-3.282725020138365</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.420443735897146</v>
+        <v>-3.420538894956619</v>
       </c>
       <c r="G132">
         <v>-0.04445199303052494</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.8665239091763</v>
+        <v>-2.866556577742302</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.964967444408054</v>
+        <v>-2.965028091275003</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.059588298440437</v>
+        <v>-3.059650975624313</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.148347126428055</v>
+        <v>-3.148390481319526</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.232336199522107</v>
+        <v>-3.232688665844032</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.311057792952496</v>
+        <v>-3.311255498483638</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.382923930312583</v>
+        <v>-3.382973843100365</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.449541983935144</v>
+        <v>-3.449673228662227</v>
       </c>
       <c r="G143">
         <v>-0.04388604593420109</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.885909911691835</v>
+        <v>-2.88592161578438</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.986416687122058</v>
+        <v>-2.986634436376265</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.255933305670048</v>
+        <v>-3.256029632485181</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.334658364459608</v>
+        <v>-3.33469347673724</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.408080486984522</v>
+        <v>-3.408096720199282</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.536660664410185</v>
+        <v>-3.536707379470826</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.901989394301147</v>
+        <v>-2.902130094773987</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.002595073483308</v>
+        <v>-3.002652015135758</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.098277041001337</v>
+        <v>-3.098295784719587</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.188506102329625</v>
+        <v>-3.188540767268803</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.273277690933037</v>
+        <v>-3.273295023402626</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.426531079899546</v>
+        <v>-3.426579057913</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.555838779568802</v>
+        <v>-3.55585367529399</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915789771440121</v>
+        <v>-2.915829357170845</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.016898993408895</v>
+        <v>-3.017038768652171</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.112850475020133</v>
+        <v>-3.112897475163138</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.203759456139701</v>
+        <v>-3.20379318563947</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.369139424879856</v>
+        <v>-3.369284958044134</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.442257626251731</v>
+        <v>-3.442287981792932</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.510834426783227</v>
+        <v>-3.510847622026802</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926740358153822</v>
+        <v>-2.926768565945423</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.12509157047875</v>
+        <v>-3.125148917289886</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.215801487571215</v>
+        <v>-3.215986191660977</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.301248687225476</v>
+        <v>-3.30136271652575</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.381676128970522</v>
+        <v>-3.381710842754178</v>
       </c>
       <c r="G185">
         <v>-0.06106215735511866</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.455683710698284</v>
+        <v>-3.45571637805299</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.524001996820311</v>
+        <v>-3.524043004053849</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.586127508511161</v>
+        <v>-3.586153147737611</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936831126248853</v>
+        <v>-2.936880246516417</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.137376534658217</v>
+        <v>-3.137396331720429</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.227030370829237</v>
+        <v>-3.227078069354802</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.312808255719162</v>
+        <v>-3.312839723347693</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.392746488858196</v>
+        <v>-3.392822347351688</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.46732326708406</v>
+        <v>-3.467371291858273</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.535751870726462</v>
+        <v>-3.535837416241971</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.598553576773048</v>
+        <v>-3.598629985302262</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.049066781148558</v>
+        <v>-3.049078437271661</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.143750578703596</v>
+        <v>-3.14379994177214</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.235602026467418</v>
+        <v>-3.235667496803983</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.321799249127837</v>
+        <v>-3.321922772705339</v>
       </c>
       <c r="G206">
         <v>-0.06240093580160844</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.402281033337048</v>
+        <v>-3.402579218195859</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.476777901454544</v>
+        <v>-3.477063808013392</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.545454957762391</v>
+        <v>-3.545594902233273</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.608537965077613</v>
+        <v>-3.608588873791937</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.543481618585542</v>
+        <v>-2.544651953085062</v>
       </c>
       <c r="G33">
         <v>-0.05316520869158836</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.832065839743604</v>
+        <v>-2.832423789494532</v>
       </c>
       <c r="G59">
         <v>-0.06576195214552361</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.602888855524763</v>
+        <v>-2.604301371263447</v>
       </c>
       <c r="G81">
         <v>-0.02628794195543582</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.778400865842877</v>
+        <v>-2.778436671337162</v>
       </c>
       <c r="G83">
         <v>-0.05770336363490158</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.859295081528907</v>
+        <v>-2.859433054610723</v>
       </c>
       <c r="G84">
         <v>-0.06195694960881815</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.936233877803068</v>
+        <v>-2.936782394223679</v>
       </c>
       <c r="G85">
         <v>-0.06752351767960385</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.131443352467864</v>
+        <v>-3.132405573006881</v>
       </c>
       <c r="G88">
         <v>-0.04908030402097541</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.964291396946176</v>
+        <v>-2.964363332019261</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.764894060890672</v>
+        <v>-2.764954411767864</v>
       </c>
       <c r="G103">
         <v>-0.02560438398042475</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861437776826084</v>
+        <v>-2.861508170842542</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037802486151943</v>
+        <v>-3.037916406131262</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.117922015327447</v>
+        <v>-3.118038224194814</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.194891367510142</v>
+        <v>-3.195035945581035</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.328874226466712</v>
+        <v>-3.329034915371601</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.386894404905597</v>
+        <v>-3.387041722559379</v>
       </c>
       <c r="G111">
         <v>-0.02768577503087832</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.805885231968596</v>
+        <v>-2.80598031600518</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.903226948809995</v>
+        <v>-2.903346869431803</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.084208414139007</v>
+        <v>-3.084272946087581</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.242388814057533</v>
+        <v>-3.242443567081947</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.94002119880571</v>
+        <v>-2.940134595080415</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.033411810875532</v>
+        <v>-3.033501458775711</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.282725020138365</v>
+        <v>-3.282921530421886</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.354788905308878</v>
+        <v>-3.354833086787808</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.965028091275003</v>
+        <v>-2.96510623805298</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.059650975624313</v>
+        <v>-3.05969065946945</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.148390481319526</v>
+        <v>-3.148433836210995</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.232688665844032</v>
+        <v>-3.232767490637663</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.311255498483638</v>
+        <v>-3.311353789115334</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.51118810629105</v>
+        <v>-3.511222468992185</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.986634436376265</v>
+        <v>-2.986646140468809</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.081682565298149</v>
+        <v>-3.081724019489242</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.33469347673724</v>
+        <v>-3.334707696711947</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.408096720199282</v>
+        <v>-3.408122054977834</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.47528099419185</v>
+        <v>-3.475292698284394</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.002652015135758</v>
+        <v>-3.002669347605348</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.273295023402626</v>
+        <v>-3.273307904081813</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.352798220060764</v>
+        <v>-3.352834832691767</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915829357170845</v>
+        <v>-2.915842219418833</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.017038768652171</v>
+        <v>-3.017051963895748</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.112897475163138</v>
+        <v>-3.112916957256846</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.20379318563947</v>
+        <v>-3.203808927728988</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.289143028126846</v>
+        <v>-3.289156223370422</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.369284958044134</v>
+        <v>-3.369295671015318</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.510847622026802</v>
+        <v>-3.510861558661207</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.573042351328395</v>
+        <v>-3.573057714859435</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926768565945423</v>
+        <v>-2.926805271066478</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.028396870712819</v>
+        <v>-3.028423708857899</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.125148917289886</v>
+        <v>-3.125181151434639</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.30136271652575</v>
+        <v>-3.301394735871869</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.524043004053849</v>
+        <v>-3.524093921030127</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.586153147737611</v>
+        <v>-3.58617500563157</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936880246516417</v>
+        <v>-2.936918495772454</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.03858754454999</v>
+        <v>-3.038649932791551</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.227078069354802</v>
+        <v>-3.227101499231518</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.392822347351688</v>
+        <v>-3.392857111939346</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.467371291858273</v>
+        <v>-3.467381899122823</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.535837416241971</v>
+        <v>-3.53584915719606</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.598629985302262</v>
+        <v>-3.598643349408496</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.946145669612224</v>
+        <v>-2.94617528830841</v>
       </c>
       <c r="G202">
         <v>-0.02301502698824409</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.049078437271661</v>
+        <v>-3.049095058204732</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.235667496803983</v>
+        <v>-3.235678384813004</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.402579218195859</v>
+        <v>-3.402616176448686</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.477063808013392</v>
+        <v>-3.477088585031503</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.545594902233273</v>
+        <v>-3.545607510568695</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.608588873791937</v>
+        <v>-3.608605328623157</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.413494382888891</v>
+        <v>-2.414689274602827</v>
       </c>
       <c r="G23">
         <v>-0.03113297269853454</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.467924999858561</v>
+        <v>-2.467973573961561</v>
       </c>
       <c r="G27">
         <v>-0.04197969422627001</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.742333561680844</v>
+        <v>-2.744284104024363</v>
       </c>
       <c r="G50">
         <v>-0.06742319737114078</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.795410002625069</v>
+        <v>-2.797450429809718</v>
       </c>
       <c r="G55">
         <v>-0.06640490020910339</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.778436671337162</v>
+        <v>-2.778772050998314</v>
       </c>
       <c r="G83">
         <v>-0.05770336363490158</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.878628827022508</v>
+        <v>-2.878665970857135</v>
       </c>
       <c r="G94">
         <v>-0.05934355540078151</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.964363332019261</v>
+        <v>-2.96510513011195</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.042020080302231</v>
+        <v>-3.04236596951133</v>
       </c>
       <c r="G96">
         <v>-0.07029913361702644</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.037916406131262</v>
+        <v>-3.038344894331818</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.118038224194814</v>
+        <v>-3.11847092105471</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.195035945581035</v>
+        <v>-3.195155794920086</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.329034915371601</v>
+        <v>-3.329077793059336</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.80598031600518</v>
+        <v>-2.806133846634131</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.903346869431803</v>
+        <v>-2.903407952076321</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.996363477217982</v>
+        <v>-2.996423886349017</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.084272946087581</v>
+        <v>-3.084294892788024</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.242443567081947</v>
+        <v>-3.242561328465784</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.314304496130989</v>
+        <v>-3.314341014177698</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.840694263086867</v>
+        <v>-2.84078822142783</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.033501458775711</v>
+        <v>-3.033578174697963</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.122575546593016</v>
+        <v>-3.122655442482135</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.354833086787808</v>
+        <v>-3.354891294193564</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.420538894956619</v>
+        <v>-3.420586474486355</v>
       </c>
       <c r="G132">
         <v>-0.04445199303052494</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.481032675483546</v>
+        <v>-3.481106734827202</v>
       </c>
       <c r="G133">
         <v>-0.02629964883002178</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.866556577742302</v>
+        <v>-2.866623282195909</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.96510623805298</v>
+        <v>-2.965201583802858</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.148433836210995</v>
+        <v>-3.148578491657967</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.232767490637663</v>
+        <v>-3.232832827769666</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.382973843100365</v>
+        <v>-3.383004256978176</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.449673228662227</v>
+        <v>-3.449705897228228</v>
       </c>
       <c r="G143">
         <v>-0.04388604593420109</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.511222468992185</v>
+        <v>-3.511240433873004</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.88592161578438</v>
+        <v>-2.885933319876924</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.081724019489242</v>
+        <v>-3.081805490271289</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.171403944894703</v>
+        <v>-3.171459967786587</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.408122054977834</v>
+        <v>-3.408186088599024</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.475292698284394</v>
+        <v>-3.475329024469876</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.536707379470826</v>
+        <v>-3.536741279399968</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.902130094773987</v>
+        <v>-2.902153736718469</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.002669347605348</v>
+        <v>-3.002704012544528</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.098295784719587</v>
+        <v>-3.098330449658767</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.188540767268803</v>
+        <v>-3.188612119853104</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.352834832691767</v>
+        <v>-3.352850142455409</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915842219418833</v>
+        <v>-2.915886508314462</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.017051963895748</v>
+        <v>-3.017069862304222</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.369295671015318</v>
+        <v>-3.369337832205382</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.442287981792932</v>
+        <v>-3.442352361012347</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926805271066478</v>
+        <v>-2.926841228231889</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.028423708857899</v>
+        <v>-3.028437083663502</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.125181151434639</v>
+        <v>-3.125258420898266</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.301394735871869</v>
+        <v>-3.301425556299361</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.038649932791551</v>
+        <v>-3.038668719021467</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.137396331720429</v>
+        <v>-3.137408566249439</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.227101499231518</v>
+        <v>-3.227115342157761</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.312839723347693</v>
+        <v>-3.312873876266319</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.53584915719606</v>
+        <v>-3.535871804906676</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.235678384813004</v>
+        <v>-3.235689642635916</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.402616176448686</v>
+        <v>-3.402641945589022</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.477088585031503</v>
+        <v>-3.477098827744127</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.545607510568695</v>
+        <v>-3.545622624370131</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.440893729111777</v>
+        <v>-2.441379998385194</v>
       </c>
       <c r="G25">
         <v>-0.03914545875689601</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.467973573961561</v>
+        <v>-2.468070722167558</v>
       </c>
       <c r="G27">
         <v>-0.04197969422627001</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.481270361749746</v>
+        <v>-2.481367509955744</v>
       </c>
       <c r="G28">
         <v>-0.04578393367155131</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.493803758355337</v>
+        <v>-2.49466429774393</v>
       </c>
       <c r="G29">
         <v>-0.04684534390959993</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.507324048495076</v>
+        <v>-2.507961085532115</v>
       </c>
       <c r="G30">
         <v>-0.05217983298225737</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.520620836283258</v>
+        <v>-2.521257873320299</v>
       </c>
       <c r="G31">
         <v>-0.05121527119046965</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.533869049968445</v>
+        <v>-2.534554661108483</v>
       </c>
       <c r="G32">
         <v>-0.05743446013664921</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.544651953085062</v>
+        <v>-2.547851448896669</v>
       </c>
       <c r="G33">
         <v>-0.05316520869158836</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.560511199647814</v>
+        <v>-2.561099662581854</v>
       </c>
       <c r="G34">
         <v>-0.05560434093144373</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.571532312471879</v>
+        <v>-2.574445024473037</v>
       </c>
       <c r="G35">
         <v>-0.05902811562247168</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.583021728723506</v>
+        <v>-2.586929846975631</v>
       </c>
       <c r="G36">
         <v>-0.06200057383394841</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.596795332656076</v>
+        <v>-2.599414669478226</v>
       </c>
       <c r="G37">
         <v>-0.06642490883530239</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.610055254410356</v>
+        <v>-2.611899491980818</v>
       </c>
       <c r="G38">
         <v>-0.06393420852856213</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.623177113949988</v>
+        <v>-2.624384314483412</v>
       </c>
       <c r="G39">
         <v>-0.0651608270565287</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.633194516578506</v>
+        <v>-2.635661936452579</v>
       </c>
       <c r="G40">
         <v>-0.06824780619591109</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.645714058450671</v>
+        <v>-2.646939558421749</v>
       </c>
       <c r="G41">
         <v>-0.06925593046812972</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.658180581515614</v>
+        <v>-2.658217180390918</v>
       </c>
       <c r="G42">
         <v>-0.06641817261608307</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.668853320618819</v>
+        <v>-2.669494802360087</v>
       </c>
       <c r="G43">
         <v>-0.06958779326956344</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.678268405579875</v>
+        <v>-2.680772424329255</v>
       </c>
       <c r="G44">
         <v>-0.06950766452170765</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.690785382253541</v>
+        <v>-2.692050046298425</v>
       </c>
       <c r="G45">
         <v>-0.06890939760674786</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.702065569421214</v>
+        <v>-2.703327668267594</v>
       </c>
       <c r="G46">
         <v>-0.07171064288144247</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.71259540487606</v>
+        <v>-2.714605290236762</v>
       </c>
       <c r="G47">
         <v>-0.06779288823932017</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.721373452800079</v>
+        <v>-2.725864612768281</v>
       </c>
       <c r="G48">
         <v>-0.07160998493814397</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.733131353424502</v>
+        <v>-2.737123935299799</v>
       </c>
       <c r="G49">
         <v>-0.07463923373646497</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.744284104024363</v>
+        <v>-2.748383257831315</v>
       </c>
       <c r="G50">
         <v>-0.06742319737114078</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.75705783333938</v>
+        <v>-2.759642580362831</v>
       </c>
       <c r="G51">
         <v>-0.07228681781772606</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.765743431223767</v>
+        <v>-2.769627828820275</v>
       </c>
       <c r="G52">
         <v>-0.0714747351045335</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.77620585882076</v>
+        <v>-2.779613077277718</v>
       </c>
       <c r="G53">
         <v>-0.07235837806708456</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.78519895284734</v>
+        <v>-2.789755002764034</v>
       </c>
       <c r="G54">
         <v>-0.06815361825195765</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.797450429809718</v>
+        <v>-2.799583574192603</v>
       </c>
       <c r="G55">
         <v>-0.06640490020910339</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.803262106699624</v>
+        <v>-2.807793628018086</v>
       </c>
       <c r="G56">
         <v>-0.06667200437348342</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.814937109652127</v>
+        <v>-2.816003681843569</v>
       </c>
       <c r="G57">
         <v>-0.07105704210511554</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.840275893569085</v>
+        <v>-2.840633843320018</v>
       </c>
       <c r="G60">
         <v>-0.06073430143388847</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.848485947394571</v>
+        <v>-2.848843897145501</v>
       </c>
       <c r="G61">
         <v>-0.06263660544412453</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.856624415816576</v>
+        <v>-2.857053950970984</v>
       </c>
       <c r="G62">
         <v>-0.05866277827511301</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.864054261798062</v>
+        <v>-2.865264004796464</v>
       </c>
       <c r="G63">
         <v>-0.05585268520002074</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.880402784045542</v>
+        <v>-2.880681871331656</v>
       </c>
       <c r="G65">
         <v>-0.05144601009673722</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.887832630027023</v>
+        <v>-2.888111717313143</v>
       </c>
       <c r="G66">
         <v>-0.04835682973552918</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.895541563294627</v>
+        <v>-2.89582065058074</v>
       </c>
       <c r="G67">
         <v>-0.04511720150602905</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.902971409276106</v>
+        <v>-2.903250496562217</v>
       </c>
       <c r="G68">
         <v>-0.04187757327652109</v>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.910122167971483</v>
+        <v>-2.910401255257591</v>
       </c>
       <c r="G69">
         <v>-0.03891703233313298</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.604301371263447</v>
+        <v>-2.604348754003373</v>
       </c>
       <c r="G81">
         <v>-0.02628794195543582</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.695433343953327</v>
+        <v>-2.696537526685145</v>
       </c>
       <c r="G82">
         <v>-0.04400320746000252</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.778772050998314</v>
+        <v>-2.783509037133804</v>
       </c>
       <c r="G83">
         <v>-0.05770336363490158</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.859433054610723</v>
+        <v>-2.863804910628849</v>
       </c>
       <c r="G84">
         <v>-0.06195694960881815</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.936782394223679</v>
+        <v>-2.941691884515227</v>
       </c>
       <c r="G85">
         <v>-0.06752351767960385</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.006822180285255</v>
+        <v>-3.010365033324494</v>
       </c>
       <c r="G86">
         <v>-0.06821730608998133</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.072049567221205</v>
+        <v>-3.075090775013523</v>
       </c>
       <c r="G87">
         <v>-0.06144334358783676</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.132405573006881</v>
+        <v>-3.134662647332377</v>
       </c>
       <c r="G88">
         <v>-0.04908030402097541</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.186705976337926</v>
+        <v>-3.188420781394754</v>
       </c>
       <c r="G89">
         <v>-0.02840939275116078</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.694504144904413</v>
+        <v>-2.697176041113019</v>
       </c>
       <c r="G92">
         <v>-0.02630584620641496</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.790546197181818</v>
+        <v>-2.79427345494897</v>
       </c>
       <c r="G93">
         <v>-0.04361158659169595</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.878665970857135</v>
+        <v>-2.884612399627952</v>
       </c>
       <c r="G94">
         <v>-0.05934355540078151</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.96510513011195</v>
+        <v>-2.969774521904274</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.04236596951133</v>
+        <v>-3.04901192548295</v>
       </c>
       <c r="G96">
         <v>-0.07029913361702644</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.11547138801715</v>
+        <v>-3.122046809535657</v>
       </c>
       <c r="G97">
         <v>-0.06925277597021595</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.182640006810995</v>
+        <v>-3.186825366568466</v>
       </c>
       <c r="G98">
         <v>-0.06096474239602467</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.245044464442081</v>
+        <v>-3.247197902978288</v>
       </c>
       <c r="G99">
         <v>-0.04678309437131234</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.300412964145175</v>
+        <v>-3.301139066540968</v>
       </c>
       <c r="G100">
         <v>-0.02876381037740222</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.764954411767864</v>
+        <v>-2.767406904798777</v>
       </c>
       <c r="G103">
         <v>-0.02560438398042475</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.861508170842542</v>
+        <v>-2.865558846850992</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.950821243764929</v>
+        <v>-2.95683532933223</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.038344894331818</v>
+        <v>-3.044523845824241</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.11847092105471</v>
+        <v>-3.124346202587832</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.195155794920086</v>
+        <v>-3.201558263083741</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.263308202189881</v>
+        <v>-3.269264191282092</v>
       </c>
       <c r="G109">
         <v>-0.05818412838658915</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.329077793059336</v>
+        <v>-3.332111229924452</v>
       </c>
       <c r="G110">
         <v>-0.04549072019319744</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.387041722559379</v>
+        <v>-3.388527747287711</v>
       </c>
       <c r="G111">
         <v>-0.02768577503087832</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.806133846634131</v>
+        <v>-2.810846921875152</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.903407952076321</v>
+        <v>-2.908395383346228</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.996423886349017</v>
+        <v>-3.003257096038249</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.084294892788024</v>
+        <v>-3.090925956176382</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.166081055958871</v>
+        <v>-3.172313396177003</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.242561328465784</v>
+        <v>-3.248740627835772</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.314341014177698</v>
+        <v>-3.318533820370315</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.378553979228835</v>
+        <v>-3.382052779493157</v>
       </c>
       <c r="G121">
         <v>-0.04520166426923644</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.438405756779245</v>
+        <v>-3.440232387412373</v>
       </c>
       <c r="G122">
         <v>-0.02708082996876915</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.84078822142783</v>
+        <v>-2.845097796266084</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.940134595080415</v>
+        <v>-2.945455837711543</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.033578174697963</v>
+        <v>-3.039760713442016</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.122655442482135</v>
+        <v>-3.128319739428592</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.204561747172413</v>
+        <v>-3.210793324025348</v>
       </c>
       <c r="G129">
         <v>-0.06811889197793008</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.282921530421886</v>
+        <v>-3.288803152348556</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.354891294193564</v>
+        <v>-3.359734583593196</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.420586474486355</v>
+        <v>-3.424610592260346</v>
       </c>
       <c r="G132">
         <v>-0.04445199303052494</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.481106734827202</v>
+        <v>-3.483891105811704</v>
       </c>
       <c r="G133">
         <v>-0.02629964883002178</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.866623282195909</v>
+        <v>-2.869667761652138</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.965201583802858</v>
+        <v>-2.970566843205585</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.05969065946945</v>
+        <v>-3.065552235170176</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.148578491657967</v>
+        <v>-3.155291116359112</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.232832827769666</v>
+        <v>-3.238862074198511</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.311353789115334</v>
+        <v>-3.317082720176072</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.383004256978176</v>
+        <v>-3.388188340950079</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.449705897228228</v>
+        <v>-3.453041332433348</v>
       </c>
       <c r="G143">
         <v>-0.04388604593420109</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.511240433873004</v>
+        <v>-3.513503250130678</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.885933319876924</v>
+        <v>-2.890125916539842</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.986646140468809</v>
+        <v>-2.992215006135338</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.081805490271289</v>
+        <v>-3.087278071658191</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.171459967786587</v>
+        <v>-3.177471309071413</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.256029632485181</v>
+        <v>-3.2617862084696</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.334707696711947</v>
+        <v>-3.339839188976455</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.408186088599024</v>
+        <v>-3.412606928556552</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.475329024469876</v>
+        <v>-3.478451017436763</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.536741279399968</v>
+        <v>-3.539677870244557</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.902153736718469</v>
+        <v>-2.906086067513693</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.002704012544528</v>
+        <v>-3.008653477879098</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.098330449658767</v>
+        <v>-3.104117846251151</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.188612119853104</v>
+        <v>-3.194790384977367</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.273307904081813</v>
+        <v>-3.279561386325598</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.352850142455409</v>
+        <v>-3.357869193921891</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.426579057913</v>
+        <v>-3.430743241111431</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.493717080639736</v>
+        <v>-3.496959916513642</v>
       </c>
       <c r="G165">
         <v>-0.04241224278702116</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.55585367529399</v>
+        <v>-3.558403538446218</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.915886508314462</v>
+        <v>-2.919678936700549</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.017069862304222</v>
+        <v>-3.022883547868934</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.112916957256846</v>
+        <v>-3.118553620530592</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.203808927728988</v>
+        <v>-3.209523254504086</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.289156223370422</v>
+        <v>-3.294295228994063</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.369337832205382</v>
+        <v>-3.37350611895823</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.442352361012347</v>
+        <v>-3.446470485970164</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.510861558661207</v>
+        <v>-3.513821421477109</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.573057714859435</v>
+        <v>-3.575739089215527</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.926841228231889</v>
+        <v>-2.930580532275523</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.028437083663502</v>
+        <v>-3.034063640614596</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.125258420898266</v>
+        <v>-3.130274008728522</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.215986191660977</v>
+        <v>-3.221661226561173</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.301425556299361</v>
+        <v>-3.306845638762615</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.381710842754178</v>
+        <v>-3.386219818293522</v>
       </c>
       <c r="G185">
         <v>-0.06106215735511866</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.45571637805299</v>
+        <v>-3.459758723813767</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.524093921030127</v>
+        <v>-3.526779673790807</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.58617500563157</v>
+        <v>-3.588953584800283</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.936918495772454</v>
+        <v>-2.940409742354171</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.038668719021467</v>
+        <v>-3.044123599293957</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.137408566249439</v>
+        <v>-3.140576404705604</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.227115342157761</v>
+        <v>-3.231936787504555</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.312873876266319</v>
+        <v>-3.317542276770739</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.392857111939346</v>
+        <v>-3.396952827673573</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.467381899122823</v>
+        <v>-3.470824580106849</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.535871804906676</v>
+        <v>-3.538392492367443</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.598643349408496</v>
+        <v>-3.601001243914253</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.94617528830841</v>
+        <v>-2.948380099802658</v>
       </c>
       <c r="G202">
         <v>-0.02301502698824409</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.049095058204732</v>
+        <v>-3.052441736820727</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.14379994177214</v>
+        <v>-3.148983620455533</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.235689642635916</v>
+        <v>-3.240728319843648</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.321922772705339</v>
+        <v>-3.326338733589797</v>
       </c>
       <c r="G206">
         <v>-0.06240093580160844</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.402641945589022</v>
+        <v>-3.406448759221939</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.477098827744127</v>
+        <v>-3.480570815402688</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.545622624370131</v>
+        <v>-3.548186121578199</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.608605328623157</v>
+        <v>-3.610783166694435</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.122046809535657</v>
+        <v>-3.122140106607497</v>
       </c>
       <c r="G97">
         <v>-0.06925277597021595</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.767406904798777</v>
+        <v>-2.767439606184128</v>
       </c>
       <c r="G103">
         <v>-0.02560438398042475</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.865558846850992</v>
+        <v>-2.865592588409397</v>
       </c>
       <c r="G104">
         <v>-0.04396847741104759</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.95683532933223</v>
+        <v>-2.956939228052425</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.044523845824241</v>
+        <v>-3.044669725597081</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.201558263083741</v>
+        <v>-3.201772879246681</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.269264191282092</v>
+        <v>-3.269343972523004</v>
       </c>
       <c r="G109">
         <v>-0.05818412838658915</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.810846921875152</v>
+        <v>-2.810883439921863</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.003257096038249</v>
+        <v>-3.003423149597302</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.090925956176382</v>
+        <v>-3.091083864755912</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.172313396177003</v>
+        <v>-3.172447244230182</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.248740627835772</v>
+        <v>-3.248824991330759</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.318533820370315</v>
+        <v>-3.318585506464921</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.382052779493157</v>
+        <v>-3.382084765825127</v>
       </c>
       <c r="G121">
         <v>-0.04520166426923644</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.845097796266084</v>
+        <v>-2.845134476618537</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.945455837711543</v>
+        <v>-2.945479627476416</v>
       </c>
       <c r="G126">
         <v>-0.04352256867289039</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.039760713442016</v>
+        <v>-3.039814158414389</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.128319739428592</v>
+        <v>-3.128428297588916</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.210793324025348</v>
+        <v>-3.210913343689301</v>
       </c>
       <c r="G129">
         <v>-0.06811889197793008</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.288803152348556</v>
+        <v>-3.289011325485666</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.359734583593196</v>
+        <v>-3.359873461341597</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.424610592260346</v>
+        <v>-3.424650147437346</v>
       </c>
       <c r="G132">
         <v>-0.04445199303052494</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.869667761652138</v>
+        <v>-2.869684095935137</v>
       </c>
       <c r="G136">
         <v>-0.02379249504625491</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.970566843205585</v>
+        <v>-2.970631074384302</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.065552235170176</v>
+        <v>-3.065607000561634</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.155291116359112</v>
+        <v>-3.15547859078975</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.238862074198511</v>
+        <v>-3.238978462693666</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.317082720176072</v>
+        <v>-3.317209845281928</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.388188340950079</v>
+        <v>-3.388292581539726</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.513503250130678</v>
+        <v>-3.513559808808646</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.890125916539842</v>
+        <v>-2.890149324724933</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.992215006135338</v>
+        <v>-2.992300323048109</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.087278071658191</v>
+        <v>-3.087354518506053</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.177471309071413</v>
+        <v>-3.177692304718136</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.2617862084696</v>
+        <v>-3.261918287464558</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.339839188976455</v>
+        <v>-3.340079812728943</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.412606928556552</v>
+        <v>-3.412825585964823</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.478451017436763</v>
+        <v>-3.47846505736977</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.539677870244557</v>
+        <v>-3.539719196255655</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.906086067513693</v>
+        <v>-2.906120732452855</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.008653477879098</v>
+        <v>-3.008768807816958</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.104117846251151</v>
+        <v>-3.104213445787338</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.194790384977367</v>
+        <v>-3.195008848588358</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.279561386325598</v>
+        <v>-3.279726967415829</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.357869193921891</v>
+        <v>-3.358110751576681</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.430743241111431</v>
+        <v>-3.430878320668979</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.496959916513642</v>
+        <v>-3.497066431823889</v>
       </c>
       <c r="G165">
         <v>-0.04241224278702116</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.558403538446218</v>
+        <v>-3.558463789081965</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.919678936700549</v>
+        <v>-2.919738315296632</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.022883547868934</v>
+        <v>-3.02304715643128</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.118553620530592</v>
+        <v>-3.118686222027597</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.209523254504086</v>
+        <v>-3.209711307786173</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.294295228994063</v>
+        <v>-3.2944937436145</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.37350611895823</v>
+        <v>-3.373718279904312</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.446470485970164</v>
+        <v>-3.446703286876332</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.513821421477109</v>
+        <v>-3.513973529964405</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.575739089215527</v>
+        <v>-3.575814775801279</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.930580532275523</v>
+        <v>-2.930621626178832</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.034063640614596</v>
+        <v>-3.034228680719848</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.130274008728522</v>
+        <v>-3.130427800827412</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.221661226561173</v>
+        <v>-3.221906667197969</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.306845638762615</v>
+        <v>-3.307090785358776</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.386219818293522</v>
+        <v>-3.386399696272068</v>
       </c>
       <c r="G185">
         <v>-0.06106215735511866</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.459758723813767</v>
+        <v>-3.459972303761225</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.526779673790807</v>
+        <v>-3.526892872859408</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.588953584800283</v>
+        <v>-3.589060690742979</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.940409742354171</v>
+        <v>-2.94045868047021</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.044123599293957</v>
+        <v>-3.044338783759045</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.140576404705604</v>
+        <v>-3.140710096301949</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.231936787504555</v>
+        <v>-3.232205464379056</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.317542276770739</v>
+        <v>-3.317806781954237</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.396952827673573</v>
+        <v>-3.397200796482744</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.470824580106849</v>
+        <v>-3.47102729490782</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.538392492367443</v>
+        <v>-3.53852568069422</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.601001243914253</v>
+        <v>-3.601164481741022</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.948380099802658</v>
+        <v>-2.948426173330075</v>
       </c>
       <c r="G202">
         <v>-0.02301502698824409</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.052441736820727</v>
+        <v>-3.052599582018811</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.148983620455533</v>
+        <v>-3.149179144403084</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.240728319843648</v>
+        <v>-3.240997053096572</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.326338733589797</v>
+        <v>-3.326596044899231</v>
       </c>
       <c r="G206">
         <v>-0.06240093580160844</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.406448759221939</v>
+        <v>-3.40668040014011</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.480570815402688</v>
+        <v>-3.480791071046757</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.548186121578199</v>
+        <v>-3.548339865213846</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.610783166694435</v>
+        <v>-3.610907197186723</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgAu_data.xlsx
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.969774521904274</v>
+        <v>-2.969793683955527</v>
       </c>
       <c r="G95">
         <v>-0.06631338115233842</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.956939228052425</v>
+        <v>-2.95711966387209</v>
       </c>
       <c r="G105">
         <v>-0.05765214974204769</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.044669725597081</v>
+        <v>-3.044743640024408</v>
       </c>
       <c r="G106">
         <v>-0.06498895239337266</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.124346202587832</v>
+        <v>-3.1245220312692</v>
       </c>
       <c r="G107">
         <v>-0.06791083920155794</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.201772879246681</v>
+        <v>-3.20183782130056</v>
       </c>
       <c r="G108">
         <v>-0.06649180737981175</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.269343972523004</v>
+        <v>-3.269386850210739</v>
       </c>
       <c r="G109">
         <v>-0.05818412838658915</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.810883439921863</v>
+        <v>-2.810919957968569</v>
       </c>
       <c r="G114">
         <v>-0.02436998883133512</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.908395383346228</v>
+        <v>-2.908446788836016</v>
       </c>
       <c r="G115">
         <v>-0.04405317845851142</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.003423149597302</v>
+        <v>-3.003491348632511</v>
       </c>
       <c r="G116">
         <v>-0.05757480421186578</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.091083864755912</v>
+        <v>-3.091241777304825</v>
       </c>
       <c r="G117">
         <v>-0.06552815237391618</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.172447244230182</v>
+        <v>-3.172584632885836</v>
       </c>
       <c r="G118">
         <v>-0.06855724493894666</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.248824991330759</v>
+        <v>-3.249031363839893</v>
       </c>
       <c r="G119">
         <v>-0.06686268260149597</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.318585506464921</v>
+        <v>-3.318662995608813</v>
       </c>
       <c r="G120">
         <v>-0.05866509772039885</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.382084765825127</v>
+        <v>-3.382120967775019</v>
       </c>
       <c r="G121">
         <v>-0.04520166426923644</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.845134476618537</v>
+        <v>-2.845158266383407</v>
       </c>
       <c r="G125">
         <v>-0.02433065367260223</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.039814158414389</v>
+        <v>-3.039870686727316</v>
       </c>
       <c r="G127">
         <v>-0.05673727245850468</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.128428297588916</v>
+        <v>-3.128570725303602</v>
       </c>
       <c r="G128">
         <v>-0.06441110656485316</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.210913343689301</v>
+        <v>-3.211175797513707</v>
       </c>
       <c r="G129">
         <v>-0.06811889197793008</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.289011325485666</v>
+        <v>-3.28919490485188</v>
       </c>
       <c r="G130">
         <v>-0.06486182929756046</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.359873461341597</v>
+        <v>-3.360042101424014</v>
       </c>
       <c r="G131">
         <v>-0.05761118980204338</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.970631074384302</v>
+        <v>-2.970663448253161</v>
       </c>
       <c r="G137">
         <v>-0.04248935674451593</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.065607000561634</v>
+        <v>-3.06571269645518</v>
       </c>
       <c r="G138">
         <v>-0.05621926538505062</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.15547859078975</v>
+        <v>-3.155673436938895</v>
       </c>
       <c r="G139">
         <v>-0.06392974332733403</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.238978462693666</v>
+        <v>-3.239220556551981</v>
       </c>
       <c r="G140">
         <v>-0.06680538717732531</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.317209845281928</v>
+        <v>-3.317335789290284</v>
       </c>
       <c r="G141">
         <v>-0.06372767733053397</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.388292581539726</v>
+        <v>-3.388390807072175</v>
       </c>
       <c r="G142">
         <v>-0.05658649117407066</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.453041332433348</v>
+        <v>-3.453099766402667</v>
       </c>
       <c r="G143">
         <v>-0.04388604593420109</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.513559808808646</v>
+        <v>-3.5136089495135</v>
       </c>
       <c r="G144">
         <v>-0.02506009521956704</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.890149324724933</v>
+        <v>-2.890219549280183</v>
       </c>
       <c r="G147">
         <v>-0.02376251652386419</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.992300323048109</v>
+        <v>-2.992379687052102</v>
       </c>
       <c r="G148">
         <v>-0.04245303035157111</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.087354518506053</v>
+        <v>-3.087444810684458</v>
       </c>
       <c r="G149">
         <v>-0.05546223196070521</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.177692304718136</v>
+        <v>-3.178025203639602</v>
       </c>
       <c r="G150">
         <v>-0.06315226576341582</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.261918287464558</v>
+        <v>-3.262091159151579</v>
       </c>
       <c r="G151">
         <v>-0.06592809257785293</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.340079812728943</v>
+        <v>-3.340401640138495</v>
       </c>
       <c r="G152">
         <v>-0.06345790059761147</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.412825585964823</v>
+        <v>-3.41301658745013</v>
       </c>
       <c r="G153">
         <v>-0.05565547969466511</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.47846505736977</v>
+        <v>-3.478565097431953</v>
       </c>
       <c r="G154">
         <v>-0.04320552012971801</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.539719196255655</v>
+        <v>-3.539770012809959</v>
       </c>
       <c r="G155">
         <v>-0.02509881639717004</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.906120732452855</v>
+        <v>-2.90614673115724</v>
       </c>
       <c r="G158">
         <v>-0.02361537102667022</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.008768807816958</v>
+        <v>-3.008889260298577</v>
       </c>
       <c r="G159">
         <v>-0.0418254612120692</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.104213445787338</v>
+        <v>-3.10433578224184</v>
       </c>
       <c r="G160">
         <v>-0.05438064575096657</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.195008848588358</v>
+        <v>-3.195216976768604</v>
       </c>
       <c r="G161">
         <v>-0.06235018791160041</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.279726967415829</v>
+        <v>-3.280029086421136</v>
       </c>
       <c r="G162">
         <v>-0.06436998600961497</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.358110751576681</v>
+        <v>-3.358510146131256</v>
       </c>
       <c r="G163">
         <v>-0.06215325664223159</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.430878320668979</v>
+        <v>-3.431086656136042</v>
       </c>
       <c r="G164">
         <v>-0.05474900880015421</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.497066431823889</v>
+        <v>-3.497190077306611</v>
       </c>
       <c r="G165">
         <v>-0.04241224278702116</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.558463789081965</v>
+        <v>-3.558557483967786</v>
       </c>
       <c r="G166">
         <v>-0.02426883155909759</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.919738315296632</v>
+        <v>-2.919810889136274</v>
       </c>
       <c r="G169">
         <v>-0.02345321904031783</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.02304715643128</v>
+        <v>-3.02324622349594</v>
       </c>
       <c r="G170">
         <v>-0.0416049754226413</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.118686222027597</v>
+        <v>-3.118799637127759</v>
       </c>
       <c r="G171">
         <v>-0.05421669205793034</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.209711307786173</v>
+        <v>-3.209937563134323</v>
       </c>
       <c r="G172">
         <v>-0.06131875276816512</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.2944937436145</v>
+        <v>-3.294898573347519</v>
       </c>
       <c r="G173">
         <v>-0.06412766909334389</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.373718279904312</v>
+        <v>-3.373965301007192</v>
       </c>
       <c r="G174">
         <v>-0.06178677225142182</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.446703286876332</v>
+        <v>-3.446998274543452</v>
       </c>
       <c r="G175">
         <v>-0.05385536620360387</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.513973529964405</v>
+        <v>-3.514127062403059</v>
       </c>
       <c r="G176">
         <v>-0.04149313377692687</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.575814775801279</v>
+        <v>-3.575926142261462</v>
       </c>
       <c r="G177">
         <v>-0.0239662161447447</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.930621626178832</v>
+        <v>-2.930667856820085</v>
       </c>
       <c r="G180">
         <v>-0.02323405630424302</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.034228680719848</v>
+        <v>-3.034496068772805</v>
       </c>
       <c r="G181">
         <v>-0.04104761917768052</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.130427800827412</v>
+        <v>-3.130608912302492</v>
       </c>
       <c r="G182">
         <v>-0.0534936928272205</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.221906667197969</v>
+        <v>-3.222222716595109</v>
       </c>
       <c r="G183">
         <v>-0.06065734160631431</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.307090785358776</v>
+        <v>-3.307458105686262</v>
       </c>
       <c r="G184">
         <v>-0.0635477583605446</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.386399696272068</v>
+        <v>-3.386644319347831</v>
       </c>
       <c r="G185">
         <v>-0.06106215735511866</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.459972303761225</v>
+        <v>-3.460325863203662</v>
       </c>
       <c r="G186">
         <v>-0.05339108211352273</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.526892872859408</v>
+        <v>-3.527113682536459</v>
       </c>
       <c r="G187">
         <v>-0.04094904293465673</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.589060690742979</v>
+        <v>-3.589240800176877</v>
       </c>
       <c r="G188">
         <v>-0.0235381706767922</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.94045868047021</v>
+        <v>-2.940491305880892</v>
       </c>
       <c r="G191">
         <v>-0.02319568055313281</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.044338783759045</v>
+        <v>-3.04459431739322</v>
       </c>
       <c r="G192">
         <v>-0.04075441782111566</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.140710096301949</v>
+        <v>-3.140917833437331</v>
       </c>
       <c r="G193">
         <v>-0.05280929530474476</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.232205464379056</v>
+        <v>-3.232533420258219</v>
       </c>
       <c r="G194">
         <v>-0.06027964843713352</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.317806781954237</v>
+        <v>-3.318222536092823</v>
       </c>
       <c r="G195">
         <v>-0.06272961611706696</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.397200796482744</v>
+        <v>-3.397560777423686</v>
       </c>
       <c r="G196">
         <v>-0.06033247469980041</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.47102729490782</v>
+        <v>-3.471302076806618</v>
       </c>
       <c r="G197">
         <v>-0.05306578883095381</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.53852568069422</v>
+        <v>-3.538741625365232</v>
       </c>
       <c r="G198">
         <v>-0.0408972256170308</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.601164481741022</v>
+        <v>-3.601327402483966</v>
       </c>
       <c r="G199">
         <v>-0.02333322462366577</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.948426173330075</v>
+        <v>-2.948459082992519</v>
       </c>
       <c r="G202">
         <v>-0.02301502698824409</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.052599582018811</v>
+        <v>-3.052864467293017</v>
       </c>
       <c r="G203">
         <v>-0.04016349941871278</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.149179144403084</v>
+        <v>-3.149413220550533</v>
       </c>
       <c r="G204">
         <v>-0.05251933518909135</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.240997053096572</v>
+        <v>-3.241378623107433</v>
       </c>
       <c r="G205">
         <v>-0.05956971677005329</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.326596044899231</v>
+        <v>-3.32699386766877</v>
       </c>
       <c r="G206">
         <v>-0.06240093580160844</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.40668040014011</v>
+        <v>-3.407048650311308</v>
       </c>
       <c r="G207">
         <v>-0.05977885612132683</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.480791071046757</v>
+        <v>-3.481128784495497</v>
       </c>
       <c r="G208">
         <v>-0.05258347430556454</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.548339865213846</v>
+        <v>-3.548586980272162</v>
       </c>
       <c r="G209">
         <v>-0.04013277305288077</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.610907197186723</v>
+        <v>-3.61107048633659</v>
       </c>
       <c r="G210">
         <v>-0.02311364465977161</v>
